--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="35">
   <si>
     <t>Mediastore</t>
   </si>
@@ -118,7 +118,13 @@
     <t>No filters</t>
   </si>
   <si>
-    <t>DELTA</t>
+    <t>DELTA Our/Baseline</t>
+  </si>
+  <si>
+    <t>DELTA All/Common</t>
+  </si>
+  <si>
+    <t>DELTA All/No</t>
   </si>
 </sst>
 </file>
@@ -521,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,6 +2329,9 @@
       <c r="C35" t="s">
         <v>30</v>
       </c>
+      <c r="J35" t="s">
+        <v>33</v>
+      </c>
       <c r="R35" t="s">
         <v>32</v>
       </c>
@@ -2349,6 +2358,27 @@
       <c r="H36" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R36" s="4" t="s">
         <v>11</v>
       </c>
@@ -2375,398 +2405,776 @@
       <c r="B37" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="C37">
+        <v>0.159</v>
+      </c>
+      <c r="D37">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E37">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G37">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H37">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f>C23-C37</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" ref="L37:P37" si="23">D23-D37</f>
+        <v>-6.899999999999995E-2</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="23"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="23"/>
+        <v>0.1429999999999999</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="23"/>
+        <v>0.16399999999999992</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="23"/>
+        <v>5.2000000000000018E-2</v>
+      </c>
       <c r="R37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <f>C37-K$23</f>
-        <v>-0.14599999999999999</v>
+        <f>C51-K$23</f>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" ref="T37:X37" si="23">D37-L$23</f>
-        <v>-0.93100000000000005</v>
+        <f>D51-L$23</f>
+        <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.249</v>
+        <f>E51-M$23</f>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.495</v>
+        <f>F51-N$23</f>
+        <v>6.5000000000000058E-2</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.45200000000000001</v>
+        <f>G51-O$23</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="23"/>
-        <v>-0.17699999999999999</v>
+        <f>H51-P$23</f>
+        <v>-2.0000000000000018E-3</v>
       </c>
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="C38">
+        <v>0.314</v>
+      </c>
+      <c r="D38">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E38">
+        <v>0.435</v>
+      </c>
+      <c r="F38">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G38">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H38">
+        <v>0.309</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" ref="K38:K44" si="24">C24-C38</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" ref="L38:L45" si="25">D24-D38</f>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" ref="M38:M45" si="26">E24-E38</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="N38" s="2">
+        <f t="shared" ref="N38:N45" si="27">F24-F38</f>
+        <v>0.16299999999999992</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" ref="O38:O45" si="28">G24-G38</f>
+        <v>0.18899999999999995</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" ref="P38:P45" si="29">H24-H38</f>
+        <v>0.5</v>
+      </c>
       <c r="R38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f>C38-K$24</f>
-        <v>-0.11700000000000001</v>
+        <f>C52-K$24</f>
+        <v>0.11</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" ref="T38:X38" si="24">D38-L$24</f>
-        <v>-0.70399999999999996</v>
+        <f>D52-L$24</f>
+        <v>3.7000000000000033E-2</v>
       </c>
       <c r="U38" s="2">
-        <f t="shared" si="24"/>
-        <v>-0.19900000000000001</v>
+        <f>E52-M$24</f>
+        <v>0.14300000000000002</v>
       </c>
       <c r="V38" s="2">
-        <f t="shared" si="24"/>
-        <v>-0.36899999999999999</v>
+        <f>F52-N$24</f>
+        <v>0.31200000000000006</v>
       </c>
       <c r="W38" s="2">
-        <f t="shared" si="24"/>
-        <v>-0.32600000000000001</v>
+        <f>G52-O$24</f>
+        <v>0.35100000000000003</v>
       </c>
       <c r="X38" s="2">
-        <f t="shared" si="24"/>
-        <v>-2.5999999999999999E-2</v>
+        <f>H52-P$24</f>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="C39" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="R39" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S39" s="2">
         <f>C39-K$25</f>
-        <v>-9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" ref="T39:X39" si="25">D39-L$25</f>
-        <v>-0.48299999999999998</v>
+        <f t="shared" ref="T39:X39" si="30">D39-L$25</f>
+        <v>0.5</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="25"/>
-        <v>-0.156</v>
+        <f t="shared" si="30"/>
+        <v>0.12300000000000003</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="25"/>
-        <v>-0.38600000000000001</v>
+        <f t="shared" si="30"/>
+        <v>-9.000000000000008E-3</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="25"/>
-        <v>-0.373</v>
+        <f t="shared" si="30"/>
+        <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="25"/>
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="30"/>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="C40" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="24"/>
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="25"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="26"/>
+        <v>9.099999999999997E-2</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="27"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="28"/>
+        <v>0.122</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="29"/>
+        <v>9.099999999999997E-2</v>
+      </c>
       <c r="R40" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S40" s="2">
         <f>C40-K$26</f>
-        <v>-3.4000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ref="T40:X40" si="26">D40-L$26</f>
-        <v>-0.6</v>
+        <f t="shared" ref="T40:X40" si="31">D40-L$26</f>
+        <v>0.18000000000000005</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="26"/>
-        <v>-6.5000000000000002E-2</v>
+        <f t="shared" si="31"/>
+        <v>0.129</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="26"/>
-        <v>-0.3</v>
+        <f t="shared" si="31"/>
+        <v>0.435</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="26"/>
-        <v>-0.28699999999999998</v>
+        <f t="shared" si="31"/>
+        <v>0.443</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="26"/>
-        <v>0.04</v>
+        <f t="shared" si="31"/>
+        <v>0.24100000000000002</v>
       </c>
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="C41" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="24"/>
+        <v>2.8000000000000025E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="25"/>
+        <v>-2.200000000000002E-2</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="26"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N41" s="2">
+        <f t="shared" si="27"/>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="28"/>
+        <v>3.9000000000000035E-2</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="29"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S41" s="2">
         <f>C41-K$27</f>
-        <v>-3.5000000000000003E-2</v>
+        <v>0.10599999999999998</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" ref="T41:X41" si="27">D41-L$27</f>
-        <v>-0.65200000000000002</v>
+        <f t="shared" ref="T41:X41" si="32">D41-L$27</f>
+        <v>0</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="27"/>
-        <v>-6.5000000000000002E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.16600000000000001</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="27"/>
-        <v>-0.251</v>
+        <f t="shared" si="32"/>
+        <v>0.57599999999999996</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="27"/>
-        <v>-0.23400000000000001</v>
+        <f t="shared" si="32"/>
+        <v>0.59799999999999998</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="27"/>
-        <v>3.9E-2</v>
+        <f t="shared" si="32"/>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="C42" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="24"/>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="25"/>
+        <v>-9.600000000000003E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="26"/>
+        <v>9.099999999999997E-2</v>
+      </c>
+      <c r="N42" s="2">
+        <f t="shared" si="27"/>
+        <v>9.8999999999999977E-2</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="28"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="29"/>
+        <v>0.27300000000000002</v>
+      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S42" s="2">
         <f>C42-K$28</f>
-        <v>-8.2000000000000003E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:X42" si="28">D42-L$28</f>
-        <v>-0.65400000000000003</v>
+        <f t="shared" ref="T42:X42" si="33">D42-L$28</f>
+        <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="28"/>
-        <v>-0.14199999999999999</v>
+        <f t="shared" si="33"/>
+        <v>0.19700000000000004</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="28"/>
-        <v>-0.45500000000000002</v>
+        <f t="shared" si="33"/>
+        <v>0.40299999999999997</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="28"/>
-        <v>-0.439</v>
+        <f t="shared" si="33"/>
+        <v>0.433</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="28"/>
-        <v>-4.8000000000000001E-2</v>
+        <f t="shared" si="33"/>
+        <v>0.21400000000000002</v>
       </c>
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="C43" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S43" s="2">
         <f>C43-K$29</f>
-        <v>-0.111</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" ref="T43:X43" si="29">D43-L$29</f>
-        <v>-0.97099999999999997</v>
+        <f t="shared" ref="T43:X43" si="34">D43-L$29</f>
+        <v>-0.79499999999999993</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.19700000000000001</v>
+        <f t="shared" si="34"/>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.38300000000000001</v>
+        <f t="shared" si="34"/>
+        <v>0.43099999999999994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.33300000000000002</v>
+        <f t="shared" si="34"/>
+        <v>0.53699999999999992</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="29"/>
-        <v>-0.128</v>
+        <f t="shared" si="34"/>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="R44" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S44" s="2">
         <f>C44-K$30</f>
-        <v>-0.13900000000000001</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" ref="T44:X44" si="30">D44-L$30</f>
-        <v>-0.16700000000000001</v>
+        <f t="shared" ref="T44:X44" si="35">D44-L$30</f>
+        <v>0.27700000000000002</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="30"/>
-        <v>-0.14099999999999999</v>
+        <f t="shared" si="35"/>
+        <v>0.30300000000000005</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="30"/>
-        <v>-0.48699999999999999</v>
+        <f t="shared" si="35"/>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="30"/>
-        <v>-0.64800000000000002</v>
+        <f t="shared" si="35"/>
+        <v>0.35199999999999998</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="30"/>
-        <v>0.127</v>
+        <f t="shared" si="35"/>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="C45" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-0.248</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="12">
+        <f>C31-C45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
       <c r="R45" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="12">
         <f>C45-K$31</f>
-        <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="T45" s="12">
-        <f t="shared" ref="T45:X45" si="31">D45-L$31</f>
-        <v>-0.111</v>
-      </c>
-      <c r="U45" s="12">
-        <f t="shared" si="31"/>
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="V45" s="12">
-        <f t="shared" si="31"/>
-        <v>-0.222</v>
-      </c>
-      <c r="W45" s="12">
-        <f t="shared" si="31"/>
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="X45" s="12">
-        <f t="shared" si="31"/>
-        <v>-0.253</v>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T45" s="10">
+        <f t="shared" ref="T45:X45" si="36">D45-L$31</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
+        <f t="shared" si="36"/>
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="V45" s="10">
+        <f t="shared" si="36"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W45" s="10">
+        <f t="shared" si="36"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X45" s="10">
+        <f t="shared" si="36"/>
+        <v>-0.501</v>
       </c>
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="7" t="e">
+      <c r="C46" s="7">
         <f>SUM(C37:C45)/COUNT(C37:C45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="7" t="e">
-        <f t="shared" ref="D46:H46" si="32">SUM(D37:D45)/COUNT(D37:D45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="7" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="7" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="7" t="e">
+        <v>0.26044444444444448</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" ref="D46:F46" si="37">SUM(D37:D45)/COUNT(D37:D45)</f>
+        <v>0.58966666666666656</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="37"/>
+        <v>0.26766666666666672</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="37"/>
+        <v>0.68655555555555559</v>
+      </c>
+      <c r="G46" s="7">
         <f>SUM(G37:G45)/COUNT(G37:G45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H46" s="7" t="e">
-        <f t="shared" ref="H46" si="33">SUM(H37:H45)/COUNT(H37:H45)</f>
-        <v>#DIV/0!</v>
+        <v>0.71144444444444455</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46" si="38">SUM(H37:H45)/COUNT(H37:H45)</f>
+        <v>0.19011111111111109</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="2">
+        <f t="shared" ref="K46:K47" si="39">C32-C46</f>
+        <v>0.15877777777777774</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" ref="L46:L47" si="40">D32-D46</f>
+        <v>-2.7111111111111086E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" ref="M46:M47" si="41">E32-E46</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" ref="N46:N47" si="42">F32-F46</f>
+        <v>6.2111111111111117E-2</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" ref="O46:O47" si="43">G32-G46</f>
+        <v>6.9666666666666544E-2</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" ref="P46:P47" si="44">H32-H46</f>
+        <v>0.10544444444444448</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S46" s="2" t="e">
+      <c r="S46" s="2">
         <f>C46-K$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="2" t="e">
-        <f t="shared" ref="T46:X46" si="34">D46-L$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U46" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X46" s="2" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
+        <v>0.16800000000000004</v>
+      </c>
+      <c r="T46" s="2">
+        <f t="shared" ref="T46:X46" si="45">D46-L$32</f>
+        <v>3.7777777777776578E-3</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.12288888888888894</v>
+      </c>
+      <c r="V46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.31455555555555553</v>
+      </c>
+      <c r="W46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.4057777777777779</v>
+      </c>
+      <c r="X46" s="2">
+        <f t="shared" si="45"/>
+        <v>0.1482222222222222</v>
       </c>
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.25">
@@ -2774,55 +3182,82 @@
         <v>19</v>
       </c>
       <c r="C47" s="2">
-        <f>(Info!$B$2*Results!C37+Info!$B$3*Results!C38+Info!$B$4*Results!C39+Info!$B$5*Results!C40+Info!$B$6*Results!C41+Info!$B$7*Results!C42+Info!$B$8*Results!C43+Info!$B$9*Results!C44+Info!$B$10*Results!C45)/SUM(Info!$B$2:B$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!C51+Info!$B$3*Results!C52+Info!$B$4*Results!C39+Info!$B$5*Results!C40+Info!$B$6*Results!C41+Info!$B$7*Results!C42+Info!$B$8*Results!C43+Info!$B$9*Results!C44+Info!$B$10*Results!C45)/SUM(Info!$B$2:B$10)</f>
+        <v>0.20908615384615387</v>
       </c>
       <c r="D47" s="2">
-        <f>(Info!$B$2*Results!D37+Info!$B$3*Results!D38+Info!$B$4*Results!D39+Info!$B$5*Results!D40+Info!$B$6*Results!D41+Info!$B$7*Results!D42+Info!$B$8*Results!D43+Info!$B$9*Results!D44+Info!$B$10*Results!D45)/SUM(Info!$B$2:C$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!D51+Info!$B$3*Results!D52+Info!$B$4*Results!D39+Info!$B$5*Results!D40+Info!$B$6*Results!D41+Info!$B$7*Results!D42+Info!$B$8*Results!D43+Info!$B$9*Results!D44+Info!$B$10*Results!D45)/SUM(Info!$B$2:C$10)</f>
+        <v>0.66759384615384609</v>
       </c>
       <c r="E47" s="2">
-        <f>(Info!$B$2*Results!E37+Info!$B$3*Results!E38+Info!$B$4*Results!E39+Info!$B$5*Results!E40+Info!$B$6*Results!E41+Info!$B$7*Results!E42+Info!$B$8*Results!E43+Info!$B$9*Results!E44+Info!$B$10*Results!E45)/SUM(Info!$B$2:D$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!E51+Info!$B$3*Results!E52+Info!$B$4*Results!E39+Info!$B$5*Results!E40+Info!$B$6*Results!E41+Info!$B$7*Results!E42+Info!$B$8*Results!E43+Info!$B$9*Results!E44+Info!$B$10*Results!E45)/SUM(Info!$B$2:D$10)</f>
+        <v>0.25964000000000004</v>
       </c>
       <c r="F47" s="2">
-        <f>(Info!$B$2*Results!F37+Info!$B$3*Results!F38+Info!$B$4*Results!F39+Info!$B$5*Results!F40+Info!$B$6*Results!F41+Info!$B$7*Results!F42+Info!$B$8*Results!F43+Info!$B$9*Results!F44+Info!$B$10*Results!F45)/SUM(Info!$B$2:E$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!F51+Info!$B$3*Results!F52+Info!$B$4*Results!F39+Info!$B$5*Results!F40+Info!$B$6*Results!F41+Info!$B$7*Results!F42+Info!$B$8*Results!F43+Info!$B$9*Results!F44+Info!$B$10*Results!F45)/SUM(Info!$B$2:E$10)</f>
+        <v>0.68572923076923065</v>
       </c>
       <c r="G47" s="2">
-        <f>(Info!$B$2*Results!G37+Info!$B$3*Results!G38+Info!$B$4*Results!G39+Info!$B$5*Results!G40+Info!$B$6*Results!G41+Info!$B$7*Results!G42+Info!$B$8*Results!G43+Info!$B$9*Results!G44+Info!$B$10*Results!H45)/SUM(Info!$B$2:F$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!G51+Info!$B$3*Results!G52+Info!$B$4*Results!G39+Info!$B$5*Results!G40+Info!$B$6*Results!G41+Info!$B$7*Results!G42+Info!$B$8*Results!G43+Info!$B$9*Results!G44+Info!$B$10*Results!H45)/SUM(Info!$B$2:F$10)</f>
+        <v>0.66592615384615372</v>
       </c>
       <c r="H47" s="2">
-        <f>(Info!$B$2*Results!H37+Info!$B$3*Results!H38+Info!$B$4*Results!H39+Info!$B$5*Results!H40+Info!$B$6*Results!H41+Info!$B$7*Results!H42+Info!$B$8*Results!H43+Info!$B$9*Results!H44+Info!$B$10*Results!G45)/SUM(Info!$B$2:G$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!H51+Info!$B$3*Results!H52+Info!$B$4*Results!H39+Info!$B$5*Results!H40+Info!$B$6*Results!H41+Info!$B$7*Results!H42+Info!$B$8*Results!H43+Info!$B$9*Results!H44+Info!$B$10*Results!G45)/SUM(Info!$B$2:G$10)</f>
+        <v>0.21415692307692311</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="2">
+        <f t="shared" si="39"/>
+        <v>0.18119384615384615</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="40"/>
+        <v>-3.0781538461538527E-2</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="41"/>
+        <v>7.5833846153846141E-2</v>
+      </c>
+      <c r="N47" s="2">
+        <f t="shared" si="42"/>
+        <v>7.484923076923089E-2</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="43"/>
+        <v>8.3421538461538547E-2</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="44"/>
+        <v>0.11734153846153841</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S47" s="2">
         <f>C47-K$33</f>
-        <v>-8.4766153846153838E-2</v>
+        <v>0.12432000000000003</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:X47" si="35">D47-L$33</f>
-        <v>-0.63386461538461547</v>
+        <f t="shared" ref="T47:X47" si="46">D47-L$33</f>
+        <v>3.3729230769230623E-2</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="35"/>
-        <v>-0.14035384615384616</v>
+        <f t="shared" si="46"/>
+        <v>0.11928615384615388</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="35"/>
-        <v>-0.37375384615384621</v>
+        <f t="shared" si="46"/>
+        <v>0.31197538461538443</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="35"/>
-        <v>-0.21770461538461541</v>
+        <f t="shared" si="46"/>
+        <v>0.44822153846153834</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="35"/>
-        <v>-1.8276923076923076E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.19588000000000003</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
@@ -2832,6 +3267,9 @@
       <c r="C49" t="s">
         <v>31</v>
       </c>
+      <c r="J49" t="s">
+        <v>34</v>
+      </c>
       <c r="R49" t="s">
         <v>32</v>
       </c>
@@ -2858,6 +3296,27 @@
       <c r="H50" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="R50" s="4" t="s">
         <v>11</v>
       </c>
@@ -2884,398 +3343,776 @@
       <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="C51" s="2">
+        <v>0.159</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <f>C23-C51</f>
+        <v>5.3999999999999992E-2</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ref="L51:P51" si="47">D23-D51</f>
+        <v>-6.899999999999995E-2</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="47"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" si="47"/>
+        <v>0.1429999999999999</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="47"/>
+        <v>0.16399999999999992</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="47"/>
+        <v>5.3000000000000019E-2</v>
+      </c>
       <c r="R51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="2">
         <f>C51-K$23</f>
-        <v>-0.14599999999999999</v>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" ref="T51" si="36">D51-L$23</f>
-        <v>-0.93100000000000005</v>
+        <f t="shared" ref="T51:X51" si="48">D51-L$23</f>
+        <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" ref="U51" si="37">E51-M$23</f>
-        <v>-0.249</v>
+        <f t="shared" si="48"/>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" ref="V51" si="38">F51-N$23</f>
-        <v>-0.495</v>
+        <f t="shared" si="48"/>
+        <v>6.5000000000000058E-2</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" ref="W51" si="39">G51-O$23</f>
-        <v>-0.45200000000000001</v>
+        <f t="shared" si="48"/>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" ref="X51" si="40">H51-P$23</f>
-        <v>-0.17699999999999999</v>
+        <f t="shared" si="48"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="C52" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" ref="K52:K61" si="49">C24-C52</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" ref="L52:L61" si="50">D24-D52</f>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" ref="M52:M61" si="51">E24-E52</f>
+        <v>0.443</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" ref="N52:N61" si="52">F24-F52</f>
+        <v>0.27699999999999991</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" ref="O52:O61" si="53">G24-G52</f>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" ref="P52:P61" si="54">H24-H52</f>
+        <v>0.60500000000000009</v>
+      </c>
       <c r="R52" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S52" s="2">
         <f>C52-K$24</f>
-        <v>-0.11700000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ref="T52" si="41">D52-L$24</f>
-        <v>-0.70399999999999996</v>
+        <f t="shared" ref="T52:X52" si="55">D52-L$24</f>
+        <v>3.7000000000000033E-2</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" ref="U52" si="42">E52-M$24</f>
-        <v>-0.19900000000000001</v>
+        <f t="shared" si="55"/>
+        <v>0.14300000000000002</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" ref="V52" si="43">F52-N$24</f>
-        <v>-0.36899999999999999</v>
+        <f t="shared" si="55"/>
+        <v>0.31200000000000006</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" ref="W52" si="44">G52-O$24</f>
-        <v>-0.32600000000000001</v>
+        <f t="shared" si="55"/>
+        <v>0.35100000000000003</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" ref="X52" si="45">H52-P$24</f>
-        <v>-2.5999999999999999E-2</v>
+        <f t="shared" si="55"/>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="C53" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="R53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S53" s="2">
         <f>C53-K$25</f>
-        <v>-9.4E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T53" s="2">
-        <f t="shared" ref="T53" si="46">D53-L$25</f>
-        <v>-0.48299999999999998</v>
+        <f>D53-L$25</f>
+        <v>0.5</v>
       </c>
       <c r="U53" s="2">
-        <f t="shared" ref="U53" si="47">E53-M$25</f>
-        <v>-0.156</v>
+        <f>E53-M$25</f>
+        <v>0.12300000000000003</v>
       </c>
       <c r="V53" s="2">
-        <f t="shared" ref="V53" si="48">F53-N$25</f>
-        <v>-0.38600000000000001</v>
+        <f>F53-N$25</f>
+        <v>-9.000000000000008E-3</v>
       </c>
       <c r="W53" s="2">
-        <f t="shared" ref="W53" si="49">G53-O$25</f>
-        <v>-0.373</v>
+        <f>G53-O$25</f>
+        <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X53" s="2">
-        <f t="shared" ref="X53" si="50">H53-P$25</f>
-        <v>4.9000000000000002E-2</v>
+        <f>H53-P$25</f>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="C54" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2">
+        <f t="shared" si="49"/>
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="50"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="51"/>
+        <v>9.1999999999999971E-2</v>
+      </c>
+      <c r="N54" s="2">
+        <f t="shared" si="52"/>
+        <v>0.13</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="53"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="54"/>
+        <v>7.6999999999999985E-2</v>
+      </c>
       <c r="R54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S54" s="2">
         <f>C54-K$26</f>
-        <v>-3.4000000000000002E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ref="T54" si="51">D54-L$26</f>
-        <v>-0.6</v>
+        <f t="shared" ref="T54" si="56">D54-L$26</f>
+        <v>0.24</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" ref="U54" si="52">E54-M$26</f>
-        <v>-6.5000000000000002E-2</v>
+        <f t="shared" ref="U54" si="57">E54-M$26</f>
+        <v>0.128</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" ref="V54" si="53">F54-N$26</f>
-        <v>-0.3</v>
+        <f t="shared" ref="V54" si="58">F54-N$26</f>
+        <v>0.42199999999999999</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" ref="W54" si="54">G54-O$26</f>
-        <v>-0.28699999999999998</v>
+        <f t="shared" ref="W54" si="59">G54-O$26</f>
+        <v>0.42799999999999999</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" ref="X54" si="55">H54-P$26</f>
-        <v>0.04</v>
+        <f t="shared" ref="X54" si="60">H54-P$26</f>
+        <v>0.255</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="C55" s="2">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.224</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" s="2">
+        <f t="shared" si="49"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="50"/>
+        <v>-0.10899999999999999</v>
+      </c>
+      <c r="M55" s="2">
+        <f t="shared" si="51"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="N55" s="2">
+        <f t="shared" si="52"/>
+        <v>7.1999999999999953E-2</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="53"/>
+        <v>7.8999999999999959E-2</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="54"/>
+        <v>0.03</v>
+      </c>
       <c r="R55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S55" s="2">
         <f>C55-K$27</f>
-        <v>-3.5000000000000003E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" ref="T55" si="56">D55-L$27</f>
-        <v>-0.65200000000000002</v>
+        <f t="shared" ref="T55" si="61">D55-L$27</f>
+        <v>8.6999999999999966E-2</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" ref="U55" si="57">E55-M$27</f>
-        <v>-6.5000000000000002E-2</v>
+        <f t="shared" ref="U55" si="62">E55-M$27</f>
+        <v>0.159</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" ref="V55" si="58">F55-N$27</f>
-        <v>-0.251</v>
+        <f t="shared" ref="V55" si="63">F55-N$27</f>
+        <v>0.54100000000000004</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" ref="W55" si="59">G55-O$27</f>
-        <v>-0.23400000000000001</v>
+        <f t="shared" ref="W55" si="64">G55-O$27</f>
+        <v>0.55800000000000005</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" ref="X55" si="60">H55-P$27</f>
-        <v>3.9E-2</v>
+        <f t="shared" ref="X55" si="65">H55-P$27</f>
+        <v>0.27</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="C56" s="2">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2">
+        <f t="shared" si="49"/>
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="50"/>
+        <v>-9.600000000000003E-2</v>
+      </c>
+      <c r="M56" s="2">
+        <f t="shared" si="51"/>
+        <v>0.14200000000000002</v>
+      </c>
+      <c r="N56" s="2">
+        <f t="shared" si="52"/>
+        <v>0.15399999999999991</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="53"/>
+        <v>0.17299999999999993</v>
+      </c>
+      <c r="P56" s="2">
+        <f t="shared" si="54"/>
+        <v>0.33600000000000002</v>
+      </c>
       <c r="R56" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S56" s="2">
         <f>C56-K$28</f>
-        <v>-8.2000000000000003E-2</v>
+        <v>0.12100000000000001</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" ref="T56" si="61">D56-L$28</f>
-        <v>-0.65400000000000003</v>
+        <f t="shared" ref="T56" si="66">D56-L$28</f>
+        <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" ref="U56" si="62">E56-M$28</f>
-        <v>-0.14199999999999999</v>
+        <f t="shared" ref="U56" si="67">E56-M$28</f>
+        <v>0.14599999999999999</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56" si="63">F56-N$28</f>
-        <v>-0.45500000000000002</v>
+        <f t="shared" ref="V56" si="68">F56-N$28</f>
+        <v>0.34800000000000003</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" ref="W56" si="64">G56-O$28</f>
-        <v>-0.439</v>
+        <f t="shared" ref="W56" si="69">G56-O$28</f>
+        <v>0.37300000000000005</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" ref="X56" si="65">H56-P$28</f>
-        <v>-4.8000000000000001E-2</v>
+        <f t="shared" ref="X56" si="70">H56-P$28</f>
+        <v>0.15100000000000002</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="C57" s="2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="H57" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S57" s="2">
         <f>C57-K$29</f>
-        <v>-0.111</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" ref="T57" si="66">D57-L$29</f>
-        <v>-0.97099999999999997</v>
+        <f t="shared" ref="T57" si="71">D57-L$29</f>
+        <v>-0.79499999999999993</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" ref="U57" si="67">E57-M$29</f>
-        <v>-0.19700000000000001</v>
+        <f t="shared" ref="U57" si="72">E57-M$29</f>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" ref="V57" si="68">F57-N$29</f>
-        <v>-0.38300000000000001</v>
+        <f t="shared" ref="V57" si="73">F57-N$29</f>
+        <v>0.43099999999999994</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" ref="W57" si="69">G57-O$29</f>
-        <v>-0.33300000000000002</v>
+        <f t="shared" ref="W57" si="74">G57-O$29</f>
+        <v>0.53699999999999992</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" ref="X57" si="70">H57-P$29</f>
-        <v>-0.128</v>
+        <f t="shared" ref="X57" si="75">H57-P$29</f>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="C58" s="2">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="2">
+        <f t="shared" si="49"/>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <f t="shared" si="51"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="N58" s="2">
+        <f t="shared" si="52"/>
+        <v>0.128</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="53"/>
+        <v>0.18700000000000006</v>
+      </c>
+      <c r="P58" s="2">
+        <f t="shared" si="54"/>
+        <v>0.36099999999999999</v>
+      </c>
       <c r="R58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S58" s="2">
         <f>C58-K$30</f>
-        <v>-0.13900000000000001</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" ref="T58" si="71">D58-L$30</f>
-        <v>-0.16700000000000001</v>
+        <f t="shared" ref="T58" si="76">D58-L$30</f>
+        <v>0.27700000000000002</v>
       </c>
       <c r="U58" s="2">
-        <f t="shared" ref="U58" si="72">E58-M$30</f>
-        <v>-0.14099999999999999</v>
+        <f t="shared" ref="U58" si="77">E58-M$30</f>
+        <v>0.24100000000000002</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" ref="V58" si="73">F58-N$30</f>
-        <v>-0.48699999999999999</v>
+        <f t="shared" ref="V58" si="78">F58-N$30</f>
+        <v>0.23099999999999998</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" ref="W58" si="74">G58-O$30</f>
-        <v>-0.64800000000000002</v>
+        <f t="shared" ref="W58" si="79">G58-O$30</f>
+        <v>0.16499999999999992</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" ref="X58" si="75">H58-P$30</f>
-        <v>0.127</v>
+        <f t="shared" ref="X58" si="80">H58-P$30</f>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="C59" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-0.248</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="12">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="10">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="10">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="R59" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S59" s="12">
         <f>C59-K$31</f>
-        <v>-7.3999999999999996E-2</v>
-      </c>
-      <c r="T59" s="12">
-        <f t="shared" ref="T59" si="76">D59-L$31</f>
-        <v>-0.111</v>
-      </c>
-      <c r="U59" s="12">
-        <f t="shared" ref="U59" si="77">E59-M$31</f>
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="V59" s="12">
-        <f t="shared" ref="V59" si="78">F59-N$31</f>
-        <v>-0.222</v>
-      </c>
-      <c r="W59" s="12">
-        <f t="shared" ref="W59" si="79">G59-O$31</f>
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="X59" s="12">
-        <f t="shared" ref="X59" si="80">H59-P$31</f>
-        <v>-0.253</v>
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T59" s="10">
+        <f t="shared" ref="T59" si="81">D59-L$31</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="10">
+        <f t="shared" ref="U59" si="82">E59-M$31</f>
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="V59" s="10">
+        <f t="shared" ref="V59" si="83">F59-N$31</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W59" s="10">
+        <f t="shared" ref="W59" si="84">G59-O$31</f>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X59" s="10">
+        <f t="shared" ref="X59" si="85">H59-P$31</f>
+        <v>-0.501</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="7" t="e">
+      <c r="C60" s="7">
         <f>SUM(C51:C59)/COUNT(C51:C59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="7" t="e">
-        <f t="shared" ref="D60:H60" si="81">SUM(D51:D59)/COUNT(D51:D59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E60" s="7" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="7" t="e">
-        <f t="shared" si="81"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="7" t="e">
+        <v>0.17055555555555557</v>
+      </c>
+      <c r="D60" s="7">
+        <f>SUM(D51:D59)/COUNT(D51:D59)</f>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E60" s="7">
+        <f>SUM(E51:E59)/COUNT(E51:E59)</f>
+        <v>0.24388888888888893</v>
+      </c>
+      <c r="F60" s="7">
+        <f>SUM(F51:F59)/COUNT(F51:F59)</f>
+        <v>0.64822222222222214</v>
+      </c>
+      <c r="G60" s="7">
         <f>SUM(G51:G59)/COUNT(G51:G59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H60" s="7" t="e">
-        <f t="shared" ref="H60" si="82">SUM(H51:H59)/COUNT(H51:H59)</f>
-        <v>#DIV/0!</v>
+        <v>0.66355555555555557</v>
+      </c>
+      <c r="H60" s="7">
+        <f>SUM(H51:H59)/COUNT(H51:H59)</f>
+        <v>0.1331111111111111</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="2">
+        <f t="shared" si="49"/>
+        <v>0.24866666666666665</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="50"/>
+        <v>-4.3444444444444508E-2</v>
+      </c>
+      <c r="M60" s="2">
+        <f t="shared" si="51"/>
+        <v>9.3777777777777793E-2</v>
+      </c>
+      <c r="N60" s="2">
+        <f t="shared" si="52"/>
+        <v>0.10044444444444456</v>
+      </c>
+      <c r="O60" s="2">
+        <f t="shared" si="53"/>
+        <v>0.11755555555555552</v>
+      </c>
+      <c r="P60" s="2">
+        <f t="shared" si="54"/>
+        <v>0.16244444444444447</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S60" s="2" t="e">
+      <c r="S60" s="2">
         <f>C60-K$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T60" s="2" t="e">
-        <f t="shared" ref="T60" si="83">D60-L$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U60" s="2" t="e">
-        <f t="shared" ref="U60" si="84">E60-M$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V60" s="2" t="e">
-        <f t="shared" ref="V60" si="85">F60-N$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W60" s="2" t="e">
-        <f t="shared" ref="W60" si="86">G60-O$32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X60" s="2" t="e">
-        <f t="shared" ref="X60" si="87">H60-P$32</f>
-        <v>#DIV/0!</v>
+        <v>7.8111111111111131E-2</v>
+      </c>
+      <c r="T60" s="2">
+        <f t="shared" ref="T60" si="86">D60-L$32</f>
+        <v>2.011111111111108E-2</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" ref="U60" si="87">E60-M$32</f>
+        <v>9.911111111111115E-2</v>
+      </c>
+      <c r="V60" s="2">
+        <f t="shared" ref="V60" si="88">F60-N$32</f>
+        <v>0.27622222222222209</v>
+      </c>
+      <c r="W60" s="2">
+        <f t="shared" ref="W60" si="89">G60-O$32</f>
+        <v>0.35788888888888892</v>
+      </c>
+      <c r="X60" s="2">
+        <f t="shared" ref="X60" si="90">H60-P$32</f>
+        <v>9.1222222222222205E-2</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -3284,54 +4121,81 @@
       </c>
       <c r="C61" s="2">
         <f>(Info!$B$2*Results!C51+Info!$B$3*Results!C52+Info!$B$4*Results!C53+Info!$B$5*Results!C54+Info!$B$6*Results!C55+Info!$B$7*Results!C56+Info!$B$8*Results!C57+Info!$B$9*Results!C58+Info!$B$10*Results!C59)/SUM(Info!$B$2:B$10)</f>
-        <v>0</v>
+        <v>0.16266153846153847</v>
       </c>
       <c r="D61" s="2">
         <f>(Info!$B$2*Results!D51+Info!$B$3*Results!D52+Info!$B$4*Results!D53+Info!$B$5*Results!D54+Info!$B$6*Results!D55+Info!$B$7*Results!D56+Info!$B$8*Results!D57+Info!$B$9*Results!D58+Info!$B$10*Results!D59)/SUM(Info!$B$2:C$10)</f>
-        <v>0</v>
+        <v>0.68913846153846159</v>
       </c>
       <c r="E61" s="2">
         <f>(Info!$B$2*Results!E51+Info!$B$3*Results!E52+Info!$B$4*Results!E53+Info!$B$5*Results!E54+Info!$B$6*Results!E55+Info!$B$7*Results!E56+Info!$B$8*Results!E57+Info!$B$9*Results!E58+Info!$B$10*Results!E59)/SUM(Info!$B$2:D$10)</f>
-        <v>0</v>
+        <v>0.24690153846153848</v>
       </c>
       <c r="F61" s="2">
         <f>(Info!$B$2*Results!F51+Info!$B$3*Results!F52+Info!$B$4*Results!F53+Info!$B$5*Results!F54+Info!$B$6*Results!F55+Info!$B$7*Results!F56+Info!$B$8*Results!F57+Info!$B$9*Results!F58+Info!$B$10*Results!F59)/SUM(Info!$B$2:E$10)</f>
-        <v>0</v>
+        <v>0.66288615384615379</v>
       </c>
       <c r="G61" s="2">
-        <f>(Info!$B$2*Results!G51+Info!$B$3*Results!G52+Info!$B$4*Results!G53+Info!$B$5*Results!G54+Info!$B$6*Results!G55+Info!$B$7*Results!G56+Info!$B$8*Results!G57+Info!$B$9*Results!G58+Info!$B$10*Results!H59)/SUM(Info!$B$2:F$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!G51+Info!$B$3*Results!G52+Info!$B$4*Results!G53+Info!$B$5*Results!G54+Info!$B$6*Results!G55+Info!$B$7*Results!G56+Info!$B$8*Results!G57+Info!$B$9*Results!G58+Info!$B$10*Results!G59)/SUM(Info!$B$2:F$10)</f>
+        <v>0.65804923076923061</v>
       </c>
       <c r="H61" s="2">
-        <f>(Info!$B$2*Results!H51+Info!$B$3*Results!H52+Info!$B$4*Results!H53+Info!$B$5*Results!H54+Info!$B$6*Results!H55+Info!$B$7*Results!H56+Info!$B$8*Results!H57+Info!$B$9*Results!H58+Info!$B$10*Results!G59)/SUM(Info!$B$2:G$10)</f>
-        <v>0</v>
+        <f>(Info!$B$2*Results!H51+Info!$B$3*Results!H52+Info!$B$4*Results!H53+Info!$B$5*Results!H54+Info!$B$6*Results!H55+Info!$B$7*Results!H56+Info!$B$8*Results!H57+Info!$B$9*Results!H58+Info!$B$10*Results!H59)/SUM(Info!$B$2:G$10)</f>
+        <v>0.1666123076923077</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="2">
+        <f t="shared" si="49"/>
+        <v>0.22761846153846155</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="50"/>
+        <v>-5.2326153846154022E-2</v>
+      </c>
+      <c r="M61" s="2">
+        <f t="shared" si="51"/>
+        <v>8.85723076923077E-2</v>
+      </c>
+      <c r="N61" s="2">
+        <f t="shared" si="52"/>
+        <v>9.7692307692307745E-2</v>
+      </c>
+      <c r="O61" s="2">
+        <f t="shared" si="53"/>
+        <v>9.1298461538461662E-2</v>
+      </c>
+      <c r="P61" s="2">
+        <f t="shared" si="54"/>
+        <v>0.16488615384615382</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S61" s="2">
         <f>C61-K$33</f>
-        <v>-8.4766153846153838E-2</v>
+        <v>7.789538461538463E-2</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" ref="T61" si="88">D61-L$33</f>
-        <v>-0.63386461538461547</v>
+        <f t="shared" ref="T61" si="91">D61-L$33</f>
+        <v>5.5273846153846118E-2</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" ref="U61" si="89">E61-M$33</f>
-        <v>-0.14035384615384616</v>
+        <f t="shared" ref="U61" si="92">E61-M$33</f>
+        <v>0.10654769230769232</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" ref="V61" si="90">F61-N$33</f>
-        <v>-0.37375384615384621</v>
+        <f t="shared" ref="V61" si="93">F61-N$33</f>
+        <v>0.28913230769230758</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" ref="W61" si="91">G61-O$33</f>
-        <v>-0.21770461538461541</v>
+        <f t="shared" ref="W61" si="94">G61-O$33</f>
+        <v>0.44034461538461522</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" ref="X61" si="92">H61-P$33</f>
-        <v>-1.8276923076923076E-2</v>
+        <f t="shared" ref="X61" si="95">H61-P$33</f>
+        <v>0.14833538461538462</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
@@ -3405,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C74" si="93">D67+F67</f>
+        <f t="shared" ref="C67:C74" si="96">D67+F67</f>
         <v>5</v>
       </c>
       <c r="D67">
@@ -3418,15 +4282,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G74" si="94">D67/(D67+E67)</f>
+        <f t="shared" ref="G67:G74" si="97">D67/(D67+E67)</f>
         <v>1</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H74" si="95">D67/(D67+F67)</f>
+        <f t="shared" ref="H67:H74" si="98">D67/(D67+F67)</f>
         <v>1</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I74" si="96">2*G67*H67/(G67+H67)</f>
+        <f t="shared" ref="I67:I74" si="99">2*G67*H67/(G67+H67)</f>
         <v>1</v>
       </c>
     </row>
@@ -3435,7 +4299,7 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>5</v>
       </c>
       <c r="D68">
@@ -3448,15 +4312,15 @@
         <v>0</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.90909090909090906</v>
       </c>
     </row>
@@ -3465,7 +4329,7 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="D69">
@@ -3486,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="D70">
@@ -3499,15 +4363,15 @@
         <v>0</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
     </row>
@@ -3516,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="D71">
@@ -3529,15 +4393,15 @@
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
     </row>
@@ -3546,7 +4410,7 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>6</v>
       </c>
       <c r="D72">
@@ -3559,15 +4423,15 @@
         <v>3</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.75</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3576,7 +4440,7 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="D73">
@@ -3589,15 +4453,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>1</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>1</v>
       </c>
     </row>
@@ -3606,7 +4470,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>2</v>
       </c>
       <c r="D74" s="5">
@@ -3619,15 +4483,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="97"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H74" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>1</v>
       </c>
       <c r="I74" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>0.8</v>
       </c>
     </row>
@@ -3640,23 +4504,23 @@
         <v>2.4444444444444446</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" ref="E75:I75" si="97">SUM(E66:E74)/COUNT(E66:E74)</f>
+        <f t="shared" ref="E75:I75" si="100">SUM(E66:E74)/COUNT(E66:E74)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.90625000000000011</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.89583333333333326</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>0.88863636363636356</v>
       </c>
     </row>
@@ -3682,6 +4546,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S5:X15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23:X33">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="-0.1"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S37:X47">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -3693,7 +4581,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S23:X33">
+  <conditionalFormatting sqref="S51:X61">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -3705,7 +4593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S37:X47">
+  <conditionalFormatting sqref="K37:P47">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -3717,7 +4605,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S51:X61">
+  <conditionalFormatting sqref="K51:P61">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-0.1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="37">
   <si>
     <t>Mediastore</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>DELTA All/No</t>
+  </si>
+  <si>
+    <t>#ModelElements</t>
+  </si>
+  <si>
+    <t>TN</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -245,6 +251,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -527,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,77 +1362,77 @@
       </c>
       <c r="D15" s="2">
         <f>(Info!$B$2*Results!D5+Info!$B$3*Results!D6+Info!$B$4*Results!D7+Info!$B$5*Results!D8+Info!$B$6*Results!D9+Info!$B$7*Results!D10+Info!$B$8*Results!D11+Info!$B$9*Results!D12+Info!$B$10*Results!D13)/SUM(Info!$B$2:C$10)</f>
-        <v>0.80624000000000007</v>
+        <v>0.63445036319612591</v>
       </c>
       <c r="E15" s="2">
         <f>(Info!$B$2*Results!E5+Info!$B$3*Results!E6+Info!$B$4*Results!E7+Info!$B$5*Results!E8+Info!$B$6*Results!E9+Info!$B$7*Results!E10+Info!$B$8*Results!E11+Info!$B$9*Results!E12+Info!$B$10*Results!E13)/SUM(Info!$B$2:D$10)</f>
-        <v>0.79448307692307707</v>
+        <v>0.6251985472154965</v>
       </c>
       <c r="F15" s="2">
         <f>(Info!$B$2*Results!F5+Info!$B$3*Results!F6+Info!$B$4*Results!F7+Info!$B$5*Results!F8+Info!$B$6*Results!F9+Info!$B$7*Results!F10+Info!$B$8*Results!F11+Info!$B$9*Results!F12+Info!$B$10*Results!F13)/SUM(Info!$B$2:E$10)</f>
-        <v>0.98108615384615372</v>
+        <v>0.77204116222760277</v>
       </c>
       <c r="G15" s="2">
         <f>(Info!$B$2*Results!G5+Info!$B$3*Results!G6+Info!$B$4*Results!G7+Info!$B$5*Results!G8+Info!$B$6*Results!G9+Info!$B$7*Results!G10+Info!$B$8*Results!G11+Info!$B$9*Results!G12+Info!$B$10*Results!G13)/SUM(Info!$B$2:F$10)</f>
-        <v>0.98913538461538464</v>
+        <v>0.77837530266343824</v>
       </c>
       <c r="H15" s="2">
         <f>(Info!$B$2*Results!H5+Info!$B$3*Results!H6+Info!$B$4*Results!H7+Info!$B$5*Results!H8+Info!$B$6*Results!H9+Info!$B$7*Results!H10+Info!$B$8*Results!H11+Info!$B$9*Results!H12+Info!$B$10*Results!H13)/SUM(Info!$B$2:G$10)</f>
-        <v>0.79310153846153841</v>
+        <v>0.62411138014527845</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K15" s="2">
         <f>(Info!$B$2*Results!K5+Info!$B$3*Results!K6+Info!$B$4*Results!K7+Info!$B$5*Results!K8+Info!$B$6*Results!K9+Info!$B$7*Results!K10+Info!$B$8*Results!K11+Info!$B$9*Results!K12+Info!$B$10*Results!K13)/SUM(Info!$B$2:J$10)</f>
-        <v>0.79843076923076928</v>
+        <v>0.62830508474576274</v>
       </c>
       <c r="L15" s="2">
         <f>(Info!$B$2*Results!L5+Info!$B$3*Results!L6+Info!$B$4*Results!L7+Info!$B$5*Results!L8+Info!$B$6*Results!L9+Info!$B$7*Results!L10+Info!$B$8*Results!L11+Info!$B$9*Results!L12+Info!$B$10*Results!L13)/SUM(Info!$B$2:K$10)</f>
-        <v>0.36732615384615386</v>
+        <v>0.28905811138014526</v>
       </c>
       <c r="M15" s="2">
         <f>(Info!$B$2*Results!M5+Info!$B$3*Results!M6+Info!$B$4*Results!M7+Info!$B$5*Results!M8+Info!$B$6*Results!M9+Info!$B$7*Results!M10+Info!$B$8*Results!M11+Info!$B$9*Results!M12+Info!$B$10*Results!M13)/SUM(Info!$B$2:L$10)</f>
-        <v>0.49726461538461525</v>
+        <v>0.39130992736077475</v>
       </c>
       <c r="N15" s="2">
         <f>(Info!$B$2*Results!N5+Info!$B$3*Results!N6+Info!$B$4*Results!N7+Info!$B$5*Results!N8+Info!$B$6*Results!N9+Info!$B$7*Results!N10+Info!$B$8*Results!N11+Info!$B$9*Results!N12+Info!$B$10*Results!N13)/SUM(Info!$B$2:M$10)</f>
-        <v>0.89071999999999996</v>
+        <v>0.70092978208232437</v>
       </c>
       <c r="O15" s="2">
         <f>(Info!$B$2*Results!O5+Info!$B$3*Results!O6+Info!$B$4*Results!O7+Info!$B$5*Results!O8+Info!$B$6*Results!O9+Info!$B$7*Results!O10+Info!$B$8*Results!O11+Info!$B$9*Results!O12+Info!$B$10*Results!O13)/SUM(Info!$B$2:N$10)</f>
-        <v>0.98219692307692286</v>
+        <v>0.77291525423728802</v>
       </c>
       <c r="P15" s="2">
         <f>(Info!$B$2*Results!P5+Info!$B$3*Results!P6+Info!$B$4*Results!P7+Info!$B$5*Results!P8+Info!$B$6*Results!P9+Info!$B$7*Results!P10+Info!$B$8*Results!P11+Info!$B$9*Results!P12+Info!$B$10*Results!P13)/SUM(Info!$B$2:O$10)</f>
-        <v>0.48899999999999993</v>
+        <v>0.38480629539951572</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ref="S15" si="9">C15-K15</f>
-        <v>1.5846153846153954E-2</v>
+        <v>0.18597183833116049</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ref="T15" si="10">D15-L15</f>
-        <v>0.43891384615384621</v>
+        <v>0.34539225181598066</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" ref="U15" si="11">E15-M15</f>
-        <v>0.29721846153846182</v>
+        <v>0.23388861985472176</v>
       </c>
       <c r="V15" s="2">
         <f t="shared" ref="V15" si="12">F15-N15</f>
-        <v>9.0366153846153763E-2</v>
+        <v>7.1111380145278402E-2</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" ref="W15" si="13">G15-O15</f>
-        <v>6.938461538461782E-3</v>
+        <v>5.4600484261502213E-3</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" ref="X15" si="14">H15-P15</f>
-        <v>0.30410153846153848</v>
+        <v>0.23930508474576273</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
@@ -2249,77 +2256,77 @@
       </c>
       <c r="D33" s="2">
         <f>(Info!$B$2*Results!D23+Info!$B$3*Results!D24+Info!$B$4*Results!D25+Info!$B$5*Results!D26+Info!$B$6*Results!D27+Info!$B$7*Results!D28+Info!$B$8*Results!D29+Info!$B$9*Results!D30+Info!$B$10*Results!D31)/SUM(Info!$B$2:C$10)</f>
-        <v>0.63681230769230757</v>
+        <v>0.50112348668280859</v>
       </c>
       <c r="E33" s="2">
         <f>(Info!$B$2*Results!E23+Info!$B$3*Results!E24+Info!$B$4*Results!E25+Info!$B$5*Results!E26+Info!$B$6*Results!E27+Info!$B$7*Results!E28+Info!$B$8*Results!E29+Info!$B$9*Results!E30+Info!$B$10*Results!E31)/SUM(Info!$B$2:D$10)</f>
-        <v>0.33547384615384618</v>
+        <v>0.26399273607748186</v>
       </c>
       <c r="F33" s="2">
         <f>(Info!$B$2*Results!F23+Info!$B$3*Results!F24+Info!$B$4*Results!F25+Info!$B$5*Results!F26+Info!$B$6*Results!F27+Info!$B$7*Results!F28+Info!$B$8*Results!F29+Info!$B$9*Results!F30+Info!$B$10*Results!F31)/SUM(Info!$B$2:E$10)</f>
-        <v>0.76057846153846154</v>
+        <v>0.59851815980629541</v>
       </c>
       <c r="G33" s="2">
         <f>(Info!$B$2*Results!G23+Info!$B$3*Results!G24+Info!$B$4*Results!G25+Info!$B$5*Results!G26+Info!$B$6*Results!G27+Info!$B$7*Results!G28+Info!$B$8*Results!G29+Info!$B$9*Results!G30+Info!$B$10*Results!H31)/SUM(Info!$B$2:F$10)</f>
-        <v>0.74934769230769227</v>
+        <v>0.58968038740920092</v>
       </c>
       <c r="H33" s="2">
         <f>(Info!$B$2*Results!H23+Info!$B$3*Results!H24+Info!$B$4*Results!H25+Info!$B$5*Results!H26+Info!$B$6*Results!H27+Info!$B$7*Results!H28+Info!$B$8*Results!H29+Info!$B$9*Results!H30+Info!$B$10*Results!G31)/SUM(Info!$B$2:G$10)</f>
-        <v>0.33149846153846152</v>
+        <v>0.260864406779661</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="2">
         <f>(Info!$B$2*Results!K23+Info!$B$3*Results!K24+Info!$B$4*Results!K25+Info!$B$5*Results!K26+Info!$B$6*Results!K27+Info!$B$7*Results!K28+Info!$B$8*Results!K29+Info!$B$9*Results!K30+Info!$B$10*Results!K31)/SUM(Info!$B$2:J$10)</f>
-        <v>8.4766153846153838E-2</v>
+        <v>6.6704600484261495E-2</v>
       </c>
       <c r="L33" s="2">
         <f>(Info!$B$2*Results!L23+Info!$B$3*Results!L24+Info!$B$4*Results!L25+Info!$B$5*Results!L26+Info!$B$6*Results!L27+Info!$B$7*Results!L28+Info!$B$8*Results!L29+Info!$B$9*Results!L30+Info!$B$10*Results!L31)/SUM(Info!$B$2:K$10)</f>
-        <v>0.63386461538461547</v>
+        <v>0.49880387409200977</v>
       </c>
       <c r="M33" s="2">
         <f>(Info!$B$2*Results!M23+Info!$B$3*Results!M24+Info!$B$4*Results!M25+Info!$B$5*Results!M26+Info!$B$6*Results!M27+Info!$B$7*Results!M28+Info!$B$8*Results!M29+Info!$B$9*Results!M30+Info!$B$10*Results!M31)/SUM(Info!$B$2:L$10)</f>
-        <v>0.14035384615384616</v>
+        <v>0.11044794188861987</v>
       </c>
       <c r="N33" s="2">
         <f>(Info!$B$2*Results!N23+Info!$B$3*Results!N24+Info!$B$4*Results!N25+Info!$B$5*Results!N26+Info!$B$6*Results!N27+Info!$B$7*Results!N28+Info!$B$8*Results!N29+Info!$B$9*Results!N30+Info!$B$10*Results!N31)/SUM(Info!$B$2:M$10)</f>
-        <v>0.37375384615384621</v>
+        <v>0.29411622276029059</v>
       </c>
       <c r="O33" s="2">
         <f>(Info!$B$2*Results!P23+Info!$B$3*Results!P24+Info!$B$4*Results!P25+Info!$B$5*Results!O26+Info!$B$6*Results!O27+Info!$B$7*Results!O28+Info!$B$8*Results!O29+Info!$B$9*Results!O30+Info!$B$10*Results!O31)/SUM(Info!$B$2:N$10)</f>
-        <v>0.21770461538461541</v>
+        <v>0.17131719128329298</v>
       </c>
       <c r="P33" s="2">
         <f>(Info!$B$2*Results!P23+Info!$B$3*Results!P24+Info!$B$4*Results!P25+Info!$B$5*Results!P26+Info!$B$6*Results!P27+Info!$B$7*Results!P28+Info!$B$8*Results!P29+Info!$B$9*Results!P30+Info!$B$10*Results!P31)/SUM(Info!$B$2:O$10)</f>
-        <v>1.8276923076923076E-2</v>
+        <v>1.4382566585956415E-2</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S33" s="2">
         <f t="shared" si="20"/>
-        <v>0.30551384615384619</v>
+        <v>0.32357539951573855</v>
       </c>
       <c r="T33" s="2">
         <f t="shared" si="15"/>
-        <v>2.9476923076920958E-3</v>
+        <v>2.3196125907988252E-3</v>
       </c>
       <c r="U33" s="2">
         <f t="shared" si="16"/>
-        <v>0.19512000000000002</v>
+        <v>0.15354479418886199</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" si="17"/>
-        <v>0.38682461538461532</v>
+        <v>0.30440193704600482</v>
       </c>
       <c r="W33" s="2">
         <f t="shared" si="18"/>
-        <v>0.53164307692307688</v>
+        <v>0.41836319612590794</v>
       </c>
       <c r="X33" s="2">
         <f t="shared" si="19"/>
-        <v>0.31322153846153844</v>
+        <v>0.24648184019370459</v>
       </c>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
@@ -2454,27 +2461,27 @@
         <v>0</v>
       </c>
       <c r="S37" s="2">
-        <f>C51-K$23</f>
+        <f t="shared" ref="S37:X37" si="24">C51-K$23</f>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="T37" s="2">
-        <f>D51-L$23</f>
+        <f t="shared" si="24"/>
         <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U37" s="2">
-        <f>E51-M$23</f>
+        <f t="shared" si="24"/>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="V37" s="2">
-        <f>F51-N$23</f>
+        <f t="shared" si="24"/>
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="W37" s="2">
-        <f>G51-O$23</f>
+        <f t="shared" si="24"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X37" s="2">
-        <f>H51-P$23</f>
+        <f t="shared" si="24"/>
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
@@ -2504,54 +2511,54 @@
         <v>1</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" ref="K38:K44" si="24">C24-C38</f>
+        <f t="shared" ref="K38:K44" si="25">C24-C38</f>
         <v>0.64900000000000002</v>
       </c>
       <c r="L38" s="2">
-        <f t="shared" ref="L38:L45" si="25">D24-D38</f>
+        <f t="shared" ref="L38:L45" si="26">D24-D38</f>
         <v>-3.7000000000000033E-2</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" ref="M38:M45" si="26">E24-E38</f>
+        <f t="shared" ref="M38:M45" si="27">E24-E38</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" ref="N38:N45" si="27">F24-F38</f>
+        <f t="shared" ref="N38:N45" si="28">F24-F38</f>
         <v>0.16299999999999992</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" ref="O38:O45" si="28">G24-G38</f>
+        <f t="shared" ref="O38:O45" si="29">G24-G38</f>
         <v>0.18899999999999995</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" ref="P38:P45" si="29">H24-H38</f>
+        <f t="shared" ref="P38:P45" si="30">H24-H38</f>
         <v>0.5</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S38" s="2">
-        <f>C52-K$24</f>
+        <f t="shared" ref="S38:X38" si="31">C52-K$24</f>
         <v>0.11</v>
       </c>
       <c r="T38" s="2">
-        <f>D52-L$24</f>
+        <f t="shared" si="31"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="U38" s="2">
-        <f>E52-M$24</f>
+        <f t="shared" si="31"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="V38" s="2">
-        <f>F52-N$24</f>
+        <f t="shared" si="31"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="W38" s="2">
-        <f>G52-O$24</f>
+        <f t="shared" si="31"/>
         <v>0.35100000000000003</v>
       </c>
       <c r="X38" s="2">
-        <f>H52-P$24</f>
+        <f t="shared" si="31"/>
         <v>0.17799999999999999</v>
       </c>
     </row>
@@ -2581,27 +2588,27 @@
         <v>6</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L39" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R39" s="3" t="s">
@@ -2612,23 +2619,23 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T39" s="2">
-        <f t="shared" ref="T39:X39" si="30">D39-L$25</f>
+        <f t="shared" ref="T39:X39" si="32">D39-L$25</f>
         <v>0.5</v>
       </c>
       <c r="U39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.12300000000000003</v>
       </c>
       <c r="V39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="W39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X39" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -2658,27 +2665,27 @@
         <v>2</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="L40" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.122</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="R40" s="3" t="s">
@@ -2689,23 +2696,23 @@
         <v>7.8E-2</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ref="T40:X40" si="31">D40-L$26</f>
+        <f t="shared" ref="T40:X40" si="33">D40-L$26</f>
         <v>0.18000000000000005</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.129</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.435</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.443</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0.24100000000000002</v>
       </c>
     </row>
@@ -2735,27 +2742,27 @@
         <v>3</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="L41" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.200000000000002E-2</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.9000000000000035E-2</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="R41" s="3" t="s">
@@ -2766,23 +2773,23 @@
         <v>0.10599999999999998</v>
       </c>
       <c r="T41" s="2">
-        <f t="shared" ref="T41:X41" si="32">D41-L$27</f>
+        <f t="shared" ref="T41:X41" si="34">D41-L$27</f>
         <v>0</v>
       </c>
       <c r="U41" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="V41" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.57599999999999996</v>
       </c>
       <c r="W41" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.59799999999999998</v>
       </c>
       <c r="X41" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.26700000000000002</v>
       </c>
     </row>
@@ -2812,27 +2819,27 @@
         <v>4</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.63100000000000001</v>
       </c>
       <c r="L42" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-9.600000000000003E-2</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>9.8999999999999977E-2</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.11299999999999999</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="R42" s="3" t="s">
@@ -2843,23 +2850,23 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="T42" s="2">
-        <f t="shared" ref="T42:X42" si="33">D42-L$28</f>
+        <f t="shared" ref="T42:X42" si="35">D42-L$28</f>
         <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.19700000000000004</v>
       </c>
       <c r="V42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.40299999999999997</v>
       </c>
       <c r="W42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.433</v>
       </c>
       <c r="X42" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0.21400000000000002</v>
       </c>
     </row>
@@ -2889,27 +2896,27 @@
         <v>5</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
@@ -2920,23 +2927,23 @@
         <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" ref="T43:X43" si="34">D43-L$29</f>
+        <f t="shared" ref="T43:X43" si="36">D43-L$29</f>
         <v>-0.79499999999999993</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.43099999999999994</v>
       </c>
       <c r="W43" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.53699999999999992</v>
       </c>
       <c r="X43" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>-0.109</v>
       </c>
     </row>
@@ -2966,27 +2973,27 @@
         <v>7</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P44" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
@@ -2997,23 +3004,23 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="T44" s="2">
-        <f t="shared" ref="T44:X44" si="35">D44-L$30</f>
+        <f t="shared" ref="T44:X44" si="37">D44-L$30</f>
         <v>0.27700000000000002</v>
       </c>
       <c r="U44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.30300000000000005</v>
       </c>
       <c r="V44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.35899999999999999</v>
       </c>
       <c r="W44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.35199999999999998</v>
       </c>
       <c r="X44" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.74399999999999999</v>
       </c>
     </row>
@@ -3047,23 +3054,23 @@
         <v>0</v>
       </c>
       <c r="L45" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M45" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N45" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="O45" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P45" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="R45" s="4" t="s">
@@ -3074,23 +3081,23 @@
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="T45" s="10">
-        <f t="shared" ref="T45:X45" si="36">D45-L$31</f>
+        <f t="shared" ref="T45:X45" si="38">D45-L$31</f>
         <v>0</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2.2000000000000006E-2</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.81699999999999995</v>
       </c>
       <c r="X45" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-0.501</v>
       </c>
     </row>
@@ -3103,15 +3110,15 @@
         <v>0.26044444444444448</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" ref="D46:F46" si="37">SUM(D37:D45)/COUNT(D37:D45)</f>
+        <f t="shared" ref="D46:F46" si="39">SUM(D37:D45)/COUNT(D37:D45)</f>
         <v>0.58966666666666656</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.26766666666666672</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.68655555555555559</v>
       </c>
       <c r="G46" s="7">
@@ -3119,34 +3126,34 @@
         <v>0.71144444444444455</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" ref="H46" si="38">SUM(H37:H45)/COUNT(H37:H45)</f>
+        <f t="shared" ref="H46" si="40">SUM(H37:H45)/COUNT(H37:H45)</f>
         <v>0.19011111111111109</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" ref="K46:K47" si="39">C32-C46</f>
+        <f t="shared" ref="K46:K47" si="41">C32-C46</f>
         <v>0.15877777777777774</v>
       </c>
       <c r="L46" s="2">
-        <f t="shared" ref="L46:L47" si="40">D32-D46</f>
+        <f t="shared" ref="L46:L47" si="42">D32-D46</f>
         <v>-2.7111111111111086E-2</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" ref="M46:M47" si="41">E32-E46</f>
+        <f t="shared" ref="M46:M47" si="43">E32-E46</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" ref="N46:N47" si="42">F32-F46</f>
+        <f t="shared" ref="N46:N47" si="44">F32-F46</f>
         <v>6.2111111111111117E-2</v>
       </c>
       <c r="O46" s="2">
-        <f t="shared" ref="O46:O47" si="43">G32-G46</f>
+        <f t="shared" ref="O46:O47" si="45">G32-G46</f>
         <v>6.9666666666666544E-2</v>
       </c>
       <c r="P46" s="2">
-        <f t="shared" ref="P46:P47" si="44">H32-H46</f>
+        <f t="shared" ref="P46:P47" si="46">H32-H46</f>
         <v>0.10544444444444448</v>
       </c>
       <c r="R46" s="3" t="s">
@@ -3157,23 +3164,23 @@
         <v>0.16800000000000004</v>
       </c>
       <c r="T46" s="2">
-        <f t="shared" ref="T46:X46" si="45">D46-L$32</f>
+        <f t="shared" ref="T46:X46" si="47">D46-L$32</f>
         <v>3.7777777777776578E-3</v>
       </c>
       <c r="U46" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.12288888888888894</v>
       </c>
       <c r="V46" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.31455555555555553</v>
       </c>
       <c r="W46" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.4057777777777779</v>
       </c>
       <c r="X46" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0.1482222222222222</v>
       </c>
     </row>
@@ -3187,77 +3194,77 @@
       </c>
       <c r="D47" s="2">
         <f>(Info!$B$2*Results!D51+Info!$B$3*Results!D52+Info!$B$4*Results!D39+Info!$B$5*Results!D40+Info!$B$6*Results!D41+Info!$B$7*Results!D42+Info!$B$8*Results!D43+Info!$B$9*Results!D44+Info!$B$10*Results!D45)/SUM(Info!$B$2:C$10)</f>
-        <v>0.66759384615384609</v>
+        <v>0.52534624697336563</v>
       </c>
       <c r="E47" s="2">
         <f>(Info!$B$2*Results!E51+Info!$B$3*Results!E52+Info!$B$4*Results!E39+Info!$B$5*Results!E40+Info!$B$6*Results!E41+Info!$B$7*Results!E42+Info!$B$8*Results!E43+Info!$B$9*Results!E44+Info!$B$10*Results!E45)/SUM(Info!$B$2:D$10)</f>
-        <v>0.25964000000000004</v>
+        <v>0.20431719128329301</v>
       </c>
       <c r="F47" s="2">
         <f>(Info!$B$2*Results!F51+Info!$B$3*Results!F52+Info!$B$4*Results!F39+Info!$B$5*Results!F40+Info!$B$6*Results!F41+Info!$B$7*Results!F42+Info!$B$8*Results!F43+Info!$B$9*Results!F44+Info!$B$10*Results!F45)/SUM(Info!$B$2:E$10)</f>
-        <v>0.68572923076923065</v>
+        <v>0.53961743341404356</v>
       </c>
       <c r="G47" s="2">
         <f>(Info!$B$2*Results!G51+Info!$B$3*Results!G52+Info!$B$4*Results!G39+Info!$B$5*Results!G40+Info!$B$6*Results!G41+Info!$B$7*Results!G42+Info!$B$8*Results!G43+Info!$B$9*Results!G44+Info!$B$10*Results!H45)/SUM(Info!$B$2:F$10)</f>
-        <v>0.66592615384615372</v>
+        <v>0.52403389830508462</v>
       </c>
       <c r="H47" s="2">
         <f>(Info!$B$2*Results!H51+Info!$B$3*Results!H52+Info!$B$4*Results!H39+Info!$B$5*Results!H40+Info!$B$6*Results!H41+Info!$B$7*Results!H42+Info!$B$8*Results!H43+Info!$B$9*Results!H44+Info!$B$10*Results!G45)/SUM(Info!$B$2:G$10)</f>
-        <v>0.21415692307692311</v>
+        <v>0.1685254237288136</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.18119384615384615</v>
       </c>
       <c r="L47" s="2">
-        <f t="shared" si="40"/>
-        <v>-3.0781538461538527E-2</v>
+        <f t="shared" si="42"/>
+        <v>-2.4222760290557033E-2</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="41"/>
-        <v>7.5833846153846141E-2</v>
+        <f t="shared" si="43"/>
+        <v>5.9675544794188851E-2</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="42"/>
-        <v>7.484923076923089E-2</v>
+        <f t="shared" si="44"/>
+        <v>5.8900726392251856E-2</v>
       </c>
       <c r="O47" s="2">
-        <f t="shared" si="43"/>
-        <v>8.3421538461538547E-2</v>
+        <f t="shared" si="45"/>
+        <v>6.5646489104116301E-2</v>
       </c>
       <c r="P47" s="2">
-        <f t="shared" si="44"/>
-        <v>0.11734153846153841</v>
+        <f t="shared" si="46"/>
+        <v>9.2338983050847395E-2</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S47" s="2">
         <f>C47-K$33</f>
-        <v>0.12432000000000003</v>
+        <v>0.14238155336189237</v>
       </c>
       <c r="T47" s="2">
-        <f t="shared" ref="T47:X47" si="46">D47-L$33</f>
-        <v>3.3729230769230623E-2</v>
+        <f t="shared" ref="T47:X47" si="48">D47-L$33</f>
+        <v>2.6542372881355858E-2</v>
       </c>
       <c r="U47" s="2">
-        <f t="shared" si="46"/>
-        <v>0.11928615384615388</v>
+        <f t="shared" si="48"/>
+        <v>9.3869249394673143E-2</v>
       </c>
       <c r="V47" s="2">
-        <f t="shared" si="46"/>
-        <v>0.31197538461538443</v>
+        <f t="shared" si="48"/>
+        <v>0.24550121065375297</v>
       </c>
       <c r="W47" s="2">
-        <f t="shared" si="46"/>
-        <v>0.44822153846153834</v>
+        <f t="shared" si="48"/>
+        <v>0.35271670702179164</v>
       </c>
       <c r="X47" s="2">
-        <f t="shared" si="46"/>
-        <v>0.19588000000000003</v>
+        <f t="shared" si="48"/>
+        <v>0.15414285714285719</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
@@ -3369,23 +3376,23 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" ref="L51:P51" si="47">D23-D51</f>
+        <f t="shared" ref="L51:P51" si="49">D23-D51</f>
         <v>-6.899999999999995E-2</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.1429999999999999</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>0.16399999999999992</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>5.3000000000000019E-2</v>
       </c>
       <c r="R51" s="3" t="s">
@@ -3396,23 +3403,23 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="T51" s="2">
-        <f t="shared" ref="T51:X51" si="48">D51-L$23</f>
+        <f t="shared" ref="T51:X51" si="50">D51-L$23</f>
         <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U51" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="V51" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="W51" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X51" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
@@ -3442,27 +3449,27 @@
         <v>1</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" ref="K52:K61" si="49">C24-C52</f>
+        <f t="shared" ref="K52:K61" si="51">C24-C52</f>
         <v>0.73599999999999999</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" ref="L52:L61" si="50">D24-D52</f>
+        <f t="shared" ref="L52:L61" si="52">D24-D52</f>
         <v>-3.7000000000000033E-2</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" ref="M52:M61" si="51">E24-E52</f>
+        <f t="shared" ref="M52:M61" si="53">E24-E52</f>
         <v>0.443</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" ref="N52:N61" si="52">F24-F52</f>
+        <f t="shared" ref="N52:N61" si="54">F24-F52</f>
         <v>0.27699999999999991</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" ref="O52:O61" si="53">G24-G52</f>
+        <f t="shared" ref="O52:O61" si="55">G24-G52</f>
         <v>0.31799999999999995</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" ref="P52:P61" si="54">H24-H52</f>
+        <f t="shared" ref="P52:P61" si="56">H24-H52</f>
         <v>0.60500000000000009</v>
       </c>
       <c r="R52" s="3" t="s">
@@ -3473,23 +3480,23 @@
         <v>0.11</v>
       </c>
       <c r="T52" s="2">
-        <f t="shared" ref="T52:X52" si="55">D52-L$24</f>
+        <f t="shared" ref="T52:X52" si="57">D52-L$24</f>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="U52" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="V52" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="W52" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.35100000000000003</v>
       </c>
       <c r="X52" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.17799999999999999</v>
       </c>
     </row>
@@ -3519,54 +3526,54 @@
         <v>6</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S53" s="2">
-        <f>C53-K$25</f>
+        <f t="shared" ref="S53:X53" si="58">C53-K$25</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T53" s="2">
-        <f>D53-L$25</f>
+        <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
       <c r="U53" s="2">
-        <f>E53-M$25</f>
+        <f t="shared" si="58"/>
         <v>0.12300000000000003</v>
       </c>
       <c r="V53" s="2">
-        <f>F53-N$25</f>
+        <f t="shared" si="58"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="W53" s="2">
-        <f>G53-O$25</f>
+        <f t="shared" si="58"/>
         <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X53" s="2">
-        <f>H53-P$25</f>
+        <f t="shared" si="58"/>
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -3596,27 +3603,27 @@
         <v>2</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>6.7999999999999991E-2</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.1999999999999971E-2</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.13</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>7.6999999999999985E-2</v>
       </c>
       <c r="R54" s="3" t="s">
@@ -3627,23 +3634,23 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="T54" s="2">
-        <f t="shared" ref="T54" si="56">D54-L$26</f>
+        <f t="shared" ref="T54" si="59">D54-L$26</f>
         <v>0.24</v>
       </c>
       <c r="U54" s="2">
-        <f t="shared" ref="U54" si="57">E54-M$26</f>
+        <f t="shared" ref="U54" si="60">E54-M$26</f>
         <v>0.128</v>
       </c>
       <c r="V54" s="2">
-        <f t="shared" ref="V54" si="58">F54-N$26</f>
+        <f t="shared" ref="V54" si="61">F54-N$26</f>
         <v>0.42199999999999999</v>
       </c>
       <c r="W54" s="2">
-        <f t="shared" ref="W54" si="59">G54-O$26</f>
+        <f t="shared" ref="W54" si="62">G54-O$26</f>
         <v>0.42799999999999999</v>
       </c>
       <c r="X54" s="2">
-        <f t="shared" ref="X54" si="60">H54-P$26</f>
+        <f t="shared" ref="X54" si="63">H54-P$26</f>
         <v>0.255</v>
       </c>
     </row>
@@ -3673,27 +3680,27 @@
         <v>3</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-0.10899999999999999</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>7.1999999999999953E-2</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.03</v>
       </c>
       <c r="R55" s="3" t="s">
@@ -3704,23 +3711,23 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="T55" s="2">
-        <f t="shared" ref="T55" si="61">D55-L$27</f>
+        <f t="shared" ref="T55" si="64">D55-L$27</f>
         <v>8.6999999999999966E-2</v>
       </c>
       <c r="U55" s="2">
-        <f t="shared" ref="U55" si="62">E55-M$27</f>
+        <f t="shared" ref="U55" si="65">E55-M$27</f>
         <v>0.159</v>
       </c>
       <c r="V55" s="2">
-        <f t="shared" ref="V55" si="63">F55-N$27</f>
+        <f t="shared" ref="V55" si="66">F55-N$27</f>
         <v>0.54100000000000004</v>
       </c>
       <c r="W55" s="2">
-        <f t="shared" ref="W55" si="64">G55-O$27</f>
+        <f t="shared" ref="W55" si="67">G55-O$27</f>
         <v>0.55800000000000005</v>
       </c>
       <c r="X55" s="2">
-        <f t="shared" ref="X55" si="65">H55-P$27</f>
+        <f t="shared" ref="X55" si="68">H55-P$27</f>
         <v>0.27</v>
       </c>
     </row>
@@ -3750,27 +3757,27 @@
         <v>4</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-9.600000000000003E-2</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.14200000000000002</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.15399999999999991</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.17299999999999993</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.33600000000000002</v>
       </c>
       <c r="R56" s="3" t="s">
@@ -3781,23 +3788,23 @@
         <v>0.12100000000000001</v>
       </c>
       <c r="T56" s="2">
-        <f t="shared" ref="T56" si="66">D56-L$28</f>
+        <f t="shared" ref="T56" si="69">D56-L$28</f>
         <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U56" s="2">
-        <f t="shared" ref="U56" si="67">E56-M$28</f>
+        <f t="shared" ref="U56" si="70">E56-M$28</f>
         <v>0.14599999999999999</v>
       </c>
       <c r="V56" s="2">
-        <f t="shared" ref="V56" si="68">F56-N$28</f>
+        <f t="shared" ref="V56" si="71">F56-N$28</f>
         <v>0.34800000000000003</v>
       </c>
       <c r="W56" s="2">
-        <f t="shared" ref="W56" si="69">G56-O$28</f>
+        <f t="shared" ref="W56" si="72">G56-O$28</f>
         <v>0.37300000000000005</v>
       </c>
       <c r="X56" s="2">
-        <f t="shared" ref="X56" si="70">H56-P$28</f>
+        <f t="shared" ref="X56" si="73">H56-P$28</f>
         <v>0.15100000000000002</v>
       </c>
     </row>
@@ -3827,27 +3834,27 @@
         <v>5</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
@@ -3858,23 +3865,23 @@
         <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T57" s="2">
-        <f t="shared" ref="T57" si="71">D57-L$29</f>
+        <f t="shared" ref="T57" si="74">D57-L$29</f>
         <v>-0.79499999999999993</v>
       </c>
       <c r="U57" s="2">
-        <f t="shared" ref="U57" si="72">E57-M$29</f>
+        <f t="shared" ref="U57" si="75">E57-M$29</f>
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V57" s="2">
-        <f t="shared" ref="V57" si="73">F57-N$29</f>
+        <f t="shared" ref="V57" si="76">F57-N$29</f>
         <v>0.43099999999999994</v>
       </c>
       <c r="W57" s="2">
-        <f t="shared" ref="W57" si="74">G57-O$29</f>
+        <f t="shared" ref="W57" si="77">G57-O$29</f>
         <v>0.53699999999999992</v>
       </c>
       <c r="X57" s="2">
-        <f t="shared" ref="X57" si="75">H57-P$29</f>
+        <f t="shared" ref="X57" si="78">H57-P$29</f>
         <v>-0.109</v>
       </c>
     </row>
@@ -3904,27 +3911,27 @@
         <v>7</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.65900000000000003</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>6.2E-2</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.128</v>
       </c>
       <c r="O58" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.18700000000000006</v>
       </c>
       <c r="P58" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.36099999999999999</v>
       </c>
       <c r="R58" s="3" t="s">
@@ -3935,23 +3942,23 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="T58" s="2">
-        <f t="shared" ref="T58" si="76">D58-L$30</f>
+        <f t="shared" ref="T58" si="79">D58-L$30</f>
         <v>0.27700000000000002</v>
       </c>
       <c r="U58" s="2">
-        <f t="shared" ref="U58" si="77">E58-M$30</f>
+        <f t="shared" ref="U58" si="80">E58-M$30</f>
         <v>0.24100000000000002</v>
       </c>
       <c r="V58" s="2">
-        <f t="shared" ref="V58" si="78">F58-N$30</f>
+        <f t="shared" ref="V58" si="81">F58-N$30</f>
         <v>0.23099999999999998</v>
       </c>
       <c r="W58" s="2">
-        <f t="shared" ref="W58" si="79">G58-O$30</f>
+        <f t="shared" ref="W58" si="82">G58-O$30</f>
         <v>0.16499999999999992</v>
       </c>
       <c r="X58" s="2">
-        <f t="shared" ref="X58" si="80">H58-P$30</f>
+        <f t="shared" ref="X58" si="83">H58-P$30</f>
         <v>0.38300000000000001</v>
       </c>
     </row>
@@ -3981,27 +3988,27 @@
         <v>8</v>
       </c>
       <c r="K59" s="12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O59" s="10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P59" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="R59" s="4" t="s">
@@ -4012,23 +4019,23 @@
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="T59" s="10">
-        <f t="shared" ref="T59" si="81">D59-L$31</f>
+        <f t="shared" ref="T59" si="84">D59-L$31</f>
         <v>0</v>
       </c>
       <c r="U59" s="10">
-        <f t="shared" ref="U59" si="82">E59-M$31</f>
+        <f t="shared" ref="U59" si="85">E59-M$31</f>
         <v>2.2000000000000006E-2</v>
       </c>
       <c r="V59" s="10">
-        <f t="shared" ref="V59" si="83">F59-N$31</f>
+        <f t="shared" ref="V59" si="86">F59-N$31</f>
         <v>0.14499999999999999</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" ref="W59" si="84">G59-O$31</f>
+        <f t="shared" ref="W59" si="87">G59-O$31</f>
         <v>0.81699999999999995</v>
       </c>
       <c r="X59" s="10">
-        <f t="shared" ref="X59" si="85">H59-P$31</f>
+        <f t="shared" ref="X59" si="88">H59-P$31</f>
         <v>-0.501</v>
       </c>
     </row>
@@ -4037,54 +4044,54 @@
         <v>18</v>
       </c>
       <c r="C60" s="7">
-        <f>SUM(C51:C59)/COUNT(C51:C59)</f>
+        <f t="shared" ref="C60:H60" si="89">SUM(C51:C59)/COUNT(C51:C59)</f>
         <v>0.17055555555555557</v>
       </c>
       <c r="D60" s="7">
-        <f>SUM(D51:D59)/COUNT(D51:D59)</f>
+        <f t="shared" si="89"/>
         <v>0.60599999999999998</v>
       </c>
       <c r="E60" s="7">
-        <f>SUM(E51:E59)/COUNT(E51:E59)</f>
+        <f t="shared" si="89"/>
         <v>0.24388888888888893</v>
       </c>
       <c r="F60" s="7">
-        <f>SUM(F51:F59)/COUNT(F51:F59)</f>
+        <f t="shared" si="89"/>
         <v>0.64822222222222214</v>
       </c>
       <c r="G60" s="7">
-        <f>SUM(G51:G59)/COUNT(G51:G59)</f>
+        <f t="shared" si="89"/>
         <v>0.66355555555555557</v>
       </c>
       <c r="H60" s="7">
-        <f>SUM(H51:H59)/COUNT(H51:H59)</f>
+        <f t="shared" si="89"/>
         <v>0.1331111111111111</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.24866666666666665</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-4.3444444444444508E-2</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.3777777777777793E-2</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.10044444444444456</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.11755555555555552</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.16244444444444447</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -4095,23 +4102,23 @@
         <v>7.8111111111111131E-2</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" ref="T60" si="86">D60-L$32</f>
+        <f t="shared" ref="T60" si="90">D60-L$32</f>
         <v>2.011111111111108E-2</v>
       </c>
       <c r="U60" s="2">
-        <f t="shared" ref="U60" si="87">E60-M$32</f>
+        <f t="shared" ref="U60" si="91">E60-M$32</f>
         <v>9.911111111111115E-2</v>
       </c>
       <c r="V60" s="2">
-        <f t="shared" ref="V60" si="88">F60-N$32</f>
+        <f t="shared" ref="V60" si="92">F60-N$32</f>
         <v>0.27622222222222209</v>
       </c>
       <c r="W60" s="2">
-        <f t="shared" ref="W60" si="89">G60-O$32</f>
+        <f t="shared" ref="W60" si="93">G60-O$32</f>
         <v>0.35788888888888892</v>
       </c>
       <c r="X60" s="2">
-        <f t="shared" ref="X60" si="90">H60-P$32</f>
+        <f t="shared" ref="X60" si="94">H60-P$32</f>
         <v>9.1222222222222205E-2</v>
       </c>
     </row>
@@ -4125,77 +4132,77 @@
       </c>
       <c r="D61" s="2">
         <f>(Info!$B$2*Results!D51+Info!$B$3*Results!D52+Info!$B$4*Results!D53+Info!$B$5*Results!D54+Info!$B$6*Results!D55+Info!$B$7*Results!D56+Info!$B$8*Results!D57+Info!$B$9*Results!D58+Info!$B$10*Results!D59)/SUM(Info!$B$2:C$10)</f>
-        <v>0.68913846153846159</v>
+        <v>0.54230024213075056</v>
       </c>
       <c r="E61" s="2">
         <f>(Info!$B$2*Results!E51+Info!$B$3*Results!E52+Info!$B$4*Results!E53+Info!$B$5*Results!E54+Info!$B$6*Results!E55+Info!$B$7*Results!E56+Info!$B$8*Results!E57+Info!$B$9*Results!E58+Info!$B$10*Results!E59)/SUM(Info!$B$2:D$10)</f>
-        <v>0.24690153846153848</v>
+        <v>0.19429297820823246</v>
       </c>
       <c r="F61" s="2">
         <f>(Info!$B$2*Results!F51+Info!$B$3*Results!F52+Info!$B$4*Results!F53+Info!$B$5*Results!F54+Info!$B$6*Results!F55+Info!$B$7*Results!F56+Info!$B$8*Results!F57+Info!$B$9*Results!F58+Info!$B$10*Results!F59)/SUM(Info!$B$2:E$10)</f>
-        <v>0.66288615384615379</v>
+        <v>0.52164164648910405</v>
       </c>
       <c r="G61" s="2">
         <f>(Info!$B$2*Results!G51+Info!$B$3*Results!G52+Info!$B$4*Results!G53+Info!$B$5*Results!G54+Info!$B$6*Results!G55+Info!$B$7*Results!G56+Info!$B$8*Results!G57+Info!$B$9*Results!G58+Info!$B$10*Results!G59)/SUM(Info!$B$2:F$10)</f>
-        <v>0.65804923076923061</v>
+        <v>0.51783535108958823</v>
       </c>
       <c r="H61" s="2">
         <f>(Info!$B$2*Results!H51+Info!$B$3*Results!H52+Info!$B$4*Results!H53+Info!$B$5*Results!H54+Info!$B$6*Results!H55+Info!$B$7*Results!H56+Info!$B$8*Results!H57+Info!$B$9*Results!H58+Info!$B$10*Results!H59)/SUM(Info!$B$2:G$10)</f>
-        <v>0.1666123076923077</v>
+        <v>0.13111138014527846</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.22761846153846155</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="50"/>
-        <v>-5.2326153846154022E-2</v>
+        <f t="shared" si="52"/>
+        <v>-4.1176755447941971E-2</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="51"/>
-        <v>8.85723076923077E-2</v>
+        <f t="shared" si="53"/>
+        <v>6.9699757869249396E-2</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="52"/>
-        <v>9.7692307692307745E-2</v>
+        <f t="shared" si="54"/>
+        <v>7.6876513317191364E-2</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="53"/>
-        <v>9.1298461538461662E-2</v>
+        <f t="shared" si="55"/>
+        <v>7.1845036319612698E-2</v>
       </c>
       <c r="P61" s="2">
-        <f t="shared" si="54"/>
-        <v>0.16488615384615382</v>
+        <f t="shared" si="56"/>
+        <v>0.12975302663438254</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S61" s="2">
         <f>C61-K$33</f>
-        <v>7.789538461538463E-2</v>
+        <v>9.5956937977276974E-2</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" ref="T61" si="91">D61-L$33</f>
-        <v>5.5273846153846118E-2</v>
+        <f t="shared" ref="T61" si="95">D61-L$33</f>
+        <v>4.3496368038740796E-2</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" ref="U61" si="92">E61-M$33</f>
-        <v>0.10654769230769232</v>
+        <f t="shared" ref="U61" si="96">E61-M$33</f>
+        <v>8.3845036319612598E-2</v>
       </c>
       <c r="V61" s="2">
-        <f t="shared" ref="V61" si="93">F61-N$33</f>
-        <v>0.28913230769230758</v>
+        <f t="shared" ref="V61" si="97">F61-N$33</f>
+        <v>0.22752542372881346</v>
       </c>
       <c r="W61" s="2">
-        <f t="shared" ref="W61" si="94">G61-O$33</f>
-        <v>0.44034461538461522</v>
+        <f t="shared" ref="W61" si="98">G61-O$33</f>
+        <v>0.34651815980629525</v>
       </c>
       <c r="X61" s="2">
-        <f t="shared" ref="X61" si="95">H61-P$33</f>
-        <v>0.14833538461538462</v>
+        <f t="shared" ref="X61" si="99">H61-P$33</f>
+        <v>0.11672881355932205</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
@@ -4208,7 +4215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="4" t="s">
         <v>11</v>
       </c>
@@ -4224,17 +4231,29 @@
       <c r="F65" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="J65" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>0</v>
       </c>
@@ -4251,25 +4270,41 @@
       <c r="F66">
         <v>2</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
+        <f>Info!C2-C66</f>
+        <v>8</v>
+      </c>
+      <c r="H66" s="2">
         <f>D66/(D66+E66)</f>
         <v>1</v>
       </c>
-      <c r="H66" s="2">
+      <c r="I66" s="2">
         <f>D66/(D66+F66)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I66" s="2">
-        <f>2*G66*H66/(G66+H66)</f>
+      <c r="J66" s="2">
+        <f>2*H66*I66/(H66+I66)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f>(D66+G66)/SUM(D66:G66)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L66">
+        <f>G66/(G66+E66)</f>
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <f>((D66*G66)-(E66*F66))/SQRT((D66+E66)*(D66+F66)*(G66+E66)*(G66+F66))</f>
+        <v>0.73029674334022143</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C74" si="96">D67+F67</f>
+        <f t="shared" ref="C67:C74" si="100">D67+F67</f>
         <v>5</v>
       </c>
       <c r="D67">
@@ -4281,25 +4316,41 @@
       <c r="F67">
         <v>0</v>
       </c>
-      <c r="G67" s="2">
-        <f t="shared" ref="G67:G74" si="97">D67/(D67+E67)</f>
-        <v>1</v>
+      <c r="G67">
+        <f>Info!C3-C67</f>
+        <v>6</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H74" si="98">D67/(D67+F67)</f>
+        <f>D67/(D67+E67)</f>
         <v>1</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" ref="I67:I74" si="99">2*G67*H67/(G67+H67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <f>D67/(D67+F67)</f>
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <f t="shared" ref="J67:J74" si="101">2*H67*I67/(H67+I67)</f>
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K74" si="102">(D67+G67)/SUM(D67:G67)</f>
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <f t="shared" ref="L67:L74" si="103">G67/(G67+E67)</f>
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M74" si="104">((D67*G67)-(E67*F67))/SQRT((D67+E67)*(D67+F67)*(G67+E67)*(G67+F67))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C68">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>5</v>
       </c>
       <c r="D68">
@@ -4311,25 +4362,41 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68" s="2">
-        <f t="shared" si="97"/>
+      <c r="G68">
+        <f>Info!C4-C68</f>
+        <v>6</v>
+      </c>
+      <c r="H68" s="2">
+        <f>D68/(D68+E68)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H68" s="2">
-        <f t="shared" si="98"/>
-        <v>1</v>
-      </c>
       <c r="I68" s="2">
-        <f t="shared" si="99"/>
+        <f>D68/(D68+F68)</f>
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <f t="shared" si="101"/>
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="102"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="103"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="104"/>
+        <v>0.84515425472851657</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C69">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="D69">
@@ -4341,16 +4408,20 @@
       <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69" s="2"/>
+      <c r="G69">
+        <f>Info!C5-C69</f>
+        <v>8</v>
+      </c>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C70">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="D70">
@@ -4362,25 +4433,41 @@
       <c r="F70">
         <v>0</v>
       </c>
-      <c r="G70" s="2">
-        <f t="shared" si="97"/>
-        <v>1</v>
+      <c r="G70">
+        <f>Info!C6-C70</f>
+        <v>7</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="98"/>
+        <f>D70/(D70+E70)</f>
         <v>1</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="99"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <f>D70/(D70+F70)</f>
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C71">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="D71">
@@ -4392,25 +4479,41 @@
       <c r="F71">
         <v>0</v>
       </c>
-      <c r="G71" s="2">
-        <f t="shared" si="97"/>
-        <v>1</v>
+      <c r="G71">
+        <f>Info!C7-C71</f>
+        <v>11</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="98"/>
+        <f>D71/(D71+E71)</f>
         <v>1</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="99"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <f>D71/(D71+F71)</f>
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C72">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>6</v>
       </c>
       <c r="D72">
@@ -4422,25 +4525,41 @@
       <c r="F72">
         <v>3</v>
       </c>
-      <c r="G72" s="2">
-        <f t="shared" si="97"/>
+      <c r="G72">
+        <f>Info!C8-C72</f>
+        <v>6</v>
+      </c>
+      <c r="H72" s="2">
+        <f>D72/(D72+E72)</f>
         <v>0.75</v>
       </c>
-      <c r="H72" s="2">
-        <f t="shared" si="98"/>
+      <c r="I72" s="2">
+        <f>D72/(D72+F72)</f>
         <v>0.5</v>
       </c>
-      <c r="I72" s="2">
-        <f t="shared" si="99"/>
+      <c r="J72" s="2">
+        <f t="shared" si="101"/>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <f t="shared" si="102"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="103"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="104"/>
+        <v>0.38575837490522974</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C73">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>1</v>
       </c>
       <c r="D73">
@@ -4452,25 +4571,41 @@
       <c r="F73">
         <v>0</v>
       </c>
-      <c r="G73" s="9">
-        <f t="shared" si="97"/>
-        <v>1</v>
+      <c r="G73">
+        <f>Info!C9-C73</f>
+        <v>5</v>
       </c>
       <c r="H73" s="9">
-        <f t="shared" si="98"/>
+        <f>D73/(D73+E73)</f>
         <v>1</v>
       </c>
       <c r="I73" s="9">
-        <f t="shared" si="99"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <f>D73/(D73+F73)</f>
+        <v>1</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>2</v>
       </c>
       <c r="D74" s="5">
@@ -4482,66 +4617,97 @@
       <c r="F74" s="5">
         <v>0</v>
       </c>
-      <c r="G74" s="10">
-        <f t="shared" si="97"/>
+      <c r="G74" s="5">
+        <f>Info!C10-C74</f>
+        <v>4</v>
+      </c>
+      <c r="H74" s="10">
+        <f>D74/(D74+E74)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H74" s="10">
-        <f t="shared" si="98"/>
-        <v>1</v>
-      </c>
       <c r="I74" s="10">
-        <f t="shared" si="99"/>
+        <f>D74/(D74+F74)</f>
+        <v>1</v>
+      </c>
+      <c r="J74" s="10">
+        <f t="shared" si="101"/>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K74" s="5">
+        <f t="shared" si="102"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L74" s="5">
+        <f t="shared" si="103"/>
+        <v>0.8</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" si="104"/>
+        <v>0.73029674334022143</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="2">
-        <f>SUM(D66:D74)/COUNT(D66:D74)</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="E75" s="2">
-        <f t="shared" ref="E75:I75" si="100">SUM(E66:E74)/COUNT(E66:E74)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F75" s="2">
-        <f t="shared" si="100"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" si="100"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="H75" s="2">
+        <f>SUM(H66:H74)/COUNT(H66:H74)</f>
         <v>0.90625000000000011</v>
       </c>
-      <c r="H75" s="2">
-        <f t="shared" si="100"/>
+      <c r="I75" s="2">
+        <f>SUM(I66:I74)/COUNT(I66:I74)</f>
         <v>0.89583333333333326</v>
       </c>
-      <c r="I75" s="2">
-        <f t="shared" si="100"/>
+      <c r="J75" s="2">
+        <f>SUM(J66:J74)/COUNT(J66:J74)</f>
         <v>0.88863636363636356</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K75" s="2">
+        <f t="shared" ref="K75:M75" si="105">SUM(K66:K74)/COUNT(K66:K74)</f>
+        <v>0.91540750915750912</v>
+      </c>
+      <c r="L75" s="2">
+        <f t="shared" si="105"/>
+        <v>0.93928571428571428</v>
+      </c>
+      <c r="M75" s="2">
+        <f t="shared" si="105"/>
+        <v>0.83643826453927361</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
-      <c r="G76" s="11">
-        <f>(($C66*G66)+($C67*G67)+($C68*G68)+($C69*G69)+($C70*G70)+($C71*G71)+($C72*G72)+($C73*G73)+($C74*G74))/SUM($C66:$C74)</f>
-        <v>0.88888888888888884</v>
-      </c>
       <c r="H76" s="11">
         <f>(($C66*H66)+($C67*H67)+($C68*H68)+($C69*H69)+($C70*H70)+($C71*H71)+($C72*H72)+($C73*H73)+($C74*H74))/SUM($C66:$C74)</f>
-        <v>0.81481481481481477</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I76" s="11">
         <f>(($C66*I66)+($C67*I67)+($C68*I68)+($C69*I69)+($C70*I70)+($C71*I71)+($C72*I72)+($C73*I73)+($C74*I74))/SUM($C66:$C74)</f>
+        <v>0.81481481481481477</v>
+      </c>
+      <c r="J76" s="11">
+        <f>(($C66*J66)+($C67*J67)+($C68*J68)+($C69*J69)+($C70*J70)+($C71*J71)+($C72*J72)+($C73*J73)+($C74*J74))/SUM($C66:$C74)</f>
         <v>0.8350168350168351</v>
+      </c>
+      <c r="K76" s="11">
+        <f t="shared" ref="K76:M76" si="106">(($C66*K66)+($C67*K67)+($C68*K68)+($C69*K69)+($C70*K70)+($C71*K71)+($C72*K72)+($C73*K73)+($C74*K74))/SUM($C66:$C74)</f>
+        <v>0.87386379053045715</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="106"/>
+        <v>0.92698412698412702</v>
+      </c>
+      <c r="M76" s="11">
+        <f t="shared" si="106"/>
+        <v>0.75491464702947164</v>
       </c>
     </row>
   </sheetData>
@@ -4624,92 +4790,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>9</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -549,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X93"/>
+  <dimension ref="A2:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z23" sqref="Z23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
         <v>0.23930508474576273</v>
       </c>
     </row>
-    <row r="17" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0.28300000000000003</v>
       </c>
     </row>
-    <row r="20" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J20" s="3" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0.18899999999999995</v>
       </c>
     </row>
-    <row r="21" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J22" s="3" t="s">
         <v>2</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0.17799999999999994</v>
       </c>
     </row>
-    <row r="23" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>4.1999999999999926E-2</v>
       </c>
     </row>
-    <row r="24" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="25" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J26" s="3" t="s">
         <v>7</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0.1110000000000001</v>
       </c>
     </row>
-    <row r="27" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>0.15900000000000003</v>
       </c>
     </row>
-    <row r="28" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J28" s="6" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>0.24355555555555564</v>
       </c>
     </row>
-    <row r="29" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2066,1157 +2066,1465 @@
         <v>0.21775060532687651</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J34" t="s">
         <v>28</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R39" s="4" t="s">
+      <c r="R35" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="U35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V39" s="5" t="s">
+      <c r="V35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="W39" s="5" t="s">
+      <c r="W35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X39" s="5" t="s">
+      <c r="X35" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.495</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <f>C36-K36</f>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="T36" s="2">
+        <f t="shared" ref="T36:T46" si="23">D36-L36</f>
+        <v>-0.13800000000000001</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" ref="U36:U46" si="24">E36-M36</f>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="V36" s="2">
+        <f t="shared" ref="V36:V46" si="25">F36-N36</f>
+        <v>0.20799999999999996</v>
+      </c>
+      <c r="W36" s="2">
+        <f t="shared" ref="W36:W46" si="26">G36-O36</f>
+        <v>0.23899999999999993</v>
+      </c>
+      <c r="X36" s="2">
+        <f t="shared" ref="X36:X46" si="27">H36-P36</f>
+        <v>5.1000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" ref="S37:S46" si="28">C37-K37</f>
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="T37" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="24"/>
+        <v>0.58600000000000008</v>
+      </c>
+      <c r="V37" s="2">
+        <f t="shared" si="25"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="W37" s="2">
+        <f t="shared" si="26"/>
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="X37" s="2">
+        <f t="shared" si="27"/>
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9.4E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0.373</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="28"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T38" s="2">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="24"/>
+        <v>0.12300000000000003</v>
+      </c>
+      <c r="V38" s="2">
+        <f t="shared" si="25"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="W38" s="2">
+        <f t="shared" si="26"/>
+        <v>-8.3000000000000018E-2</v>
+      </c>
+      <c r="X38" s="2">
+        <f t="shared" si="27"/>
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="M39" s="2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="P39" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="28"/>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="23"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="24"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="25"/>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="26"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="27"/>
+        <v>0.33199999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>0.79300000000000004</v>
+        <v>0.63</v>
       </c>
       <c r="E40" s="2">
-        <v>0.32900000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F40" s="2">
-        <v>0.70299999999999996</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G40" s="2">
-        <v>0.69099999999999995</v>
+        <v>0.871</v>
       </c>
       <c r="H40" s="2">
-        <v>0.22800000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" s="2">
-        <v>0.14599999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="L40" s="2">
-        <v>0.93100000000000005</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="M40" s="2">
-        <v>0.249</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N40" s="2">
-        <v>0.495</v>
+        <v>0.251</v>
       </c>
       <c r="O40" s="2">
-        <v>0.45200000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="P40" s="2">
-        <v>0.17699999999999999</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="R40" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S40" s="2">
-        <f>C40-K40</f>
-        <v>6.7000000000000004E-2</v>
+        <f t="shared" si="28"/>
+        <v>0.13400000000000001</v>
       </c>
       <c r="T40" s="2">
-        <f t="shared" ref="T40:T50" si="23">D40-L40</f>
-        <v>-0.13800000000000001</v>
+        <f t="shared" si="23"/>
+        <v>-2.200000000000002E-2</v>
       </c>
       <c r="U40" s="2">
-        <f t="shared" ref="U40:U50" si="24">E40-M40</f>
-        <v>8.0000000000000016E-2</v>
+        <f t="shared" si="24"/>
+        <v>0.19900000000000001</v>
       </c>
       <c r="V40" s="2">
-        <f t="shared" ref="V40:V50" si="25">F40-N40</f>
-        <v>0.20799999999999996</v>
+        <f t="shared" si="25"/>
+        <v>0.61299999999999999</v>
       </c>
       <c r="W40" s="2">
-        <f t="shared" ref="W40:W50" si="26">G40-O40</f>
-        <v>0.23899999999999993</v>
+        <f t="shared" si="26"/>
+        <v>0.63700000000000001</v>
       </c>
       <c r="X40" s="2">
-        <f t="shared" ref="X40:X50" si="27">H40-P40</f>
-        <v>5.1000000000000018E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2">
-        <v>0.96299999999999997</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="D41" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="E41" s="2">
-        <v>0.78500000000000003</v>
+        <v>0.43</v>
       </c>
       <c r="F41" s="2">
-        <v>0.95799999999999996</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="G41" s="2">
-        <v>0.995</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="H41" s="2">
-        <v>0.80900000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K41" s="2">
-        <v>0.11700000000000001</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="L41" s="2">
-        <v>0.70399999999999996</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="M41" s="2">
-        <v>0.19900000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="N41" s="2">
-        <v>0.36899999999999999</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="O41" s="2">
-        <v>0.32600000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="P41" s="2">
-        <v>2.5999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" ref="S41:S50" si="28">C41-K41</f>
-        <v>0.84599999999999997</v>
+        <f t="shared" si="28"/>
+        <v>0.80600000000000005</v>
       </c>
       <c r="T41" s="2">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-0.192</v>
       </c>
       <c r="U41" s="2">
         <f t="shared" si="24"/>
-        <v>0.58600000000000008</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="V41" s="2">
         <f t="shared" si="25"/>
-        <v>0.58899999999999997</v>
+        <v>0.502</v>
       </c>
       <c r="W41" s="2">
         <f t="shared" si="26"/>
-        <v>0.66900000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="27"/>
-        <v>0.78300000000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.48700000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="2">
-        <v>0.16400000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D42" s="2">
-        <v>0.98299999999999998</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E42" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.112</v>
       </c>
       <c r="F42" s="2">
-        <v>0.377</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="G42" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="H42" s="2">
-        <v>0.14699999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42" s="2">
-        <v>9.4E-2</v>
+        <v>0.111</v>
       </c>
       <c r="L42" s="2">
-        <v>0.48299999999999998</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="M42" s="2">
-        <v>0.156</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="N42" s="2">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="O42" s="11">
-        <v>0.373</v>
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.33300000000000002</v>
       </c>
       <c r="P42" s="2">
-        <v>-4.9000000000000002E-2</v>
+        <v>0.128</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S42" s="2">
         <f t="shared" si="28"/>
-        <v>7.0000000000000007E-2</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T42" s="2">
         <f t="shared" si="23"/>
-        <v>0.5</v>
+        <v>-0.79499999999999993</v>
       </c>
       <c r="U42" s="2">
         <f t="shared" si="24"/>
-        <v>0.12300000000000003</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V42" s="2">
         <f t="shared" si="25"/>
-        <v>-9.000000000000008E-3</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="W42" s="2">
         <f t="shared" si="26"/>
-        <v>-8.3000000000000018E-2</v>
+        <v>0.53699999999999992</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="27"/>
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+        <v>-0.109</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C43" s="2">
-        <v>0.17899999999999999</v>
+        <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>0.76</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E43" s="2">
-        <v>0.28499999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F43" s="2">
-        <v>0.85199999999999998</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="G43" s="2">
-        <v>0.85199999999999998</v>
+        <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>0.29199999999999998</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K43" s="2">
-        <v>3.4000000000000002E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="L43" s="2">
-        <v>0.6</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="M43" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="N43" s="2">
-        <v>0.3</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="O43" s="2">
-        <v>0.28699999999999998</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="P43" s="2">
-        <v>-0.04</v>
+        <v>-0.127</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" si="28"/>
-        <v>0.14499999999999999</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" si="23"/>
-        <v>0.16000000000000003</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="U43" s="2">
         <f t="shared" si="24"/>
-        <v>0.21999999999999997</v>
+        <v>0.30300000000000005</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" si="25"/>
-        <v>0.55200000000000005</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W43" s="2">
         <f t="shared" si="26"/>
-        <v>0.56499999999999995</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="27"/>
-        <v>0.33199999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2">
-        <v>0.16900000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="D44" s="2">
-        <v>0.63</v>
+        <v>0.111</v>
       </c>
       <c r="E44" s="2">
-        <v>0.26400000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="F44" s="2">
-        <v>0.86399999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G44" s="2">
-        <v>0.871</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H44" s="2">
-        <v>0.26100000000000001</v>
+        <v>-0.248</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K44" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="L44" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="M44" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="N44" s="2">
-        <v>0.251</v>
+        <v>0.222</v>
       </c>
       <c r="O44" s="2">
-        <v>0.23400000000000001</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="P44" s="2">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S44" s="2">
+        <v>0.253</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S44" s="10">
         <f t="shared" si="28"/>
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="T44" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T44" s="10">
         <f t="shared" si="23"/>
-        <v>-2.200000000000002E-2</v>
-      </c>
-      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
         <f t="shared" si="24"/>
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="V44" s="2">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="V44" s="10">
         <f t="shared" si="25"/>
-        <v>0.61299999999999999</v>
-      </c>
-      <c r="W44" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W44" s="10">
         <f t="shared" si="26"/>
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="X44" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X44" s="10">
         <f t="shared" si="27"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.95699999999999996</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="2">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="L45" s="2">
-        <v>0.65400000000000003</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0.439</v>
-      </c>
-      <c r="P45" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>-0.501</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="7">
+        <f>SUM(C36:C44)/COUNT(C36:C44)</f>
+        <v>0.41922222222222222</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" ref="D45:H45" si="29">SUM(D36:D44)/COUNT(D36:D44)</f>
+        <v>0.56255555555555548</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="29"/>
+        <v>0.33766666666666673</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="29"/>
+        <v>0.7486666666666667</v>
+      </c>
+      <c r="G45" s="7">
+        <f>SUM(G36:G44)/COUNT(G36:G44)</f>
+        <v>0.78111111111111109</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="29"/>
+        <v>0.29555555555555557</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="7">
+        <f>SUM(K36:K44)/COUNT(K36:K44)</f>
+        <v>9.244444444444444E-2</v>
+      </c>
+      <c r="L45" s="7">
+        <f t="shared" ref="L45:P45" si="30">SUM(L36:L44)/COUNT(L36:L44)</f>
+        <v>0.5858888888888889</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="30"/>
+        <v>0.14477777777777778</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="30"/>
+        <v>0.37200000000000005</v>
+      </c>
+      <c r="O45" s="7">
+        <f>SUM(O36:O44)/COUNT(O36:O44)</f>
+        <v>0.30566666666666664</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="30"/>
+        <v>4.1888888888888885E-2</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S45" s="2">
         <f t="shared" si="28"/>
-        <v>0.80600000000000005</v>
+        <v>0.32677777777777778</v>
       </c>
       <c r="T45" s="2">
         <f t="shared" si="23"/>
-        <v>-0.192</v>
+        <v>-2.3333333333333428E-2</v>
       </c>
       <c r="U45" s="2">
         <f t="shared" si="24"/>
-        <v>0.28800000000000003</v>
+        <v>0.19288888888888894</v>
       </c>
       <c r="V45" s="2">
         <f t="shared" si="25"/>
-        <v>0.502</v>
+        <v>0.37666666666666665</v>
       </c>
       <c r="W45" s="2">
         <f t="shared" si="26"/>
-        <v>0.54600000000000004</v>
+        <v>0.47544444444444445</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="27"/>
-        <v>0.48700000000000004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+        <v>0.25366666666666671</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C46" s="2">
-        <v>8.5999999999999993E-2</v>
+        <f>(Info!$B$2*Results!C36+Info!$B$3*Results!C37+Info!$B$4*Results!C38+Info!$B$5*Results!C39+Info!$B$6*Results!C40+Info!$B$7*Results!C41+Info!$B$8*Results!C42+Info!$B$9*Results!C43+Info!$B$10*Results!C44)/SUM(Info!$B$2:B$10)</f>
+        <v>0.39028000000000002</v>
       </c>
       <c r="D46" s="2">
-        <v>0.17599999999999999</v>
+        <f>(Info!$B$2*Results!D36+Info!$B$3*Results!D37+Info!$B$4*Results!D38+Info!$B$5*Results!D39+Info!$B$6*Results!D40+Info!$B$7*Results!D41+Info!$B$8*Results!D42+Info!$B$9*Results!D43+Info!$B$10*Results!D44)/SUM(Info!$B$2:C$10)</f>
+        <v>0.50112348668280859</v>
       </c>
       <c r="E46" s="2">
-        <v>0.112</v>
+        <f>(Info!$B$2*Results!E36+Info!$B$3*Results!E37+Info!$B$4*Results!E38+Info!$B$5*Results!E39+Info!$B$6*Results!E40+Info!$B$7*Results!E41+Info!$B$8*Results!E42+Info!$B$9*Results!E43+Info!$B$10*Results!E44)/SUM(Info!$B$2:D$10)</f>
+        <v>0.26399273607748186</v>
       </c>
       <c r="F46" s="2">
-        <v>0.81399999999999995</v>
+        <f>(Info!$B$2*Results!F36+Info!$B$3*Results!F37+Info!$B$4*Results!F38+Info!$B$5*Results!F39+Info!$B$6*Results!F40+Info!$B$7*Results!F41+Info!$B$8*Results!F42+Info!$B$9*Results!F43+Info!$B$10*Results!F44)/SUM(Info!$B$2:E$10)</f>
+        <v>0.59851815980629541</v>
       </c>
       <c r="G46" s="2">
-        <v>0.87</v>
+        <f>(Info!$B$2*Results!G36+Info!$B$3*Results!G37+Info!$B$4*Results!G38+Info!$B$5*Results!G39+Info!$B$6*Results!G40+Info!$B$7*Results!G41+Info!$B$8*Results!G42+Info!$B$9*Results!G43+Info!$B$10*Results!H44)/SUM(Info!$B$2:F$10)</f>
+        <v>0.58968038740920092</v>
       </c>
       <c r="H46" s="2">
-        <v>1.9E-2</v>
+        <f>(Info!$B$2*Results!H36+Info!$B$3*Results!H37+Info!$B$4*Results!H38+Info!$B$5*Results!H39+Info!$B$6*Results!H40+Info!$B$7*Results!H41+Info!$B$8*Results!H42+Info!$B$9*Results!H43+Info!$B$10*Results!G44)/SUM(Info!$B$2:G$10)</f>
+        <v>0.260864406779661</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K46" s="2">
-        <v>0.111</v>
+        <f>(Info!$B$2*Results!K36+Info!$B$3*Results!K37+Info!$B$4*Results!K38+Info!$B$5*Results!K39+Info!$B$6*Results!K40+Info!$B$7*Results!K41+Info!$B$8*Results!K42+Info!$B$9*Results!K43+Info!$B$10*Results!K44)/SUM(Info!$B$2:J$10)</f>
+        <v>6.6704600484261495E-2</v>
       </c>
       <c r="L46" s="2">
-        <v>0.97099999999999997</v>
+        <f>(Info!$B$2*Results!L36+Info!$B$3*Results!L37+Info!$B$4*Results!L38+Info!$B$5*Results!L39+Info!$B$6*Results!L40+Info!$B$7*Results!L41+Info!$B$8*Results!L42+Info!$B$9*Results!L43+Info!$B$10*Results!L44)/SUM(Info!$B$2:K$10)</f>
+        <v>0.49880387409200977</v>
       </c>
       <c r="M46" s="2">
-        <v>0.19700000000000001</v>
+        <f>(Info!$B$2*Results!M36+Info!$B$3*Results!M37+Info!$B$4*Results!M38+Info!$B$5*Results!M39+Info!$B$6*Results!M40+Info!$B$7*Results!M41+Info!$B$8*Results!M42+Info!$B$9*Results!M43+Info!$B$10*Results!M44)/SUM(Info!$B$2:L$10)</f>
+        <v>0.11044794188861987</v>
       </c>
       <c r="N46" s="2">
-        <v>0.38300000000000001</v>
+        <f>(Info!$B$2*Results!N36+Info!$B$3*Results!N37+Info!$B$4*Results!N38+Info!$B$5*Results!N39+Info!$B$6*Results!N40+Info!$B$7*Results!N41+Info!$B$8*Results!N42+Info!$B$9*Results!N43+Info!$B$10*Results!N44)/SUM(Info!$B$2:M$10)</f>
+        <v>0.29411622276029059</v>
       </c>
       <c r="O46" s="2">
-        <v>0.33300000000000002</v>
+        <f>(Info!$B$2*Results!P36+Info!$B$3*Results!P37+Info!$B$4*Results!P38+Info!$B$5*Results!O39+Info!$B$6*Results!O40+Info!$B$7*Results!O41+Info!$B$8*Results!O42+Info!$B$9*Results!O43+Info!$B$10*Results!O44)/SUM(Info!$B$2:N$10)</f>
+        <v>0.17131719128329298</v>
       </c>
       <c r="P46" s="2">
-        <v>0.128</v>
+        <f>(Info!$B$2*Results!P36+Info!$B$3*Results!P37+Info!$B$4*Results!P38+Info!$B$5*Results!P39+Info!$B$6*Results!P40+Info!$B$7*Results!P41+Info!$B$8*Results!P42+Info!$B$9*Results!P43+Info!$B$10*Results!P44)/SUM(Info!$B$2:O$10)</f>
+        <v>1.4382566585956415E-2</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="S46" s="2">
         <f t="shared" si="28"/>
-        <v>-2.5000000000000008E-2</v>
+        <v>0.32357539951573855</v>
       </c>
       <c r="T46" s="2">
         <f t="shared" si="23"/>
-        <v>-0.79499999999999993</v>
+        <v>2.3196125907988252E-3</v>
       </c>
       <c r="U46" s="2">
         <f t="shared" si="24"/>
-        <v>-8.5000000000000006E-2</v>
+        <v>0.15354479418886199</v>
       </c>
       <c r="V46" s="2">
         <f t="shared" si="25"/>
-        <v>0.43099999999999994</v>
+        <v>0.30440193704600482</v>
       </c>
       <c r="W46" s="2">
         <f t="shared" si="26"/>
-        <v>0.53699999999999992</v>
+        <v>0.41836319612590794</v>
       </c>
       <c r="X46" s="2">
         <f t="shared" si="27"/>
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="L47" s="2">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="P47" s="2">
-        <v>-0.127</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S47" s="2">
-        <f t="shared" si="28"/>
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="T47" s="2">
-        <f t="shared" si="23"/>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="U47" s="2">
-        <f t="shared" si="24"/>
-        <v>0.30300000000000005</v>
-      </c>
-      <c r="V47" s="2">
-        <f t="shared" si="25"/>
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="W47" s="2">
-        <f t="shared" si="26"/>
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="X47" s="2">
-        <f t="shared" si="27"/>
-        <v>0.74399999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G48" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H48" s="2">
-        <v>-0.248</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="2">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="L48" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="M48" s="2">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="N48" s="2">
-        <v>0.222</v>
-      </c>
-      <c r="O48" s="2">
-        <v>-0.34100000000000003</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0.253</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="10">
-        <f t="shared" si="28"/>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="T48" s="10">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="10">
-        <f t="shared" si="24"/>
-        <v>2.2000000000000006E-2</v>
-      </c>
-      <c r="V48" s="10">
-        <f t="shared" si="25"/>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="W48" s="10">
-        <f t="shared" si="26"/>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="X48" s="10">
-        <f t="shared" si="27"/>
-        <v>-0.501</v>
+        <v>0.24648184019370459</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="7">
-        <f>SUM(C40:C48)/COUNT(C40:C48)</f>
-        <v>0.41922222222222222</v>
-      </c>
-      <c r="D49" s="7">
-        <f t="shared" ref="D49:H49" si="29">SUM(D40:D48)/COUNT(D40:D48)</f>
-        <v>0.56255555555555548</v>
-      </c>
-      <c r="E49" s="7">
-        <f t="shared" si="29"/>
-        <v>0.33766666666666673</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="29"/>
-        <v>0.7486666666666667</v>
-      </c>
-      <c r="G49" s="7">
-        <f>SUM(G40:G48)/COUNT(G40:G48)</f>
-        <v>0.78111111111111109</v>
-      </c>
-      <c r="H49" s="7">
-        <f t="shared" si="29"/>
-        <v>0.29555555555555557</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="7">
-        <f>SUM(K40:K48)/COUNT(K40:K48)</f>
-        <v>9.244444444444444E-2</v>
-      </c>
-      <c r="L49" s="7">
-        <f t="shared" ref="L49:P49" si="30">SUM(L40:L48)/COUNT(L40:L48)</f>
-        <v>0.5858888888888889</v>
-      </c>
-      <c r="M49" s="7">
-        <f t="shared" si="30"/>
-        <v>0.14477777777777778</v>
-      </c>
-      <c r="N49" s="7">
-        <f t="shared" si="30"/>
-        <v>0.37200000000000005</v>
-      </c>
-      <c r="O49" s="7">
-        <f>SUM(O40:O48)/COUNT(O40:O48)</f>
-        <v>0.30566666666666664</v>
-      </c>
-      <c r="P49" s="7">
-        <f t="shared" si="30"/>
-        <v>4.1888888888888885E-2</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S49" s="2">
-        <f t="shared" si="28"/>
-        <v>0.32677777777777778</v>
-      </c>
-      <c r="T49" s="2">
-        <f t="shared" si="23"/>
-        <v>-2.3333333333333428E-2</v>
-      </c>
-      <c r="U49" s="2">
-        <f t="shared" si="24"/>
-        <v>0.19288888888888894</v>
-      </c>
-      <c r="V49" s="2">
-        <f t="shared" si="25"/>
-        <v>0.37666666666666665</v>
-      </c>
-      <c r="W49" s="2">
-        <f t="shared" si="26"/>
-        <v>0.47544444444444445</v>
-      </c>
-      <c r="X49" s="2">
-        <f t="shared" si="27"/>
-        <v>0.25366666666666671</v>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="2">
-        <f>(Info!$B$2*Results!C40+Info!$B$3*Results!C41+Info!$B$4*Results!C42+Info!$B$5*Results!C43+Info!$B$6*Results!C44+Info!$B$7*Results!C45+Info!$B$8*Results!C46+Info!$B$9*Results!C47+Info!$B$10*Results!C48)/SUM(Info!$B$2:B$10)</f>
-        <v>0.39028000000000002</v>
-      </c>
-      <c r="D50" s="2">
-        <f>(Info!$B$2*Results!D40+Info!$B$3*Results!D41+Info!$B$4*Results!D42+Info!$B$5*Results!D43+Info!$B$6*Results!D44+Info!$B$7*Results!D45+Info!$B$8*Results!D46+Info!$B$9*Results!D47+Info!$B$10*Results!D48)/SUM(Info!$B$2:C$10)</f>
-        <v>0.50112348668280859</v>
-      </c>
-      <c r="E50" s="2">
-        <f>(Info!$B$2*Results!E40+Info!$B$3*Results!E41+Info!$B$4*Results!E42+Info!$B$5*Results!E43+Info!$B$6*Results!E44+Info!$B$7*Results!E45+Info!$B$8*Results!E46+Info!$B$9*Results!E47+Info!$B$10*Results!E48)/SUM(Info!$B$2:D$10)</f>
-        <v>0.26399273607748186</v>
-      </c>
-      <c r="F50" s="2">
-        <f>(Info!$B$2*Results!F40+Info!$B$3*Results!F41+Info!$B$4*Results!F42+Info!$B$5*Results!F43+Info!$B$6*Results!F44+Info!$B$7*Results!F45+Info!$B$8*Results!F46+Info!$B$9*Results!F47+Info!$B$10*Results!F48)/SUM(Info!$B$2:E$10)</f>
-        <v>0.59851815980629541</v>
-      </c>
-      <c r="G50" s="2">
-        <f>(Info!$B$2*Results!G40+Info!$B$3*Results!G41+Info!$B$4*Results!G42+Info!$B$5*Results!G43+Info!$B$6*Results!G44+Info!$B$7*Results!G45+Info!$B$8*Results!G46+Info!$B$9*Results!G47+Info!$B$10*Results!H48)/SUM(Info!$B$2:F$10)</f>
-        <v>0.58968038740920092</v>
-      </c>
-      <c r="H50" s="2">
-        <f>(Info!$B$2*Results!H40+Info!$B$3*Results!H41+Info!$B$4*Results!H42+Info!$B$5*Results!H43+Info!$B$6*Results!H44+Info!$B$7*Results!H45+Info!$B$8*Results!H46+Info!$B$9*Results!H47+Info!$B$10*Results!G48)/SUM(Info!$B$2:G$10)</f>
-        <v>0.260864406779661</v>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0.159</v>
+      </c>
+      <c r="D50">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G50">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H50">
+        <v>0.17599999999999999</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <f>(Info!$B$2*Results!K40+Info!$B$3*Results!K41+Info!$B$4*Results!K42+Info!$B$5*Results!K43+Info!$B$6*Results!K44+Info!$B$7*Results!K45+Info!$B$8*Results!K46+Info!$B$9*Results!K47+Info!$B$10*Results!K48)/SUM(Info!$B$2:J$10)</f>
-        <v>6.6704600484261495E-2</v>
+        <f>C36-C50</f>
+        <v>5.3999999999999992E-2</v>
       </c>
       <c r="L50" s="2">
-        <f>(Info!$B$2*Results!L40+Info!$B$3*Results!L41+Info!$B$4*Results!L42+Info!$B$5*Results!L43+Info!$B$6*Results!L44+Info!$B$7*Results!L45+Info!$B$8*Results!L46+Info!$B$9*Results!L47+Info!$B$10*Results!L48)/SUM(Info!$B$2:K$10)</f>
-        <v>0.49880387409200977</v>
+        <f t="shared" ref="L50:P50" si="31">D36-D50</f>
+        <v>-6.899999999999995E-2</v>
       </c>
       <c r="M50" s="2">
-        <f>(Info!$B$2*Results!M40+Info!$B$3*Results!M41+Info!$B$4*Results!M42+Info!$B$5*Results!M43+Info!$B$6*Results!M44+Info!$B$7*Results!M45+Info!$B$8*Results!M46+Info!$B$9*Results!M47+Info!$B$10*Results!M48)/SUM(Info!$B$2:L$10)</f>
-        <v>0.11044794188861987</v>
+        <f t="shared" si="31"/>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N50" s="2">
-        <f>(Info!$B$2*Results!N40+Info!$B$3*Results!N41+Info!$B$4*Results!N42+Info!$B$5*Results!N43+Info!$B$6*Results!N44+Info!$B$7*Results!N45+Info!$B$8*Results!N46+Info!$B$9*Results!N47+Info!$B$10*Results!N48)/SUM(Info!$B$2:M$10)</f>
-        <v>0.29411622276029059</v>
+        <f t="shared" si="31"/>
+        <v>0.1429999999999999</v>
       </c>
       <c r="O50" s="2">
-        <f>(Info!$B$2*Results!P40+Info!$B$3*Results!P41+Info!$B$4*Results!P42+Info!$B$5*Results!O43+Info!$B$6*Results!O44+Info!$B$7*Results!O45+Info!$B$8*Results!O46+Info!$B$9*Results!O47+Info!$B$10*Results!O48)/SUM(Info!$B$2:N$10)</f>
-        <v>0.17131719128329298</v>
+        <f t="shared" si="31"/>
+        <v>0.16399999999999992</v>
       </c>
       <c r="P50" s="2">
-        <f>(Info!$B$2*Results!P40+Info!$B$3*Results!P41+Info!$B$4*Results!P42+Info!$B$5*Results!P43+Info!$B$6*Results!P44+Info!$B$7*Results!P45+Info!$B$8*Results!P46+Info!$B$9*Results!P47+Info!$B$10*Results!P48)/SUM(Info!$B$2:O$10)</f>
-        <v>1.4382566585956415E-2</v>
+        <f t="shared" si="31"/>
+        <v>5.2000000000000018E-2</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
-        <f t="shared" si="28"/>
-        <v>0.32357539951573855</v>
+        <f>C64-K$36</f>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="T50" s="2">
-        <f t="shared" si="23"/>
-        <v>2.3196125907988252E-3</v>
+        <f>D64-L$36</f>
+        <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U50" s="2">
-        <f t="shared" si="24"/>
-        <v>0.15354479418886199</v>
+        <f>E64-M$36</f>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="V50" s="2">
-        <f t="shared" si="25"/>
-        <v>0.30440193704600482</v>
+        <f>F64-N$36</f>
+        <v>6.5000000000000058E-2</v>
       </c>
       <c r="W50" s="2">
-        <f t="shared" si="26"/>
-        <v>0.41836319612590794</v>
+        <f>G64-O$36</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="X50" s="2">
-        <f t="shared" si="27"/>
-        <v>0.24648184019370459</v>
+        <f>H64-P$36</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0.314</v>
+      </c>
+      <c r="D51">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.435</v>
+      </c>
+      <c r="F51">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="G51">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H51">
+        <v>0.309</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <f t="shared" ref="K51:K57" si="32">C37-C51</f>
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" ref="L51:L58" si="33">D37-D51</f>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" ref="M51:M58" si="34">E37-E51</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="N51" s="2">
+        <f t="shared" ref="N51:N58" si="35">F37-F51</f>
+        <v>0.16299999999999992</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" ref="O51:O58" si="36">G37-G51</f>
+        <v>0.18899999999999995</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" ref="P51:P58" si="37">H37-H51</f>
+        <v>0.5</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S51" s="2">
+        <f>C65-K$37</f>
+        <v>0.11</v>
+      </c>
+      <c r="T51" s="2">
+        <f>D65-L$37</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="U51" s="2">
+        <f>E65-M$37</f>
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="V51" s="2">
+        <f>F65-N$37</f>
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="W51" s="2">
+        <f>G65-O$37</f>
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="X51" s="2">
+        <f>H65-P$37</f>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" t="s">
-        <v>33</v>
-      </c>
-      <c r="R52" t="s">
-        <v>32</v>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" s="2">
+        <f>C52-K$38</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T52" s="2">
+        <f>D52-L$38</f>
+        <v>0.5</v>
+      </c>
+      <c r="U52" s="2">
+        <f>E52-M$38</f>
+        <v>0.12300000000000003</v>
+      </c>
+      <c r="V52" s="2">
+        <f>F52-N$38</f>
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="W52" s="2">
+        <f>G52-O$38</f>
+        <v>-8.3000000000000018E-2</v>
+      </c>
+      <c r="X52" s="2">
+        <f>H52-P$38</f>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V53" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W53" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>17</v>
+      <c r="B53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.112</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2">
+        <f t="shared" si="32"/>
+        <v>6.699999999999999E-2</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="33"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="34"/>
+        <v>9.099999999999997E-2</v>
+      </c>
+      <c r="N53" s="2">
+        <f t="shared" si="35"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="36"/>
+        <v>0.122</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="37"/>
+        <v>9.099999999999997E-2</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S53" s="2">
+        <f>C53-K$39</f>
+        <v>7.8E-2</v>
+      </c>
+      <c r="T53" s="2">
+        <f>D53-L$39</f>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="U53" s="2">
+        <f>E53-M$39</f>
+        <v>0.129</v>
+      </c>
+      <c r="V53" s="2">
+        <f>F53-N$39</f>
+        <v>0.435</v>
+      </c>
+      <c r="W53" s="2">
+        <f>G53-O$39</f>
+        <v>0.443</v>
+      </c>
+      <c r="X53" s="2">
+        <f>H53-P$39</f>
+        <v>0.24100000000000002</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0.159</v>
-      </c>
-      <c r="D54">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="E54">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="F54">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="G54">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="H54">
-        <v>0.17599999999999999</v>
+        <v>3</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.22800000000000001</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K54" s="2">
-        <f>C40-C54</f>
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" si="32"/>
+        <v>2.8000000000000025E-2</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" ref="L54:P54" si="31">D40-D54</f>
-        <v>-6.899999999999995E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.200000000000002E-2</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="31"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="34"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="31"/>
-        <v>0.1429999999999999</v>
+        <f t="shared" si="35"/>
+        <v>3.7000000000000033E-2</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="31"/>
-        <v>0.16399999999999992</v>
+        <f t="shared" si="36"/>
+        <v>3.9000000000000035E-2</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="31"/>
-        <v>5.2000000000000018E-2</v>
+        <f t="shared" si="37"/>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="R54" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S54" s="2">
-        <f>C68-K$40</f>
-        <v>1.3000000000000012E-2</v>
+        <f>C54-K$40</f>
+        <v>0.10599999999999998</v>
       </c>
       <c r="T54" s="2">
-        <f>D68-L$40</f>
-        <v>-6.9000000000000061E-2</v>
+        <f>D54-L$40</f>
+        <v>0</v>
       </c>
       <c r="U54" s="2">
-        <f>E68-M$40</f>
-        <v>1.5000000000000013E-2</v>
+        <f>E54-M$40</f>
+        <v>0.16600000000000001</v>
       </c>
       <c r="V54" s="2">
-        <f>F68-N$40</f>
-        <v>6.5000000000000058E-2</v>
+        <f>F54-N$40</f>
+        <v>0.57599999999999996</v>
       </c>
       <c r="W54" s="2">
-        <f>G68-O$40</f>
-        <v>7.5000000000000011E-2</v>
+        <f>G54-O$40</f>
+        <v>0.59799999999999998</v>
       </c>
       <c r="X54" s="2">
-        <f>H68-P$40</f>
-        <v>-2.0000000000000018E-3</v>
+        <f>H54-P$40</f>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0.314</v>
-      </c>
-      <c r="D55">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="E55">
-        <v>0.435</v>
-      </c>
-      <c r="F55">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="G55">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="H55">
-        <v>0.309</v>
+        <v>4</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.26200000000000001</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" ref="K55:K61" si="32">C41-C55</f>
-        <v>0.64900000000000002</v>
+        <f t="shared" si="32"/>
+        <v>0.63100000000000001</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" ref="L55:L62" si="33">D41-D55</f>
-        <v>-3.7000000000000033E-2</v>
+        <f t="shared" si="33"/>
+        <v>-9.600000000000003E-2</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" ref="M55:M62" si="34">E41-E55</f>
-        <v>0.35000000000000003</v>
+        <f t="shared" si="34"/>
+        <v>9.099999999999997E-2</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" ref="N55:N62" si="35">F41-F55</f>
-        <v>0.16299999999999992</v>
+        <f t="shared" si="35"/>
+        <v>9.8999999999999977E-2</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" ref="O55:O62" si="36">G41-G55</f>
-        <v>0.18899999999999995</v>
+        <f t="shared" si="36"/>
+        <v>0.11299999999999999</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" ref="P55:P62" si="37">H41-H55</f>
-        <v>0.5</v>
+        <f t="shared" si="37"/>
+        <v>0.27300000000000002</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S55" s="2">
-        <f>C69-K$41</f>
-        <v>0.11</v>
+        <f>C55-K$41</f>
+        <v>0.17499999999999999</v>
       </c>
       <c r="T55" s="2">
-        <f>D69-L$41</f>
-        <v>3.7000000000000033E-2</v>
+        <f>D55-L$41</f>
+        <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U55" s="2">
-        <f>E69-M$41</f>
-        <v>0.14300000000000002</v>
+        <f>E55-M$41</f>
+        <v>0.19700000000000004</v>
       </c>
       <c r="V55" s="2">
-        <f>F69-N$41</f>
-        <v>0.31200000000000006</v>
+        <f>F55-N$41</f>
+        <v>0.40299999999999997</v>
       </c>
       <c r="W55" s="2">
-        <f>G69-O$41</f>
-        <v>0.35100000000000003</v>
+        <f>G55-O$41</f>
+        <v>0.433</v>
       </c>
       <c r="X55" s="2">
-        <f>H69-P$41</f>
-        <v>0.17799999999999999</v>
+        <f>H55-P$41</f>
+        <v>0.21400000000000002</v>
       </c>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2">
-        <v>0.16400000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D56" s="2">
-        <v>0.98299999999999998</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E56" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.112</v>
       </c>
       <c r="F56" s="2">
-        <v>0.377</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="G56" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="H56" s="2">
-        <v>0.14699999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K56" s="2">
         <f t="shared" si="32"/>
@@ -3243,918 +3551,918 @@
         <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S56" s="2">
         <f>C56-K$42</f>
-        <v>7.0000000000000007E-2</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T56" s="2">
         <f>D56-L$42</f>
-        <v>0.5</v>
+        <v>-0.79499999999999993</v>
       </c>
       <c r="U56" s="2">
         <f>E56-M$42</f>
-        <v>0.12300000000000003</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V56" s="2">
         <f>F56-N$42</f>
-        <v>-9.000000000000008E-3</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="W56" s="2">
         <f>G56-O$42</f>
-        <v>-8.3000000000000018E-2</v>
+        <v>0.53699999999999992</v>
       </c>
       <c r="X56" s="2">
         <f>H56-P$42</f>
-        <v>0.19600000000000001</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C57" s="2">
-        <v>0.112</v>
+        <v>1</v>
       </c>
       <c r="D57" s="2">
-        <v>0.78</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E57" s="2">
-        <v>0.19400000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="F57" s="2">
-        <v>0.73499999999999999</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="G57" s="2">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>0.20100000000000001</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K57" s="2">
         <f t="shared" si="32"/>
-        <v>6.699999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="L57" s="2">
         <f t="shared" si="33"/>
-        <v>-2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <f t="shared" si="34"/>
-        <v>9.099999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="N57" s="2">
         <f t="shared" si="35"/>
-        <v>0.11699999999999999</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <f t="shared" si="36"/>
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="P57" s="2">
         <f t="shared" si="37"/>
-        <v>9.099999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S57" s="2">
         <f>C57-K$43</f>
-        <v>7.8E-2</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="T57" s="2">
         <f>D57-L$43</f>
-        <v>0.18000000000000005</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="U57" s="2">
         <f>E57-M$43</f>
-        <v>0.129</v>
+        <v>0.30300000000000005</v>
       </c>
       <c r="V57" s="2">
         <f>F57-N$43</f>
-        <v>0.435</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="W57" s="2">
         <f>G57-O$43</f>
-        <v>0.443</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="X57" s="2">
         <f>H57-P$43</f>
-        <v>0.24100000000000002</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="D58" s="2">
-        <v>0.65200000000000002</v>
+        <v>0.111</v>
       </c>
       <c r="E58" s="2">
-        <v>0.23100000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="F58" s="2">
-        <v>0.82699999999999996</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G58" s="2">
-        <v>0.83199999999999996</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H58" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="2">
-        <f t="shared" si="32"/>
-        <v>2.8000000000000025E-2</v>
-      </c>
-      <c r="L58" s="2">
+        <v>-0.248</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="12">
+        <f>C44-C58</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="10">
         <f t="shared" si="33"/>
-        <v>-2.200000000000002E-2</v>
-      </c>
-      <c r="M58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="10">
         <f t="shared" si="34"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="N58" s="10">
         <f t="shared" si="35"/>
-        <v>3.7000000000000033E-2</v>
-      </c>
-      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10">
         <f t="shared" si="36"/>
-        <v>3.9000000000000035E-2</v>
-      </c>
-      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="10">
         <f t="shared" si="37"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="12">
         <f>C58-K$44</f>
-        <v>0.10599999999999998</v>
-      </c>
-      <c r="T58" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T58" s="10">
         <f>D58-L$44</f>
         <v>0</v>
       </c>
-      <c r="U58" s="2">
+      <c r="U58" s="10">
         <f>E58-M$44</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="V58" s="2">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="V58" s="10">
         <f>F58-N$44</f>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="W58" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W58" s="10">
         <f>G58-O$44</f>
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="X58" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X58" s="10">
         <f>H58-P$44</f>
-        <v>0.26700000000000002</v>
+        <v>-0.501</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0.872</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.26200000000000001</v>
+      <c r="B59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="7">
+        <f>SUM(C50:C58)/COUNT(C50:C58)</f>
+        <v>0.26044444444444448</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" ref="D59:F59" si="38">SUM(D50:D58)/COUNT(D50:D58)</f>
+        <v>0.58966666666666656</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="38"/>
+        <v>0.26766666666666672</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="38"/>
+        <v>0.68655555555555559</v>
+      </c>
+      <c r="G59" s="7">
+        <f>SUM(G50:G58)/COUNT(G50:G58)</f>
+        <v>0.71144444444444455</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" ref="H59" si="39">SUM(H50:H58)/COUNT(H50:H58)</f>
+        <v>0.19011111111111109</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="32"/>
-        <v>0.63100000000000001</v>
+        <f t="shared" ref="K59:K60" si="40">C45-C59</f>
+        <v>0.15877777777777774</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="33"/>
-        <v>-9.600000000000003E-2</v>
+        <f t="shared" ref="L59:L60" si="41">D45-D59</f>
+        <v>-2.7111111111111086E-2</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="34"/>
-        <v>9.099999999999997E-2</v>
+        <f t="shared" ref="M59:M60" si="42">E45-E59</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="35"/>
-        <v>9.8999999999999977E-2</v>
+        <f t="shared" ref="N59:N60" si="43">F45-F59</f>
+        <v>6.2111111111111117E-2</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="36"/>
-        <v>0.11299999999999999</v>
+        <f t="shared" ref="O59:O60" si="44">G45-G59</f>
+        <v>6.9666666666666544E-2</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" si="37"/>
-        <v>0.27300000000000002</v>
+        <f t="shared" ref="P59:P60" si="45">H45-H59</f>
+        <v>0.10544444444444448</v>
       </c>
       <c r="R59" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S59" s="2">
         <f>C59-K$45</f>
-        <v>0.17499999999999999</v>
+        <v>0.16800000000000004</v>
       </c>
       <c r="T59" s="2">
         <f>D59-L$45</f>
-        <v>-9.5999999999999974E-2</v>
+        <v>3.7777777777776578E-3</v>
       </c>
       <c r="U59" s="2">
         <f>E59-M$45</f>
-        <v>0.19700000000000004</v>
+        <v>0.12288888888888894</v>
       </c>
       <c r="V59" s="2">
         <f>F59-N$45</f>
-        <v>0.40299999999999997</v>
+        <v>0.31455555555555553</v>
       </c>
       <c r="W59" s="2">
         <f>G59-O$45</f>
-        <v>0.433</v>
+        <v>0.4057777777777779</v>
       </c>
       <c r="X59" s="2">
         <f>H59-P$45</f>
-        <v>0.21400000000000002</v>
+        <v>0.1482222222222222</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C60" s="2">
-        <v>8.5999999999999993E-2</v>
+        <f>(Info!$B$2*Results!C64+Info!$B$3*Results!C65+Info!$B$4*Results!C52+Info!$B$5*Results!C53+Info!$B$6*Results!C54+Info!$B$7*Results!C55+Info!$B$8*Results!C56+Info!$B$9*Results!C57+Info!$B$10*Results!C58)/SUM(Info!$B$2:B$10)</f>
+        <v>0.20908615384615387</v>
       </c>
       <c r="D60" s="2">
-        <v>0.17599999999999999</v>
+        <f>(Info!$B$2*Results!D64+Info!$B$3*Results!D65+Info!$B$4*Results!D52+Info!$B$5*Results!D53+Info!$B$6*Results!D54+Info!$B$7*Results!D55+Info!$B$8*Results!D56+Info!$B$9*Results!D57+Info!$B$10*Results!D58)/SUM(Info!$B$2:C$10)</f>
+        <v>0.52534624697336563</v>
       </c>
       <c r="E60" s="2">
-        <v>0.112</v>
+        <f>(Info!$B$2*Results!E64+Info!$B$3*Results!E65+Info!$B$4*Results!E52+Info!$B$5*Results!E53+Info!$B$6*Results!E54+Info!$B$7*Results!E55+Info!$B$8*Results!E56+Info!$B$9*Results!E57+Info!$B$10*Results!E58)/SUM(Info!$B$2:D$10)</f>
+        <v>0.20431719128329301</v>
       </c>
       <c r="F60" s="2">
-        <v>0.81399999999999995</v>
+        <f>(Info!$B$2*Results!F64+Info!$B$3*Results!F65+Info!$B$4*Results!F52+Info!$B$5*Results!F53+Info!$B$6*Results!F54+Info!$B$7*Results!F55+Info!$B$8*Results!F56+Info!$B$9*Results!F57+Info!$B$10*Results!F58)/SUM(Info!$B$2:E$10)</f>
+        <v>0.53961743341404356</v>
       </c>
       <c r="G60" s="2">
-        <v>0.87</v>
+        <f>(Info!$B$2*Results!G64+Info!$B$3*Results!G65+Info!$B$4*Results!G52+Info!$B$5*Results!G53+Info!$B$6*Results!G54+Info!$B$7*Results!G55+Info!$B$8*Results!G56+Info!$B$9*Results!G57+Info!$B$10*Results!H58)/SUM(Info!$B$2:F$10)</f>
+        <v>0.52403389830508462</v>
       </c>
       <c r="H60" s="2">
-        <v>1.9E-2</v>
+        <f>(Info!$B$2*Results!H64+Info!$B$3*Results!H65+Info!$B$4*Results!H52+Info!$B$5*Results!H53+Info!$B$6*Results!H54+Info!$B$7*Results!H55+Info!$B$8*Results!H56+Info!$B$9*Results!H57+Info!$B$10*Results!G58)/SUM(Info!$B$2:G$10)</f>
+        <v>0.1685254237288136</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.18119384615384615</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-2.4222760290557033E-2</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>5.9675544794188851E-2</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>5.8900726392251856E-2</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>6.5646489104116301E-2</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>9.2338983050847395E-2</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="S60" s="2">
         <f>C60-K$46</f>
-        <v>-2.5000000000000008E-2</v>
+        <v>0.14238155336189237</v>
       </c>
       <c r="T60" s="2">
         <f>D60-L$46</f>
-        <v>-0.79499999999999993</v>
+        <v>2.6542372881355858E-2</v>
       </c>
       <c r="U60" s="2">
         <f>E60-M$46</f>
-        <v>-8.5000000000000006E-2</v>
+        <v>9.3869249394673143E-2</v>
       </c>
       <c r="V60" s="2">
         <f>F60-N$46</f>
-        <v>0.43099999999999994</v>
+        <v>0.24550121065375297</v>
       </c>
       <c r="W60" s="2">
         <f>G60-O$46</f>
-        <v>0.53699999999999992</v>
+        <v>0.35271670702179164</v>
       </c>
       <c r="X60" s="2">
         <f>H60-P$46</f>
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="G61" s="2">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K61" s="2">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="2">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="2">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S61" s="2">
-        <f>C61-K$47</f>
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="T61" s="2">
-        <f>D61-L$47</f>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="U61" s="2">
-        <f>E61-M$47</f>
-        <v>0.30300000000000005</v>
-      </c>
-      <c r="V61" s="2">
-        <f>F61-N$47</f>
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="W61" s="2">
-        <f>G61-O$47</f>
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="X61" s="2">
-        <f>H61-P$47</f>
-        <v>0.74399999999999999</v>
+        <v>0.15414285714285719</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G62" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H62" s="2">
-        <v>-0.248</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="12">
-        <f>C48-C62</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="10">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="10">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N62" s="10">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="10">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="10">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="R62" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S62" s="12">
-        <f>C62-K$48</f>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="T62" s="10">
-        <f>D62-L$48</f>
-        <v>0</v>
-      </c>
-      <c r="U62" s="10">
-        <f>E62-M$48</f>
-        <v>2.2000000000000006E-2</v>
-      </c>
-      <c r="V62" s="10">
-        <f>F62-N$48</f>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="W62" s="10">
-        <f>G62-O$48</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="X62" s="10">
-        <f>H62-P$48</f>
-        <v>-0.501</v>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="7">
-        <f>SUM(C54:C62)/COUNT(C54:C62)</f>
-        <v>0.26044444444444448</v>
-      </c>
-      <c r="D63" s="7">
-        <f t="shared" ref="D63:F63" si="38">SUM(D54:D62)/COUNT(D54:D62)</f>
-        <v>0.58966666666666656</v>
-      </c>
-      <c r="E63" s="7">
-        <f t="shared" si="38"/>
-        <v>0.26766666666666672</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" si="38"/>
-        <v>0.68655555555555559</v>
-      </c>
-      <c r="G63" s="7">
-        <f>SUM(G54:G62)/COUNT(G54:G62)</f>
-        <v>0.71144444444444455</v>
-      </c>
-      <c r="H63" s="7">
-        <f t="shared" ref="H63" si="39">SUM(H54:H62)/COUNT(H54:H62)</f>
-        <v>0.19011111111111109</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="2">
-        <f t="shared" ref="K63:K64" si="40">C49-C63</f>
-        <v>0.15877777777777774</v>
-      </c>
-      <c r="L63" s="2">
-        <f t="shared" ref="L63:L64" si="41">D49-D63</f>
-        <v>-2.7111111111111086E-2</v>
-      </c>
-      <c r="M63" s="2">
-        <f t="shared" ref="M63:M64" si="42">E49-E63</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N63" s="2">
-        <f t="shared" ref="N63:N64" si="43">F49-F63</f>
-        <v>6.2111111111111117E-2</v>
-      </c>
-      <c r="O63" s="2">
-        <f t="shared" ref="O63:O64" si="44">G49-G63</f>
-        <v>6.9666666666666544E-2</v>
-      </c>
-      <c r="P63" s="2">
-        <f t="shared" ref="P63:P64" si="45">H49-H63</f>
-        <v>0.10544444444444448</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S63" s="2">
-        <f>C63-K$49</f>
-        <v>0.16800000000000004</v>
-      </c>
-      <c r="T63" s="2">
-        <f>D63-L$49</f>
-        <v>3.7777777777776578E-3</v>
-      </c>
-      <c r="U63" s="2">
-        <f>E63-M$49</f>
-        <v>0.12288888888888894</v>
-      </c>
-      <c r="V63" s="2">
-        <f>F63-N$49</f>
-        <v>0.31455555555555553</v>
-      </c>
-      <c r="W63" s="2">
-        <f>G63-O$49</f>
-        <v>0.4057777777777779</v>
-      </c>
-      <c r="X63" s="2">
-        <f>H63-P$49</f>
-        <v>0.1482222222222222</v>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2">
-        <f>(Info!$B$2*Results!C68+Info!$B$3*Results!C69+Info!$B$4*Results!C56+Info!$B$5*Results!C57+Info!$B$6*Results!C58+Info!$B$7*Results!C59+Info!$B$8*Results!C60+Info!$B$9*Results!C61+Info!$B$10*Results!C62)/SUM(Info!$B$2:B$10)</f>
-        <v>0.20908615384615387</v>
+        <v>0.159</v>
       </c>
       <c r="D64" s="2">
-        <f>(Info!$B$2*Results!D68+Info!$B$3*Results!D69+Info!$B$4*Results!D56+Info!$B$5*Results!D57+Info!$B$6*Results!D58+Info!$B$7*Results!D59+Info!$B$8*Results!D60+Info!$B$9*Results!D61+Info!$B$10*Results!D62)/SUM(Info!$B$2:C$10)</f>
-        <v>0.52534624697336563</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="E64" s="2">
-        <f>(Info!$B$2*Results!E68+Info!$B$3*Results!E69+Info!$B$4*Results!E56+Info!$B$5*Results!E57+Info!$B$6*Results!E58+Info!$B$7*Results!E59+Info!$B$8*Results!E60+Info!$B$9*Results!E61+Info!$B$10*Results!E62)/SUM(Info!$B$2:D$10)</f>
-        <v>0.20431719128329301</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="F64" s="2">
-        <f>(Info!$B$2*Results!F68+Info!$B$3*Results!F69+Info!$B$4*Results!F56+Info!$B$5*Results!F57+Info!$B$6*Results!F58+Info!$B$7*Results!F59+Info!$B$8*Results!F60+Info!$B$9*Results!F61+Info!$B$10*Results!F62)/SUM(Info!$B$2:E$10)</f>
-        <v>0.53961743341404356</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G64" s="2">
-        <f>(Info!$B$2*Results!G68+Info!$B$3*Results!G69+Info!$B$4*Results!G56+Info!$B$5*Results!G57+Info!$B$6*Results!G58+Info!$B$7*Results!G59+Info!$B$8*Results!G60+Info!$B$9*Results!G61+Info!$B$10*Results!H62)/SUM(Info!$B$2:F$10)</f>
-        <v>0.52403389830508462</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="H64" s="2">
-        <f>(Info!$B$2*Results!H68+Info!$B$3*Results!H69+Info!$B$4*Results!H56+Info!$B$5*Results!H57+Info!$B$6*Results!H58+Info!$B$7*Results!H59+Info!$B$8*Results!H60+Info!$B$9*Results!H61+Info!$B$10*Results!G62)/SUM(Info!$B$2:G$10)</f>
-        <v>0.1685254237288136</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="40"/>
-        <v>0.18119384615384615</v>
+        <f>C36-C64</f>
+        <v>5.3999999999999992E-2</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" si="41"/>
-        <v>-2.4222760290557033E-2</v>
+        <f t="shared" ref="L64:P64" si="46">D36-D64</f>
+        <v>-6.899999999999995E-2</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="42"/>
-        <v>5.9675544794188851E-2</v>
+        <f t="shared" si="46"/>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="43"/>
-        <v>5.8900726392251856E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.1429999999999999</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="44"/>
-        <v>6.5646489104116301E-2</v>
+        <f t="shared" si="46"/>
+        <v>0.16399999999999992</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="45"/>
-        <v>9.2338983050847395E-2</v>
+        <f t="shared" si="46"/>
+        <v>5.3000000000000019E-2</v>
       </c>
       <c r="R64" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2">
-        <f>C64-K$50</f>
-        <v>0.14238155336189237</v>
+        <f>C64-K$36</f>
+        <v>1.3000000000000012E-2</v>
       </c>
       <c r="T64" s="2">
-        <f>D64-L$50</f>
-        <v>2.6542372881355858E-2</v>
+        <f>D64-L$36</f>
+        <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U64" s="2">
-        <f>E64-M$50</f>
-        <v>9.3869249394673143E-2</v>
+        <f>E64-M$36</f>
+        <v>1.5000000000000013E-2</v>
       </c>
       <c r="V64" s="2">
-        <f>F64-N$50</f>
-        <v>0.24550121065375297</v>
+        <f>F64-N$36</f>
+        <v>6.5000000000000058E-2</v>
       </c>
       <c r="W64" s="2">
-        <f>G64-O$50</f>
-        <v>0.35271670702179164</v>
+        <f>G64-O$36</f>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="X64" s="2">
-        <f>H64-P$50</f>
-        <v>0.15414285714285719</v>
+        <f>H64-P$36</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <f t="shared" ref="K65:K74" si="47">C37-C65</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" ref="L65:L74" si="48">D37-D65</f>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+      <c r="M65" s="2">
+        <f t="shared" ref="M65:M74" si="49">E37-E65</f>
+        <v>0.443</v>
+      </c>
+      <c r="N65" s="2">
+        <f t="shared" ref="N65:N74" si="50">F37-F65</f>
+        <v>0.27699999999999991</v>
+      </c>
+      <c r="O65" s="2">
+        <f t="shared" ref="O65:O74" si="51">G37-G65</f>
+        <v>0.31799999999999995</v>
+      </c>
+      <c r="P65" s="2">
+        <f t="shared" ref="P65:P74" si="52">H37-H65</f>
+        <v>0.60500000000000009</v>
+      </c>
+      <c r="R65" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S65" s="2">
+        <f>C65-K$37</f>
+        <v>0.11</v>
+      </c>
+      <c r="T65" s="2">
+        <f>D65-L$37</f>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="U65" s="2">
+        <f>E65-M$37</f>
+        <v>0.14300000000000002</v>
+      </c>
+      <c r="V65" s="2">
+        <f>F65-N$37</f>
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="W65" s="2">
+        <f>G65-O$37</f>
+        <v>0.35100000000000003</v>
+      </c>
+      <c r="X65" s="2">
+        <f>H65-P$37</f>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="s">
-        <v>31</v>
-      </c>
-      <c r="J66" t="s">
-        <v>34</v>
-      </c>
-      <c r="R66" t="s">
-        <v>32</v>
+      <c r="B66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0.377</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S66" s="2">
+        <f>C66-K$38</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T66" s="2">
+        <f>D66-L$38</f>
+        <v>0.5</v>
+      </c>
+      <c r="U66" s="2">
+        <f>E66-M$38</f>
+        <v>0.12300000000000003</v>
+      </c>
+      <c r="V66" s="2">
+        <f>F66-N$38</f>
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="W66" s="2">
+        <f>G66-O$38</f>
+        <v>-8.3000000000000018E-2</v>
+      </c>
+      <c r="X66" s="2">
+        <f>H66-P$38</f>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P67" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="S67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="V67" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="W67" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="X67" s="5" t="s">
-        <v>17</v>
+      <c r="B67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.111</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.193</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.215</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2">
+        <f t="shared" si="47"/>
+        <v>6.7999999999999991E-2</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" si="48"/>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="M67" s="2">
+        <f t="shared" si="49"/>
+        <v>9.1999999999999971E-2</v>
+      </c>
+      <c r="N67" s="2">
+        <f t="shared" si="50"/>
+        <v>0.13</v>
+      </c>
+      <c r="O67" s="2">
+        <f t="shared" si="51"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="P67" s="2">
+        <f t="shared" si="52"/>
+        <v>7.6999999999999985E-2</v>
+      </c>
+      <c r="R67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S67" s="2">
+        <f>C67-K$39</f>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="T67" s="2">
+        <f>D67-L$39</f>
+        <v>0.24</v>
+      </c>
+      <c r="U67" s="2">
+        <f>E67-M$39</f>
+        <v>0.128</v>
+      </c>
+      <c r="V67" s="2">
+        <f>F67-N$39</f>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="W67" s="2">
+        <f>G67-O$39</f>
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="X67" s="2">
+        <f>H67-P$39</f>
+        <v>0.255</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2">
-        <v>0.159</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D68" s="2">
-        <v>0.86199999999999999</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E68" s="2">
-        <v>0.26400000000000001</v>
+        <v>0.224</v>
       </c>
       <c r="F68" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G68" s="2">
-        <v>0.52700000000000002</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="H68" s="2">
-        <v>0.17499999999999999</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K68" s="2">
-        <f>C40-C68</f>
-        <v>5.3999999999999992E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" ref="L68:P68" si="46">D40-D68</f>
-        <v>-6.899999999999995E-2</v>
+        <f t="shared" si="48"/>
+        <v>-0.10899999999999999</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="46"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="49"/>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="46"/>
-        <v>0.1429999999999999</v>
+        <f t="shared" si="50"/>
+        <v>7.1999999999999953E-2</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="46"/>
-        <v>0.16399999999999992</v>
+        <f t="shared" si="51"/>
+        <v>7.8999999999999959E-2</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="46"/>
-        <v>5.3000000000000019E-2</v>
+        <f t="shared" si="52"/>
+        <v>0.03</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S68" s="2">
         <f>C68-K$40</f>
-        <v>1.3000000000000012E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="T68" s="2">
         <f>D68-L$40</f>
-        <v>-6.9000000000000061E-2</v>
+        <v>8.6999999999999966E-2</v>
       </c>
       <c r="U68" s="2">
         <f>E68-M$40</f>
-        <v>1.5000000000000013E-2</v>
+        <v>0.159</v>
       </c>
       <c r="V68" s="2">
         <f>F68-N$40</f>
-        <v>6.5000000000000058E-2</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="W68" s="2">
         <f>G68-O$40</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="X68" s="2">
         <f>H68-P$40</f>
-        <v>-2.0000000000000018E-3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C69" s="2">
-        <v>0.22700000000000001</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="D69" s="2">
-        <v>0.74099999999999999</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="E69" s="2">
-        <v>0.34200000000000003</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="F69" s="2">
-        <v>0.68100000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="G69" s="2">
-        <v>0.67700000000000005</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="H69" s="2">
-        <v>0.20399999999999999</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" ref="K69:K78" si="47">C41-C69</f>
-        <v>0.73599999999999999</v>
+        <f t="shared" si="47"/>
+        <v>0.68500000000000005</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" ref="L69:L78" si="48">D41-D69</f>
-        <v>-3.7000000000000033E-2</v>
+        <f t="shared" si="48"/>
+        <v>-9.600000000000003E-2</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" ref="M69:M78" si="49">E41-E69</f>
-        <v>0.443</v>
+        <f t="shared" si="49"/>
+        <v>0.14200000000000002</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" ref="N69:N78" si="50">F41-F69</f>
-        <v>0.27699999999999991</v>
+        <f t="shared" si="50"/>
+        <v>0.15399999999999991</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" ref="O69:O78" si="51">G41-G69</f>
-        <v>0.31799999999999995</v>
+        <f t="shared" si="51"/>
+        <v>0.17299999999999993</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" ref="P69:P78" si="52">H41-H69</f>
-        <v>0.60500000000000009</v>
+        <f t="shared" si="52"/>
+        <v>0.33600000000000002</v>
       </c>
       <c r="R69" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S69" s="2">
         <f>C69-K$41</f>
-        <v>0.11</v>
+        <v>0.12100000000000001</v>
       </c>
       <c r="T69" s="2">
         <f>D69-L$41</f>
-        <v>3.7000000000000033E-2</v>
+        <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U69" s="2">
         <f>E69-M$41</f>
-        <v>0.14300000000000002</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="V69" s="2">
         <f>F69-N$41</f>
-        <v>0.31200000000000006</v>
+        <v>0.34800000000000003</v>
       </c>
       <c r="W69" s="2">
         <f>G69-O$41</f>
-        <v>0.35100000000000003</v>
+        <v>0.37300000000000005</v>
       </c>
       <c r="X69" s="2">
         <f>H69-P$41</f>
-        <v>0.17799999999999999</v>
+        <v>0.15100000000000002</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2">
-        <v>0.16400000000000001</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D70" s="2">
-        <v>0.98299999999999998</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="E70" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.112</v>
       </c>
       <c r="F70" s="2">
-        <v>0.377</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="G70" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.87</v>
       </c>
       <c r="H70" s="2">
-        <v>0.14699999999999999</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K70" s="2">
         <f t="shared" si="47"/>
@@ -4181,729 +4489,584 @@
         <v>0</v>
       </c>
       <c r="R70" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S70" s="2">
         <f>C70-K$42</f>
-        <v>7.0000000000000007E-2</v>
+        <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T70" s="2">
         <f>D70-L$42</f>
-        <v>0.5</v>
+        <v>-0.79499999999999993</v>
       </c>
       <c r="U70" s="2">
         <f>E70-M$42</f>
-        <v>0.12300000000000003</v>
+        <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V70" s="2">
         <f>F70-N$42</f>
-        <v>-9.000000000000008E-3</v>
+        <v>0.43099999999999994</v>
       </c>
       <c r="W70" s="2">
         <f>G70-O$42</f>
-        <v>-8.3000000000000018E-2</v>
+        <v>0.53699999999999992</v>
       </c>
       <c r="X70" s="2">
         <f>H70-P$42</f>
-        <v>0.19600000000000001</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C71" s="2">
-        <v>0.111</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="D71" s="2">
-        <v>0.84</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E71" s="2">
-        <v>0.193</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="F71" s="2">
-        <v>0.72199999999999998</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="G71" s="2">
-        <v>0.71499999999999997</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="H71" s="2">
-        <v>0.215</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K71" s="2">
         <f t="shared" si="47"/>
-        <v>6.7999999999999991E-2</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="L71" s="2">
         <f t="shared" si="48"/>
-        <v>-7.999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
         <f t="shared" si="49"/>
-        <v>9.1999999999999971E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="N71" s="2">
         <f t="shared" si="50"/>
-        <v>0.13</v>
+        <v>0.128</v>
       </c>
       <c r="O71" s="2">
         <f t="shared" si="51"/>
-        <v>0.13700000000000001</v>
+        <v>0.18700000000000006</v>
       </c>
       <c r="P71" s="2">
         <f t="shared" si="52"/>
-        <v>7.6999999999999985E-2</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S71" s="2">
         <f>C71-K$43</f>
-        <v>7.6999999999999999E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="T71" s="2">
         <f>D71-L$43</f>
-        <v>0.24</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="U71" s="2">
         <f>E71-M$43</f>
-        <v>0.128</v>
+        <v>0.24100000000000002</v>
       </c>
       <c r="V71" s="2">
         <f>F71-N$43</f>
-        <v>0.42199999999999999</v>
+        <v>0.23099999999999998</v>
       </c>
       <c r="W71" s="2">
         <f>G71-O$43</f>
-        <v>0.42799999999999999</v>
+        <v>0.16499999999999992</v>
       </c>
       <c r="X71" s="2">
         <f>H71-P$43</f>
-        <v>0.255</v>
+        <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C72" s="2">
-        <v>0.13300000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="D72" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.111</v>
       </c>
       <c r="E72" s="2">
-        <v>0.224</v>
+        <v>0.111</v>
       </c>
       <c r="F72" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="G72" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H72" s="2">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="2">
+        <v>-0.248</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="12">
         <f t="shared" si="47"/>
-        <v>3.6000000000000004E-2</v>
-      </c>
-      <c r="L72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="10">
         <f t="shared" si="48"/>
-        <v>-0.10899999999999999</v>
-      </c>
-      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="M72" s="10">
         <f t="shared" si="49"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="10">
         <f t="shared" si="50"/>
-        <v>7.1999999999999953E-2</v>
-      </c>
-      <c r="O72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10">
         <f t="shared" si="51"/>
-        <v>7.8999999999999959E-2</v>
-      </c>
-      <c r="P72" s="2">
+        <v>0</v>
+      </c>
+      <c r="P72" s="10">
         <f t="shared" si="52"/>
-        <v>0.03</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+      <c r="R72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="12">
         <f>C72-K$44</f>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="T72" s="2">
+        <v>3.7000000000000005E-2</v>
+      </c>
+      <c r="T72" s="10">
         <f>D72-L$44</f>
-        <v>8.6999999999999966E-2</v>
-      </c>
-      <c r="U72" s="2">
+        <v>0</v>
+      </c>
+      <c r="U72" s="10">
         <f>E72-M$44</f>
-        <v>0.159</v>
-      </c>
-      <c r="V72" s="2">
+        <v>2.2000000000000006E-2</v>
+      </c>
+      <c r="V72" s="10">
         <f>F72-N$44</f>
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="W72" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="W72" s="10">
         <f>G72-O$44</f>
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="X72" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="X72" s="10">
         <f>H72-P$44</f>
-        <v>0.27</v>
+        <v>-0.501</v>
       </c>
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="G73" s="2">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0.19900000000000001</v>
+      <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="7">
+        <f t="shared" ref="C73:H73" si="53">SUM(C64:C72)/COUNT(C64:C72)</f>
+        <v>0.17055555555555557</v>
+      </c>
+      <c r="D73" s="7">
+        <f t="shared" si="53"/>
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="53"/>
+        <v>0.24388888888888893</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="53"/>
+        <v>0.64822222222222214</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="53"/>
+        <v>0.66355555555555557</v>
+      </c>
+      <c r="H73" s="7">
+        <f t="shared" si="53"/>
+        <v>0.1331111111111111</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="K73" s="2">
         <f t="shared" si="47"/>
-        <v>0.68500000000000005</v>
+        <v>0.24866666666666665</v>
       </c>
       <c r="L73" s="2">
         <f t="shared" si="48"/>
-        <v>-9.600000000000003E-2</v>
+        <v>-4.3444444444444508E-2</v>
       </c>
       <c r="M73" s="2">
         <f t="shared" si="49"/>
-        <v>0.14200000000000002</v>
+        <v>9.3777777777777793E-2</v>
       </c>
       <c r="N73" s="2">
         <f t="shared" si="50"/>
-        <v>0.15399999999999991</v>
+        <v>0.10044444444444456</v>
       </c>
       <c r="O73" s="2">
         <f t="shared" si="51"/>
-        <v>0.17299999999999993</v>
+        <v>0.11755555555555552</v>
       </c>
       <c r="P73" s="2">
         <f t="shared" si="52"/>
-        <v>0.33600000000000002</v>
+        <v>0.16244444444444447</v>
       </c>
       <c r="R73" s="3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="S73" s="2">
         <f>C73-K$45</f>
-        <v>0.12100000000000001</v>
+        <v>7.8111111111111131E-2</v>
       </c>
       <c r="T73" s="2">
         <f>D73-L$45</f>
-        <v>-9.5999999999999974E-2</v>
+        <v>2.011111111111108E-2</v>
       </c>
       <c r="U73" s="2">
         <f>E73-M$45</f>
-        <v>0.14599999999999999</v>
+        <v>9.911111111111115E-2</v>
       </c>
       <c r="V73" s="2">
         <f>F73-N$45</f>
-        <v>0.34800000000000003</v>
+        <v>0.27622222222222209</v>
       </c>
       <c r="W73" s="2">
         <f>G73-O$45</f>
-        <v>0.37300000000000005</v>
+        <v>0.35788888888888892</v>
       </c>
       <c r="X73" s="2">
         <f>H73-P$45</f>
-        <v>0.15100000000000002</v>
+        <v>9.1222222222222205E-2</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C74" s="2">
-        <v>8.5999999999999993E-2</v>
+        <f>(Info!$B$2*Results!C64+Info!$B$3*Results!C65+Info!$B$4*Results!C66+Info!$B$5*Results!C67+Info!$B$6*Results!C68+Info!$B$7*Results!C69+Info!$B$8*Results!C70+Info!$B$9*Results!C71+Info!$B$10*Results!C72)/SUM(Info!$B$2:B$10)</f>
+        <v>0.16266153846153847</v>
       </c>
       <c r="D74" s="2">
-        <v>0.17599999999999999</v>
+        <f>(Info!$B$2*Results!D64+Info!$B$3*Results!D65+Info!$B$4*Results!D66+Info!$B$5*Results!D67+Info!$B$6*Results!D68+Info!$B$7*Results!D69+Info!$B$8*Results!D70+Info!$B$9*Results!D71+Info!$B$10*Results!D72)/SUM(Info!$B$2:C$10)</f>
+        <v>0.54230024213075056</v>
       </c>
       <c r="E74" s="2">
-        <v>0.112</v>
+        <f>(Info!$B$2*Results!E64+Info!$B$3*Results!E65+Info!$B$4*Results!E66+Info!$B$5*Results!E67+Info!$B$6*Results!E68+Info!$B$7*Results!E69+Info!$B$8*Results!E70+Info!$B$9*Results!E71+Info!$B$10*Results!E72)/SUM(Info!$B$2:D$10)</f>
+        <v>0.19429297820823246</v>
       </c>
       <c r="F74" s="2">
-        <v>0.81399999999999995</v>
+        <f>(Info!$B$2*Results!F64+Info!$B$3*Results!F65+Info!$B$4*Results!F66+Info!$B$5*Results!F67+Info!$B$6*Results!F68+Info!$B$7*Results!F69+Info!$B$8*Results!F70+Info!$B$9*Results!F71+Info!$B$10*Results!F72)/SUM(Info!$B$2:E$10)</f>
+        <v>0.52164164648910405</v>
       </c>
       <c r="G74" s="2">
-        <v>0.87</v>
+        <f>(Info!$B$2*Results!G64+Info!$B$3*Results!G65+Info!$B$4*Results!G66+Info!$B$5*Results!G67+Info!$B$6*Results!G68+Info!$B$7*Results!G69+Info!$B$8*Results!G70+Info!$B$9*Results!G71+Info!$B$10*Results!G72)/SUM(Info!$B$2:F$10)</f>
+        <v>0.51783535108958823</v>
       </c>
       <c r="H74" s="2">
-        <v>1.9E-2</v>
+        <f>(Info!$B$2*Results!H64+Info!$B$3*Results!H65+Info!$B$4*Results!H66+Info!$B$5*Results!H67+Info!$B$6*Results!H68+Info!$B$7*Results!H69+Info!$B$8*Results!H70+Info!$B$9*Results!H71+Info!$B$10*Results!H72)/SUM(Info!$B$2:G$10)</f>
+        <v>0.13111138014527846</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K74" s="2">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>0.22761846153846155</v>
       </c>
       <c r="L74" s="2">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>-4.1176755447941971E-2</v>
       </c>
       <c r="M74" s="2">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>6.9699757869249396E-2</v>
       </c>
       <c r="N74" s="2">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>7.6876513317191364E-2</v>
       </c>
       <c r="O74" s="2">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>7.1845036319612698E-2</v>
       </c>
       <c r="P74" s="2">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.12975302663438254</v>
       </c>
       <c r="R74" s="3" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="S74" s="2">
         <f>C74-K$46</f>
-        <v>-2.5000000000000008E-2</v>
+        <v>9.5956937977276974E-2</v>
       </c>
       <c r="T74" s="2">
         <f>D74-L$46</f>
-        <v>-0.79499999999999993</v>
+        <v>4.3496368038740796E-2</v>
       </c>
       <c r="U74" s="2">
         <f>E74-M$46</f>
-        <v>-8.5000000000000006E-2</v>
+        <v>8.3845036319612598E-2</v>
       </c>
       <c r="V74" s="2">
         <f>F74-N$46</f>
-        <v>0.43099999999999994</v>
+        <v>0.22752542372881346</v>
       </c>
       <c r="W74" s="2">
         <f>G74-O$46</f>
-        <v>0.53699999999999992</v>
+        <v>0.34651815980629525</v>
       </c>
       <c r="X74" s="2">
         <f>H74-P$46</f>
-        <v>-0.109</v>
-      </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E75" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="F75" s="2">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="G75" s="2">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="H75" s="2">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K75" s="2">
-        <f t="shared" si="47"/>
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="2">
-        <f t="shared" si="49"/>
-        <v>6.2E-2</v>
-      </c>
-      <c r="N75" s="2">
-        <f t="shared" si="50"/>
-        <v>0.128</v>
-      </c>
-      <c r="O75" s="2">
-        <f t="shared" si="51"/>
-        <v>0.18700000000000006</v>
-      </c>
-      <c r="P75" s="2">
-        <f t="shared" si="52"/>
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S75" s="2">
-        <f>C75-K$47</f>
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="T75" s="2">
-        <f>D75-L$47</f>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="U75" s="2">
-        <f>E75-M$47</f>
-        <v>0.24100000000000002</v>
-      </c>
-      <c r="V75" s="2">
-        <f>F75-N$47</f>
-        <v>0.23099999999999998</v>
-      </c>
-      <c r="W75" s="2">
-        <f>G75-O$47</f>
-        <v>0.16499999999999992</v>
-      </c>
-      <c r="X75" s="2">
-        <f>H75-P$47</f>
-        <v>0.38300000000000001</v>
+        <v>0.11672881355932205</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>D79+F79</f>
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <f>Info!C2-C79</f>
         <v>8</v>
       </c>
-      <c r="C76" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="E76" s="2">
-        <v>0.111</v>
-      </c>
-      <c r="F76" s="2">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="G76" s="2">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="H76" s="2">
-        <v>-0.248</v>
-      </c>
-      <c r="J76" s="4" t="s">
+      <c r="H79" s="2">
+        <f>D79/(D79+E79)</f>
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <f>D79/(D79+F79)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J79" s="2">
+        <f>2*H79*I79/(H79+I79)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K79">
+        <f>(D79+G79)/SUM(D79:G79)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L79">
+        <f>G79/(G79+E79)</f>
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <f>((D79*G79)-(E79*F79))/SQRT((D79+E79)*(D79+F79)*(G79+E79)*(G79+F79))</f>
+        <v>0.73029674334022143</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:C87" si="54">D80+F80</f>
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>Info!C3-C80</f>
+        <v>6</v>
+      </c>
+      <c r="H80" s="2">
+        <f>D80/(D80+E80)</f>
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <f>D80/(D80+F80)</f>
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <f t="shared" ref="J80:J87" si="55">2*H80*I80/(H80+I80)</f>
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ref="K80:K87" si="56">(D80+G80)/SUM(D80:G80)</f>
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ref="L80:L87" si="57">G80/(G80+E80)</f>
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ref="M80:M87" si="58">((D80*G80)-(E80*F80))/SQRT((D80+E80)*(D80+F80)*(G80+E80)*(G80+F80))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="54"/>
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>Info!C4-C81</f>
+        <v>6</v>
+      </c>
+      <c r="H81" s="2">
+        <f>D81/(D81+E81)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I81" s="2">
+        <f>D81/(D81+F81)</f>
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <f t="shared" si="55"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="56"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="57"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="58"/>
+        <v>0.84515425472851657</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>Info!C5-C82</f>
         <v>8</v>
       </c>
-      <c r="K76" s="12">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="10">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="10">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="10">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="10">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="10">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="S76" s="12">
-        <f>C76-K$48</f>
-        <v>3.7000000000000005E-2</v>
-      </c>
-      <c r="T76" s="10">
-        <f>D76-L$48</f>
-        <v>0</v>
-      </c>
-      <c r="U76" s="10">
-        <f>E76-M$48</f>
-        <v>2.2000000000000006E-2</v>
-      </c>
-      <c r="V76" s="10">
-        <f>F76-N$48</f>
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="W76" s="10">
-        <f>G76-O$48</f>
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="X76" s="10">
-        <f>H76-P$48</f>
-        <v>-0.501</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="7">
-        <f t="shared" ref="C77:H77" si="53">SUM(C68:C76)/COUNT(C68:C76)</f>
-        <v>0.17055555555555557</v>
-      </c>
-      <c r="D77" s="7">
-        <f t="shared" si="53"/>
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="E77" s="7">
-        <f t="shared" si="53"/>
-        <v>0.24388888888888893</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="53"/>
-        <v>0.64822222222222214</v>
-      </c>
-      <c r="G77" s="7">
-        <f t="shared" si="53"/>
-        <v>0.66355555555555557</v>
-      </c>
-      <c r="H77" s="7">
-        <f t="shared" si="53"/>
-        <v>0.1331111111111111</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="2">
-        <f t="shared" si="47"/>
-        <v>0.24866666666666665</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="48"/>
-        <v>-4.3444444444444508E-2</v>
-      </c>
-      <c r="M77" s="2">
-        <f t="shared" si="49"/>
-        <v>9.3777777777777793E-2</v>
-      </c>
-      <c r="N77" s="2">
-        <f t="shared" si="50"/>
-        <v>0.10044444444444456</v>
-      </c>
-      <c r="O77" s="2">
-        <f t="shared" si="51"/>
-        <v>0.11755555555555552</v>
-      </c>
-      <c r="P77" s="2">
-        <f t="shared" si="52"/>
-        <v>0.16244444444444447</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S77" s="2">
-        <f>C77-K$49</f>
-        <v>7.8111111111111131E-2</v>
-      </c>
-      <c r="T77" s="2">
-        <f>D77-L$49</f>
-        <v>2.011111111111108E-2</v>
-      </c>
-      <c r="U77" s="2">
-        <f>E77-M$49</f>
-        <v>9.911111111111115E-2</v>
-      </c>
-      <c r="V77" s="2">
-        <f>F77-N$49</f>
-        <v>0.27622222222222209</v>
-      </c>
-      <c r="W77" s="2">
-        <f>G77-O$49</f>
-        <v>0.35788888888888892</v>
-      </c>
-      <c r="X77" s="2">
-        <f>H77-P$49</f>
-        <v>9.1222222222222205E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C78" s="2">
-        <f>(Info!$B$2*Results!C68+Info!$B$3*Results!C69+Info!$B$4*Results!C70+Info!$B$5*Results!C71+Info!$B$6*Results!C72+Info!$B$7*Results!C73+Info!$B$8*Results!C74+Info!$B$9*Results!C75+Info!$B$10*Results!C76)/SUM(Info!$B$2:B$10)</f>
-        <v>0.16266153846153847</v>
-      </c>
-      <c r="D78" s="2">
-        <f>(Info!$B$2*Results!D68+Info!$B$3*Results!D69+Info!$B$4*Results!D70+Info!$B$5*Results!D71+Info!$B$6*Results!D72+Info!$B$7*Results!D73+Info!$B$8*Results!D74+Info!$B$9*Results!D75+Info!$B$10*Results!D76)/SUM(Info!$B$2:C$10)</f>
-        <v>0.54230024213075056</v>
-      </c>
-      <c r="E78" s="2">
-        <f>(Info!$B$2*Results!E68+Info!$B$3*Results!E69+Info!$B$4*Results!E70+Info!$B$5*Results!E71+Info!$B$6*Results!E72+Info!$B$7*Results!E73+Info!$B$8*Results!E74+Info!$B$9*Results!E75+Info!$B$10*Results!E76)/SUM(Info!$B$2:D$10)</f>
-        <v>0.19429297820823246</v>
-      </c>
-      <c r="F78" s="2">
-        <f>(Info!$B$2*Results!F68+Info!$B$3*Results!F69+Info!$B$4*Results!F70+Info!$B$5*Results!F71+Info!$B$6*Results!F72+Info!$B$7*Results!F73+Info!$B$8*Results!F74+Info!$B$9*Results!F75+Info!$B$10*Results!F76)/SUM(Info!$B$2:E$10)</f>
-        <v>0.52164164648910405</v>
-      </c>
-      <c r="G78" s="2">
-        <f>(Info!$B$2*Results!G68+Info!$B$3*Results!G69+Info!$B$4*Results!G70+Info!$B$5*Results!G71+Info!$B$6*Results!G72+Info!$B$7*Results!G73+Info!$B$8*Results!G74+Info!$B$9*Results!G75+Info!$B$10*Results!G76)/SUM(Info!$B$2:F$10)</f>
-        <v>0.51783535108958823</v>
-      </c>
-      <c r="H78" s="2">
-        <f>(Info!$B$2*Results!H68+Info!$B$3*Results!H69+Info!$B$4*Results!H70+Info!$B$5*Results!H71+Info!$B$6*Results!H72+Info!$B$7*Results!H73+Info!$B$8*Results!H74+Info!$B$9*Results!H75+Info!$B$10*Results!H76)/SUM(Info!$B$2:G$10)</f>
-        <v>0.13111138014527846</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" s="2">
-        <f t="shared" si="47"/>
-        <v>0.22761846153846155</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="48"/>
-        <v>-4.1176755447941971E-2</v>
-      </c>
-      <c r="M78" s="2">
-        <f t="shared" si="49"/>
-        <v>6.9699757869249396E-2</v>
-      </c>
-      <c r="N78" s="2">
-        <f t="shared" si="50"/>
-        <v>7.6876513317191364E-2</v>
-      </c>
-      <c r="O78" s="2">
-        <f t="shared" si="51"/>
-        <v>7.1845036319612698E-2</v>
-      </c>
-      <c r="P78" s="2">
-        <f t="shared" si="52"/>
-        <v>0.12975302663438254</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S78" s="2">
-        <f>C78-K$50</f>
-        <v>9.5956937977276974E-2</v>
-      </c>
-      <c r="T78" s="2">
-        <f>D78-L$50</f>
-        <v>4.3496368038740796E-2</v>
-      </c>
-      <c r="U78" s="2">
-        <f>E78-M$50</f>
-        <v>8.3845036319612598E-2</v>
-      </c>
-      <c r="V78" s="2">
-        <f>F78-N$50</f>
-        <v>0.22752542372881346</v>
-      </c>
-      <c r="W78" s="2">
-        <f>G78-O$50</f>
-        <v>0.34651815980629525</v>
-      </c>
-      <c r="X78" s="2">
-        <f>H78-P$50</f>
-        <v>0.11672881355932205</v>
-      </c>
-    </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B80" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M82" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C83">
-        <f>D83+F83</f>
-        <v>6</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <f>Info!C2-C83</f>
-        <v>8</v>
+        <f>Info!C6-C83</f>
+        <v>7</v>
       </c>
       <c r="H83" s="2">
         <f>D83/(D83+E83)</f>
@@ -4911,35 +5074,35 @@
       </c>
       <c r="I83" s="2">
         <f>D83/(D83+F83)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="J83" s="2">
-        <f>2*H83*I83/(H83+I83)</f>
-        <v>0.8</v>
+        <f t="shared" si="55"/>
+        <v>1</v>
       </c>
       <c r="K83">
-        <f>(D83+G83)/SUM(D83:G83)</f>
-        <v>0.8571428571428571</v>
+        <f t="shared" si="56"/>
+        <v>1</v>
       </c>
       <c r="L83">
-        <f>G83/(G83+E83)</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="M83">
-        <f>((D83*G83)-(E83*F83))/SQRT((D83+E83)*(D83+F83)*(G83+E83)*(G83+F83))</f>
-        <v>0.73029674334022143</v>
+        <f t="shared" si="58"/>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C91" si="54">D84+F84</f>
-        <v>5</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4948,8 +5111,8 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <f>Info!C3-C84</f>
-        <v>6</v>
+        <f>Info!C7-C84</f>
+        <v>11</v>
       </c>
       <c r="H84" s="2">
         <f>D84/(D84+E84)</f>
@@ -4960,58 +5123,58 @@
         <v>1</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" ref="J84:J91" si="55">2*H84*I84/(H84+I84)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" ref="K84:K91" si="56">(D84+G84)/SUM(D84:G84)</f>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="L84">
-        <f t="shared" ref="L84:L91" si="57">G84/(G84+E84)</f>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="M84">
-        <f t="shared" ref="M84:M91" si="58">((D84*G84)-(E84*F84))/SQRT((D84+E84)*(D84+F84)*(G84+E84)*(G84+F84))</f>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <f>Info!C4-C85</f>
+        <f>Info!C8-C85</f>
         <v>6</v>
       </c>
       <c r="H85" s="2">
         <f>D85/(D85+E85)</f>
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="I85" s="2">
         <f>D85/(D85+F85)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="55"/>
-        <v>0.90909090909090906</v>
+        <v>0.6</v>
       </c>
       <c r="K85">
         <f t="shared" si="56"/>
-        <v>0.91666666666666663</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="L85">
         <f t="shared" si="57"/>
@@ -5019,19 +5182,19 @@
       </c>
       <c r="M85">
         <f t="shared" si="58"/>
-        <v>0.84515425472851657</v>
+        <v>0.38575837490522974</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5040,304 +5203,141 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f>Info!C5-C86</f>
-        <v>8</v>
-      </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
+        <f>Info!C9-C86</f>
+        <v>5</v>
+      </c>
+      <c r="H86" s="9">
+        <f>D86/(D86+E86)</f>
+        <v>1</v>
+      </c>
+      <c r="I86" s="9">
+        <f>D86/(D86+F86)</f>
+        <v>1</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="C87" s="8">
         <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <f>Info!C6-C87</f>
-        <v>7</v>
-      </c>
-      <c r="H87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <f>Info!C10-C87</f>
+        <v>4</v>
+      </c>
+      <c r="H87" s="10">
         <f>D87/(D87+E87)</f>
-        <v>1</v>
-      </c>
-      <c r="I87" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I87" s="10">
         <f>D87/(D87+F87)</f>
         <v>1</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="10">
         <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="K87">
+        <v>0.8</v>
+      </c>
+      <c r="K87" s="5">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="L87">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L87" s="5">
         <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="M87">
+        <v>0.8</v>
+      </c>
+      <c r="M87" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0.73029674334022143</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <f>Info!C7-C88</f>
-        <v>11</v>
-      </c>
+      <c r="B88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="H88" s="2">
-        <f>D88/(D88+E88)</f>
-        <v>1</v>
+        <f>SUM(H79:H87)/COUNT(H79:H87)</f>
+        <v>0.90625000000000011</v>
       </c>
       <c r="I88" s="2">
-        <f>D88/(D88+F88)</f>
-        <v>1</v>
+        <f>SUM(I79:I87)/COUNT(I79:I87)</f>
+        <v>0.89583333333333326</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="58"/>
-        <v>1</v>
+        <f>SUM(J79:J87)/COUNT(J79:J87)</f>
+        <v>0.88863636363636356</v>
+      </c>
+      <c r="K88" s="2">
+        <f t="shared" ref="K88:M88" si="59">SUM(K79:K87)/COUNT(K79:K87)</f>
+        <v>0.91540750915750912</v>
+      </c>
+      <c r="L88" s="2">
+        <f t="shared" si="59"/>
+        <v>0.93928571428571428</v>
+      </c>
+      <c r="M88" s="2">
+        <f t="shared" si="59"/>
+        <v>0.83643826453927361</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="54"/>
-        <v>6</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-      <c r="G89">
-        <f>Info!C8-C89</f>
-        <v>6</v>
-      </c>
-      <c r="H89" s="2">
-        <f>D89/(D89+E89)</f>
-        <v>0.75</v>
-      </c>
-      <c r="I89" s="2">
-        <f>D89/(D89+F89)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J89" s="2">
-        <f t="shared" si="55"/>
-        <v>0.6</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="56"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="57"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="58"/>
-        <v>0.38575837490522974</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f>Info!C9-C90</f>
-        <v>5</v>
-      </c>
-      <c r="H90" s="9">
-        <f>D90/(D90+E90)</f>
-        <v>1</v>
-      </c>
-      <c r="I90" s="9">
-        <f>D90/(D90+F90)</f>
-        <v>1</v>
-      </c>
-      <c r="J90" s="9">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="8">
-        <f t="shared" si="54"/>
-        <v>2</v>
-      </c>
-      <c r="D91" s="5">
-        <v>2</v>
-      </c>
-      <c r="E91" s="5">
-        <v>1</v>
-      </c>
-      <c r="F91" s="5">
-        <v>0</v>
-      </c>
-      <c r="G91" s="5">
-        <f>Info!C10-C91</f>
-        <v>4</v>
-      </c>
-      <c r="H91" s="10">
-        <f>D91/(D91+E91)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I91" s="10">
-        <f>D91/(D91+F91)</f>
-        <v>1</v>
-      </c>
-      <c r="J91" s="10">
-        <f t="shared" si="55"/>
-        <v>0.8</v>
-      </c>
-      <c r="K91" s="5">
-        <f t="shared" si="56"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L91" s="5">
-        <f t="shared" si="57"/>
-        <v>0.8</v>
-      </c>
-      <c r="M91" s="5">
-        <f t="shared" si="58"/>
-        <v>0.73029674334022143</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="H92" s="2">
-        <f>SUM(H83:H91)/COUNT(H83:H91)</f>
-        <v>0.90625000000000011</v>
-      </c>
-      <c r="I92" s="2">
-        <f>SUM(I83:I91)/COUNT(I83:I91)</f>
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="J92" s="2">
-        <f>SUM(J83:J91)/COUNT(J83:J91)</f>
-        <v>0.88863636363636356</v>
-      </c>
-      <c r="K92" s="2">
-        <f t="shared" ref="K92:M92" si="59">SUM(K83:K91)/COUNT(K83:K91)</f>
-        <v>0.91540750915750912</v>
-      </c>
-      <c r="L92" s="2">
-        <f t="shared" si="59"/>
-        <v>0.93928571428571428</v>
-      </c>
-      <c r="M92" s="2">
-        <f t="shared" si="59"/>
-        <v>0.83643826453927361</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="H93" s="11">
-        <f>(($C83*H83)+($C84*H84)+($C85*H85)+($C86*H86)+($C87*H87)+($C88*H88)+($C89*H89)+($C90*H90)+($C91*H91))/SUM($C83:$C91)</f>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="H89" s="11">
+        <f>(($C79*H79)+($C80*H80)+($C81*H81)+($C82*H82)+($C83*H83)+($C84*H84)+($C85*H85)+($C86*H86)+($C87*H87))/SUM($C79:$C87)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="I93" s="11">
-        <f>(($C83*I83)+($C84*I84)+($C85*I85)+($C86*I86)+($C87*I87)+($C88*I88)+($C89*I89)+($C90*I90)+($C91*I91))/SUM($C83:$C91)</f>
+      <c r="I89" s="11">
+        <f>(($C79*I79)+($C80*I80)+($C81*I81)+($C82*I82)+($C83*I83)+($C84*I84)+($C85*I85)+($C86*I86)+($C87*I87))/SUM($C79:$C87)</f>
         <v>0.81481481481481477</v>
       </c>
-      <c r="J93" s="11">
-        <f>(($C83*J83)+($C84*J84)+($C85*J85)+($C86*J86)+($C87*J87)+($C88*J88)+($C89*J89)+($C90*J90)+($C91*J91))/SUM($C83:$C91)</f>
+      <c r="J89" s="11">
+        <f>(($C79*J79)+($C80*J80)+($C81*J81)+($C82*J82)+($C83*J83)+($C84*J84)+($C85*J85)+($C86*J86)+($C87*J87))/SUM($C79:$C87)</f>
         <v>0.8350168350168351</v>
       </c>
-      <c r="K93" s="11">
-        <f>(($C83*K83)+($C84*K84)+($C85*K85)+($C86*K86)+($C87*K87)+($C88*K88)+($C89*K89)+($C90*K90)+($C91*K91))/SUM($C83:$C91)</f>
+      <c r="K89" s="11">
+        <f>(($C79*K79)+($C80*K80)+($C81*K81)+($C82*K82)+($C83*K83)+($C84*K84)+($C85*K85)+($C86*K86)+($C87*K87))/SUM($C79:$C87)</f>
         <v>0.87386379053045715</v>
       </c>
-      <c r="L93" s="11">
-        <f>(($C83*L83)+($C84*L84)+($C85*L85)+($C86*L86)+($C87*L87)+($C88*L88)+($C89*L89)+($C90*L90)+($C91*L91))/SUM($C83:$C91)</f>
+      <c r="L89" s="11">
+        <f>(($C79*L79)+($C80*L80)+($C81*L81)+($C82*L82)+($C83*L83)+($C84*L84)+($C85*L85)+($C86*L86)+($C87*L87))/SUM($C79:$C87)</f>
         <v>0.92698412698412702</v>
       </c>
-      <c r="M93" s="11">
-        <f>(($C83*M83)+($C84*M84)+($C85*M85)+($C86*M86)+($C87*M87)+($C88*M88)+($C89*M89)+($C90*M90)+($C91*M91))/SUM($C83:$C91)</f>
+      <c r="M89" s="11">
+        <f>(($C79*M79)+($C80*M80)+($C81*M81)+($C82*M82)+($C83*M83)+($C84*M84)+($C85*M85)+($C86*M86)+($C87*M87))/SUM($C79:$C87)</f>
         <v>0.75491464702947164</v>
       </c>
     </row>
@@ -5354,7 +5354,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S40:X50">
+  <conditionalFormatting sqref="S36:X46">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -5366,7 +5366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S54:X64">
+  <conditionalFormatting sqref="S50:X60">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -5378,7 +5378,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S68:X78">
+  <conditionalFormatting sqref="S64:X74">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -5390,7 +5390,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54:P64">
+  <conditionalFormatting sqref="K50:P60">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="-0.1"/>
@@ -5402,7 +5402,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K68:P78">
+  <conditionalFormatting sqref="K64:P74">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="-0.1"/>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="41">
   <si>
     <t>Mediastore</t>
   </si>
@@ -149,6 +149,12 @@
   <si>
     <t>DELTA Our/SWATTR</t>
   </si>
+  <si>
+    <t>PhiMax</t>
+  </si>
+  <si>
+    <t>Phi/PhiMax</t>
+  </si>
 </sst>
 </file>
 
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -269,6 +275,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +569,7 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
     <col min="18" max="18" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3092,27 +3100,27 @@
         <v>0</v>
       </c>
       <c r="S50" s="2">
-        <f>C64-K$36</f>
+        <f t="shared" ref="S50:X50" si="32">C64-K$36</f>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="T50" s="2">
-        <f>D64-L$36</f>
+        <f t="shared" si="32"/>
         <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U50" s="2">
-        <f>E64-M$36</f>
+        <f t="shared" si="32"/>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="V50" s="2">
-        <f>F64-N$36</f>
+        <f t="shared" si="32"/>
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="W50" s="2">
-        <f>G64-O$36</f>
+        <f t="shared" si="32"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X50" s="2">
-        <f>H64-P$36</f>
+        <f t="shared" si="32"/>
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
@@ -3142,54 +3150,54 @@
         <v>1</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" ref="K51:K57" si="32">C37-C51</f>
+        <f t="shared" ref="K51:K57" si="33">C37-C51</f>
         <v>0.64900000000000002</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" ref="L51:L58" si="33">D37-D51</f>
+        <f t="shared" ref="L51:L58" si="34">D37-D51</f>
         <v>-3.7000000000000033E-2</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" ref="M51:M58" si="34">E37-E51</f>
+        <f t="shared" ref="M51:M58" si="35">E37-E51</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" ref="N51:N58" si="35">F37-F51</f>
+        <f t="shared" ref="N51:N58" si="36">F37-F51</f>
         <v>0.16299999999999992</v>
       </c>
       <c r="O51" s="2">
-        <f t="shared" ref="O51:O58" si="36">G37-G51</f>
+        <f t="shared" ref="O51:O58" si="37">G37-G51</f>
         <v>0.18899999999999995</v>
       </c>
       <c r="P51" s="2">
-        <f t="shared" ref="P51:P58" si="37">H37-H51</f>
+        <f t="shared" ref="P51:P58" si="38">H37-H51</f>
         <v>0.5</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="2">
-        <f>C65-K$37</f>
+        <f t="shared" ref="S51:X51" si="39">C65-K$37</f>
         <v>0.11</v>
       </c>
       <c r="T51" s="2">
-        <f>D65-L$37</f>
+        <f t="shared" si="39"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="U51" s="2">
-        <f>E65-M$37</f>
+        <f t="shared" si="39"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="V51" s="2">
-        <f>F65-N$37</f>
+        <f t="shared" si="39"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="W51" s="2">
-        <f>G65-O$37</f>
+        <f t="shared" si="39"/>
         <v>0.35100000000000003</v>
       </c>
       <c r="X51" s="2">
-        <f>H65-P$37</f>
+        <f t="shared" si="39"/>
         <v>0.17799999999999999</v>
       </c>
     </row>
@@ -3219,54 +3227,54 @@
         <v>6</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P52" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S52" s="2">
-        <f>C52-K$38</f>
+        <f t="shared" ref="S52:X52" si="40">C52-K$38</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T52" s="2">
-        <f>D52-L$38</f>
+        <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
       <c r="U52" s="2">
-        <f>E52-M$38</f>
+        <f t="shared" si="40"/>
         <v>0.12300000000000003</v>
       </c>
       <c r="V52" s="2">
-        <f>F52-N$38</f>
+        <f t="shared" si="40"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="W52" s="2">
-        <f>G52-O$38</f>
+        <f t="shared" si="40"/>
         <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X52" s="2">
-        <f>H52-P$38</f>
+        <f t="shared" si="40"/>
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -3296,54 +3304,54 @@
         <v>2</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6.699999999999999E-2</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="O53" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.122</v>
       </c>
       <c r="P53" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S53" s="2">
-        <f>C53-K$39</f>
+        <f t="shared" ref="S53:X53" si="41">C53-K$39</f>
         <v>7.8E-2</v>
       </c>
       <c r="T53" s="2">
-        <f>D53-L$39</f>
+        <f t="shared" si="41"/>
         <v>0.18000000000000005</v>
       </c>
       <c r="U53" s="2">
-        <f>E53-M$39</f>
+        <f t="shared" si="41"/>
         <v>0.129</v>
       </c>
       <c r="V53" s="2">
-        <f>F53-N$39</f>
+        <f t="shared" si="41"/>
         <v>0.435</v>
       </c>
       <c r="W53" s="2">
-        <f>G53-O$39</f>
+        <f t="shared" si="41"/>
         <v>0.443</v>
       </c>
       <c r="X53" s="2">
-        <f>H53-P$39</f>
+        <f t="shared" si="41"/>
         <v>0.24100000000000002</v>
       </c>
     </row>
@@ -3373,54 +3381,54 @@
         <v>3</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-2.200000000000002E-2</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="O54" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>3.9000000000000035E-2</v>
       </c>
       <c r="P54" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S54" s="2">
-        <f>C54-K$40</f>
+        <f t="shared" ref="S54:X54" si="42">C54-K$40</f>
         <v>0.10599999999999998</v>
       </c>
       <c r="T54" s="2">
-        <f>D54-L$40</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="U54" s="2">
-        <f>E54-M$40</f>
+        <f t="shared" si="42"/>
         <v>0.16600000000000001</v>
       </c>
       <c r="V54" s="2">
-        <f>F54-N$40</f>
+        <f t="shared" si="42"/>
         <v>0.57599999999999996</v>
       </c>
       <c r="W54" s="2">
-        <f>G54-O$40</f>
+        <f t="shared" si="42"/>
         <v>0.59799999999999998</v>
       </c>
       <c r="X54" s="2">
-        <f>H54-P$40</f>
+        <f t="shared" si="42"/>
         <v>0.26700000000000002</v>
       </c>
     </row>
@@ -3450,54 +3458,54 @@
         <v>4</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.63100000000000001</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>-9.600000000000003E-2</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>9.099999999999997E-2</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>9.8999999999999977E-2</v>
       </c>
       <c r="O55" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.11299999999999999</v>
       </c>
       <c r="P55" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.27300000000000002</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S55" s="2">
-        <f>C55-K$41</f>
+        <f t="shared" ref="S55:X55" si="43">C55-K$41</f>
         <v>0.17499999999999999</v>
       </c>
       <c r="T55" s="2">
-        <f>D55-L$41</f>
+        <f t="shared" si="43"/>
         <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U55" s="2">
-        <f>E55-M$41</f>
+        <f t="shared" si="43"/>
         <v>0.19700000000000004</v>
       </c>
       <c r="V55" s="2">
-        <f>F55-N$41</f>
+        <f t="shared" si="43"/>
         <v>0.40299999999999997</v>
       </c>
       <c r="W55" s="2">
-        <f>G55-O$41</f>
+        <f t="shared" si="43"/>
         <v>0.433</v>
       </c>
       <c r="X55" s="2">
-        <f>H55-P$41</f>
+        <f t="shared" si="43"/>
         <v>0.21400000000000002</v>
       </c>
     </row>
@@ -3527,54 +3535,54 @@
         <v>5</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P56" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S56" s="2">
-        <f>C56-K$42</f>
+        <f t="shared" ref="S56:X56" si="44">C56-K$42</f>
         <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T56" s="2">
-        <f>D56-L$42</f>
+        <f t="shared" si="44"/>
         <v>-0.79499999999999993</v>
       </c>
       <c r="U56" s="2">
-        <f>E56-M$42</f>
+        <f t="shared" si="44"/>
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V56" s="2">
-        <f>F56-N$42</f>
+        <f t="shared" si="44"/>
         <v>0.43099999999999994</v>
       </c>
       <c r="W56" s="2">
-        <f>G56-O$42</f>
+        <f t="shared" si="44"/>
         <v>0.53699999999999992</v>
       </c>
       <c r="X56" s="2">
-        <f>H56-P$42</f>
+        <f t="shared" si="44"/>
         <v>-0.109</v>
       </c>
     </row>
@@ -3604,54 +3612,54 @@
         <v>7</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S57" s="2">
-        <f>C57-K$43</f>
+        <f t="shared" ref="S57:X57" si="45">C57-K$43</f>
         <v>0.86099999999999999</v>
       </c>
       <c r="T57" s="2">
-        <f>D57-L$43</f>
+        <f t="shared" si="45"/>
         <v>0.27700000000000002</v>
       </c>
       <c r="U57" s="2">
-        <f>E57-M$43</f>
+        <f t="shared" si="45"/>
         <v>0.30300000000000005</v>
       </c>
       <c r="V57" s="2">
-        <f>F57-N$43</f>
+        <f t="shared" si="45"/>
         <v>0.35899999999999999</v>
       </c>
       <c r="W57" s="2">
-        <f>G57-O$43</f>
+        <f t="shared" si="45"/>
         <v>0.35199999999999998</v>
       </c>
       <c r="X57" s="2">
-        <f>H57-P$43</f>
+        <f t="shared" si="45"/>
         <v>0.74399999999999999</v>
       </c>
     </row>
@@ -3685,50 +3693,50 @@
         <v>0</v>
       </c>
       <c r="L58" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M58" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O58" s="10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P58" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R58" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="12">
-        <f>C58-K$44</f>
+        <f t="shared" ref="S58:X58" si="46">C58-K$44</f>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="T58" s="10">
-        <f>D58-L$44</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="U58" s="10">
-        <f>E58-M$44</f>
+        <f t="shared" si="46"/>
         <v>2.2000000000000006E-2</v>
       </c>
       <c r="V58" s="10">
-        <f>F58-N$44</f>
+        <f t="shared" si="46"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="W58" s="10">
-        <f>G58-O$44</f>
+        <f t="shared" si="46"/>
         <v>0.81699999999999995</v>
       </c>
       <c r="X58" s="10">
-        <f>H58-P$44</f>
+        <f t="shared" si="46"/>
         <v>-0.501</v>
       </c>
     </row>
@@ -3741,15 +3749,15 @@
         <v>0.26044444444444448</v>
       </c>
       <c r="D59" s="7">
-        <f t="shared" ref="D59:F59" si="38">SUM(D50:D58)/COUNT(D50:D58)</f>
+        <f t="shared" ref="D59:F59" si="47">SUM(D50:D58)/COUNT(D50:D58)</f>
         <v>0.58966666666666656</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0.26766666666666672</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0.68655555555555559</v>
       </c>
       <c r="G59" s="7">
@@ -3757,61 +3765,61 @@
         <v>0.71144444444444455</v>
       </c>
       <c r="H59" s="7">
-        <f t="shared" ref="H59" si="39">SUM(H50:H58)/COUNT(H50:H58)</f>
+        <f t="shared" ref="H59" si="48">SUM(H50:H58)/COUNT(H50:H58)</f>
         <v>0.19011111111111109</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" ref="K59:K60" si="40">C45-C59</f>
+        <f t="shared" ref="K59:K60" si="49">C45-C59</f>
         <v>0.15877777777777774</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" ref="L59:L60" si="41">D45-D59</f>
+        <f t="shared" ref="L59:L60" si="50">D45-D59</f>
         <v>-2.7111111111111086E-2</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" ref="M59:M60" si="42">E45-E59</f>
+        <f t="shared" ref="M59:M60" si="51">E45-E59</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" ref="N59:N60" si="43">F45-F59</f>
+        <f t="shared" ref="N59:N60" si="52">F45-F59</f>
         <v>6.2111111111111117E-2</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" ref="O59:O60" si="44">G45-G59</f>
+        <f t="shared" ref="O59:O60" si="53">G45-G59</f>
         <v>6.9666666666666544E-2</v>
       </c>
       <c r="P59" s="2">
-        <f t="shared" ref="P59:P60" si="45">H45-H59</f>
+        <f t="shared" ref="P59:P60" si="54">H45-H59</f>
         <v>0.10544444444444448</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="S59" s="2">
-        <f>C59-K$45</f>
+        <f t="shared" ref="S59:X59" si="55">C59-K$45</f>
         <v>0.16800000000000004</v>
       </c>
       <c r="T59" s="2">
-        <f>D59-L$45</f>
+        <f t="shared" si="55"/>
         <v>3.7777777777776578E-3</v>
       </c>
       <c r="U59" s="2">
-        <f>E59-M$45</f>
+        <f t="shared" si="55"/>
         <v>0.12288888888888894</v>
       </c>
       <c r="V59" s="2">
-        <f>F59-N$45</f>
+        <f t="shared" si="55"/>
         <v>0.31455555555555553</v>
       </c>
       <c r="W59" s="2">
-        <f>G59-O$45</f>
+        <f t="shared" si="55"/>
         <v>0.4057777777777779</v>
       </c>
       <c r="X59" s="2">
-        <f>H59-P$45</f>
+        <f t="shared" si="55"/>
         <v>0.1482222222222222</v>
       </c>
     </row>
@@ -3847,54 +3855,54 @@
         <v>19</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0.18119384615384615</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>-2.4222760290557033E-2</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="51"/>
         <v>5.9675544794188851E-2</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="52"/>
         <v>5.8900726392251856E-2</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>6.5646489104116301E-2</v>
       </c>
       <c r="P60" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="54"/>
         <v>9.2338983050847395E-2</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S60" s="2">
-        <f>C60-K$46</f>
+        <f t="shared" ref="S60:X60" si="56">C60-K$46</f>
         <v>0.14238155336189237</v>
       </c>
       <c r="T60" s="2">
-        <f>D60-L$46</f>
+        <f t="shared" si="56"/>
         <v>2.6542372881355858E-2</v>
       </c>
       <c r="U60" s="2">
-        <f>E60-M$46</f>
+        <f t="shared" si="56"/>
         <v>9.3869249394673143E-2</v>
       </c>
       <c r="V60" s="2">
-        <f>F60-N$46</f>
+        <f t="shared" si="56"/>
         <v>0.24550121065375297</v>
       </c>
       <c r="W60" s="2">
-        <f>G60-O$46</f>
+        <f t="shared" si="56"/>
         <v>0.35271670702179164</v>
       </c>
       <c r="X60" s="2">
-        <f>H60-P$46</f>
+        <f t="shared" si="56"/>
         <v>0.15414285714285719</v>
       </c>
     </row>
@@ -4007,50 +4015,50 @@
         <v>5.3999999999999992E-2</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" ref="L64:P64" si="46">D36-D64</f>
+        <f t="shared" ref="L64:P64" si="57">D36-D64</f>
         <v>-6.899999999999995E-2</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="N64" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.1429999999999999</v>
       </c>
       <c r="O64" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.16399999999999992</v>
       </c>
       <c r="P64" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>5.3000000000000019E-2</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S64" s="2">
-        <f>C64-K$36</f>
+        <f t="shared" ref="S64:X64" si="58">C64-K$36</f>
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="T64" s="2">
-        <f>D64-L$36</f>
+        <f t="shared" si="58"/>
         <v>-6.9000000000000061E-2</v>
       </c>
       <c r="U64" s="2">
-        <f>E64-M$36</f>
+        <f t="shared" si="58"/>
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="V64" s="2">
-        <f>F64-N$36</f>
+        <f t="shared" si="58"/>
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="W64" s="2">
-        <f>G64-O$36</f>
+        <f t="shared" si="58"/>
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="X64" s="2">
-        <f>H64-P$36</f>
+        <f t="shared" si="58"/>
         <v>-2.0000000000000018E-3</v>
       </c>
     </row>
@@ -4080,54 +4088,54 @@
         <v>1</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" ref="K65:K74" si="47">C37-C65</f>
+        <f t="shared" ref="K65:K74" si="59">C37-C65</f>
         <v>0.73599999999999999</v>
       </c>
       <c r="L65" s="2">
-        <f t="shared" ref="L65:L74" si="48">D37-D65</f>
+        <f t="shared" ref="L65:L74" si="60">D37-D65</f>
         <v>-3.7000000000000033E-2</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" ref="M65:M74" si="49">E37-E65</f>
+        <f t="shared" ref="M65:M74" si="61">E37-E65</f>
         <v>0.443</v>
       </c>
       <c r="N65" s="2">
-        <f t="shared" ref="N65:N74" si="50">F37-F65</f>
+        <f t="shared" ref="N65:N74" si="62">F37-F65</f>
         <v>0.27699999999999991</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" ref="O65:O74" si="51">G37-G65</f>
+        <f t="shared" ref="O65:O74" si="63">G37-G65</f>
         <v>0.31799999999999995</v>
       </c>
       <c r="P65" s="2">
-        <f t="shared" ref="P65:P74" si="52">H37-H65</f>
+        <f t="shared" ref="P65:P74" si="64">H37-H65</f>
         <v>0.60500000000000009</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S65" s="2">
-        <f>C65-K$37</f>
+        <f t="shared" ref="S65:X65" si="65">C65-K$37</f>
         <v>0.11</v>
       </c>
       <c r="T65" s="2">
-        <f>D65-L$37</f>
+        <f t="shared" si="65"/>
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="U65" s="2">
-        <f>E65-M$37</f>
+        <f t="shared" si="65"/>
         <v>0.14300000000000002</v>
       </c>
       <c r="V65" s="2">
-        <f>F65-N$37</f>
+        <f t="shared" si="65"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="W65" s="2">
-        <f>G65-O$37</f>
+        <f t="shared" si="65"/>
         <v>0.35100000000000003</v>
       </c>
       <c r="X65" s="2">
-        <f>H65-P$37</f>
+        <f t="shared" si="65"/>
         <v>0.17799999999999999</v>
       </c>
     </row>
@@ -4157,54 +4165,54 @@
         <v>6</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>6</v>
       </c>
       <c r="S66" s="2">
-        <f>C66-K$38</f>
+        <f t="shared" ref="S66:X66" si="66">C66-K$38</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T66" s="2">
-        <f>D66-L$38</f>
+        <f t="shared" si="66"/>
         <v>0.5</v>
       </c>
       <c r="U66" s="2">
-        <f>E66-M$38</f>
+        <f t="shared" si="66"/>
         <v>0.12300000000000003</v>
       </c>
       <c r="V66" s="2">
-        <f>F66-N$38</f>
+        <f t="shared" si="66"/>
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="W66" s="2">
-        <f>G66-O$38</f>
+        <f t="shared" si="66"/>
         <v>-8.3000000000000018E-2</v>
       </c>
       <c r="X66" s="2">
-        <f>H66-P$38</f>
+        <f t="shared" si="66"/>
         <v>0.19600000000000001</v>
       </c>
     </row>
@@ -4234,54 +4242,54 @@
         <v>2</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>6.7999999999999991E-2</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="M67" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>9.1999999999999971E-2</v>
       </c>
       <c r="N67" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.13</v>
       </c>
       <c r="O67" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.13700000000000001</v>
       </c>
       <c r="P67" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>7.6999999999999985E-2</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="S67" s="2">
-        <f>C67-K$39</f>
+        <f t="shared" ref="S67:X67" si="67">C67-K$39</f>
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="T67" s="2">
-        <f>D67-L$39</f>
+        <f t="shared" si="67"/>
         <v>0.24</v>
       </c>
       <c r="U67" s="2">
-        <f>E67-M$39</f>
+        <f t="shared" si="67"/>
         <v>0.128</v>
       </c>
       <c r="V67" s="2">
-        <f>F67-N$39</f>
+        <f t="shared" si="67"/>
         <v>0.42199999999999999</v>
       </c>
       <c r="W67" s="2">
-        <f>G67-O$39</f>
+        <f t="shared" si="67"/>
         <v>0.42799999999999999</v>
       </c>
       <c r="X67" s="2">
-        <f>H67-P$39</f>
+        <f t="shared" si="67"/>
         <v>0.255</v>
       </c>
     </row>
@@ -4311,54 +4319,54 @@
         <v>3</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>3.6000000000000004E-2</v>
       </c>
       <c r="L68" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-0.10899999999999999</v>
       </c>
       <c r="M68" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="N68" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>7.1999999999999953E-2</v>
       </c>
       <c r="O68" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>7.8999999999999959E-2</v>
       </c>
       <c r="P68" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.03</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S68" s="2">
-        <f>C68-K$40</f>
+        <f t="shared" ref="S68:X68" si="68">C68-K$40</f>
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="T68" s="2">
-        <f>D68-L$40</f>
+        <f t="shared" si="68"/>
         <v>8.6999999999999966E-2</v>
       </c>
       <c r="U68" s="2">
-        <f>E68-M$40</f>
+        <f t="shared" si="68"/>
         <v>0.159</v>
       </c>
       <c r="V68" s="2">
-        <f>F68-N$40</f>
+        <f t="shared" si="68"/>
         <v>0.54100000000000004</v>
       </c>
       <c r="W68" s="2">
-        <f>G68-O$40</f>
+        <f t="shared" si="68"/>
         <v>0.55800000000000005</v>
       </c>
       <c r="X68" s="2">
-        <f>H68-P$40</f>
+        <f t="shared" si="68"/>
         <v>0.27</v>
       </c>
     </row>
@@ -4388,54 +4396,54 @@
         <v>4</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.68500000000000005</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-9.600000000000003E-2</v>
       </c>
       <c r="M69" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0.14200000000000002</v>
       </c>
       <c r="N69" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.15399999999999991</v>
       </c>
       <c r="O69" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.17299999999999993</v>
       </c>
       <c r="P69" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.33600000000000002</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S69" s="2">
-        <f>C69-K$41</f>
+        <f t="shared" ref="S69:X69" si="69">C69-K$41</f>
         <v>0.12100000000000001</v>
       </c>
       <c r="T69" s="2">
-        <f>D69-L$41</f>
+        <f t="shared" si="69"/>
         <v>-9.5999999999999974E-2</v>
       </c>
       <c r="U69" s="2">
-        <f>E69-M$41</f>
+        <f t="shared" si="69"/>
         <v>0.14599999999999999</v>
       </c>
       <c r="V69" s="2">
-        <f>F69-N$41</f>
+        <f t="shared" si="69"/>
         <v>0.34800000000000003</v>
       </c>
       <c r="W69" s="2">
-        <f>G69-O$41</f>
+        <f t="shared" si="69"/>
         <v>0.37300000000000005</v>
       </c>
       <c r="X69" s="2">
-        <f>H69-P$41</f>
+        <f t="shared" si="69"/>
         <v>0.15100000000000002</v>
       </c>
     </row>
@@ -4465,54 +4473,54 @@
         <v>5</v>
       </c>
       <c r="K70" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M70" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O70" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P70" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S70" s="2">
-        <f>C70-K$42</f>
+        <f t="shared" ref="S70:X70" si="70">C70-K$42</f>
         <v>-2.5000000000000008E-2</v>
       </c>
       <c r="T70" s="2">
-        <f>D70-L$42</f>
+        <f t="shared" si="70"/>
         <v>-0.79499999999999993</v>
       </c>
       <c r="U70" s="2">
-        <f>E70-M$42</f>
+        <f t="shared" si="70"/>
         <v>-8.5000000000000006E-2</v>
       </c>
       <c r="V70" s="2">
-        <f>F70-N$42</f>
+        <f t="shared" si="70"/>
         <v>0.43099999999999994</v>
       </c>
       <c r="W70" s="2">
-        <f>G70-O$42</f>
+        <f t="shared" si="70"/>
         <v>0.53699999999999992</v>
       </c>
       <c r="X70" s="2">
-        <f>H70-P$42</f>
+        <f t="shared" si="70"/>
         <v>-0.109</v>
       </c>
     </row>
@@ -4542,54 +4550,54 @@
         <v>7</v>
       </c>
       <c r="K71" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.65900000000000003</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M71" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>6.2E-2</v>
       </c>
       <c r="N71" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.128</v>
       </c>
       <c r="O71" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.18700000000000006</v>
       </c>
       <c r="P71" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.36099999999999999</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>7</v>
       </c>
       <c r="S71" s="2">
-        <f>C71-K$43</f>
+        <f t="shared" ref="S71:X71" si="71">C71-K$43</f>
         <v>0.20200000000000001</v>
       </c>
       <c r="T71" s="2">
-        <f>D71-L$43</f>
+        <f t="shared" si="71"/>
         <v>0.27700000000000002</v>
       </c>
       <c r="U71" s="2">
-        <f>E71-M$43</f>
+        <f t="shared" si="71"/>
         <v>0.24100000000000002</v>
       </c>
       <c r="V71" s="2">
-        <f>F71-N$43</f>
+        <f t="shared" si="71"/>
         <v>0.23099999999999998</v>
       </c>
       <c r="W71" s="2">
-        <f>G71-O$43</f>
+        <f t="shared" si="71"/>
         <v>0.16499999999999992</v>
       </c>
       <c r="X71" s="2">
-        <f>H71-P$43</f>
+        <f t="shared" si="71"/>
         <v>0.38300000000000001</v>
       </c>
     </row>
@@ -4619,54 +4627,54 @@
         <v>8</v>
       </c>
       <c r="K72" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="L72" s="10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="M72" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N72" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="O72" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="P72" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="R72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="S72" s="12">
-        <f>C72-K$44</f>
+        <f t="shared" ref="S72:X72" si="72">C72-K$44</f>
         <v>3.7000000000000005E-2</v>
       </c>
       <c r="T72" s="10">
-        <f>D72-L$44</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="U72" s="10">
-        <f>E72-M$44</f>
+        <f t="shared" si="72"/>
         <v>2.2000000000000006E-2</v>
       </c>
       <c r="V72" s="10">
-        <f>F72-N$44</f>
+        <f t="shared" si="72"/>
         <v>0.14499999999999999</v>
       </c>
       <c r="W72" s="10">
-        <f>G72-O$44</f>
+        <f t="shared" si="72"/>
         <v>0.81699999999999995</v>
       </c>
       <c r="X72" s="10">
-        <f>H72-P$44</f>
+        <f t="shared" si="72"/>
         <v>-0.501</v>
       </c>
     </row>
@@ -4675,81 +4683,81 @@
         <v>18</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" ref="C73:H73" si="53">SUM(C64:C72)/COUNT(C64:C72)</f>
+        <f t="shared" ref="C73:H73" si="73">SUM(C64:C72)/COUNT(C64:C72)</f>
         <v>0.17055555555555557</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.60599999999999998</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.24388888888888893</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.64822222222222214</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.66355555555555557</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="73"/>
         <v>0.1331111111111111</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K73" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.24866666666666665</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-4.3444444444444508E-2</v>
       </c>
       <c r="M73" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>9.3777777777777793E-2</v>
       </c>
       <c r="N73" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>0.10044444444444456</v>
       </c>
       <c r="O73" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>0.11755555555555552</v>
       </c>
       <c r="P73" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.16244444444444447</v>
       </c>
       <c r="R73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="S73" s="2">
-        <f>C73-K$45</f>
+        <f t="shared" ref="S73:X73" si="74">C73-K$45</f>
         <v>7.8111111111111131E-2</v>
       </c>
       <c r="T73" s="2">
-        <f>D73-L$45</f>
+        <f t="shared" si="74"/>
         <v>2.011111111111108E-2</v>
       </c>
       <c r="U73" s="2">
-        <f>E73-M$45</f>
+        <f t="shared" si="74"/>
         <v>9.911111111111115E-2</v>
       </c>
       <c r="V73" s="2">
-        <f>F73-N$45</f>
+        <f t="shared" si="74"/>
         <v>0.27622222222222209</v>
       </c>
       <c r="W73" s="2">
-        <f>G73-O$45</f>
+        <f t="shared" si="74"/>
         <v>0.35788888888888892</v>
       </c>
       <c r="X73" s="2">
-        <f>H73-P$45</f>
+        <f t="shared" si="74"/>
         <v>9.1222222222222205E-2</v>
       </c>
     </row>
@@ -4785,54 +4793,54 @@
         <v>19</v>
       </c>
       <c r="K74" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>0.22761846153846155</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>-4.1176755447941971E-2</v>
       </c>
       <c r="M74" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>6.9699757869249396E-2</v>
       </c>
       <c r="N74" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>7.6876513317191364E-2</v>
       </c>
       <c r="O74" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="63"/>
         <v>7.1845036319612698E-2</v>
       </c>
       <c r="P74" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>0.12975302663438254</v>
       </c>
       <c r="R74" s="3" t="s">
         <v>19</v>
       </c>
       <c r="S74" s="2">
-        <f>C74-K$46</f>
+        <f t="shared" ref="S74:X74" si="75">C74-K$46</f>
         <v>9.5956937977276974E-2</v>
       </c>
       <c r="T74" s="2">
-        <f>D74-L$46</f>
+        <f t="shared" si="75"/>
         <v>4.3496368038740796E-2</v>
       </c>
       <c r="U74" s="2">
-        <f>E74-M$46</f>
+        <f t="shared" si="75"/>
         <v>8.3845036319612598E-2</v>
       </c>
       <c r="V74" s="2">
-        <f>F74-N$46</f>
+        <f t="shared" si="75"/>
         <v>0.22752542372881346</v>
       </c>
       <c r="W74" s="2">
-        <f>G74-O$46</f>
+        <f t="shared" si="75"/>
         <v>0.34651815980629525</v>
       </c>
       <c r="X74" s="2">
-        <f>H74-P$46</f>
+        <f t="shared" si="75"/>
         <v>0.11672881355932205</v>
       </c>
     </row>
@@ -4845,6 +4853,8 @@
       <c r="B77" t="s">
         <v>29</v>
       </c>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
@@ -4883,6 +4893,12 @@
       <c r="M78" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="N78" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O78" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
@@ -4929,13 +4945,21 @@
         <f>((D79*G79)-(E79*F79))/SQRT((D79+E79)*(D79+F79)*(G79+E79)*(G79+F79))</f>
         <v>0.73029674334022143</v>
       </c>
+      <c r="N79">
+        <f>IF(H79&gt;=I79,SQRT((E79+G79)*(D79+E79))/SQRT((F79+G79)*(D79+F79)),SQRT((F79+G79)*(D79+F79))/SQRT((E79+G79)*(D79+E79)))</f>
+        <v>0.73029674334022154</v>
+      </c>
+      <c r="O79">
+        <f>M79/N79</f>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C80">
-        <f t="shared" ref="C80:C87" si="54">D80+F80</f>
+        <f t="shared" ref="C80:C87" si="76">D80+F80</f>
         <v>5</v>
       </c>
       <c r="D80">
@@ -4960,28 +4984,36 @@
         <v>1</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" ref="J80:J87" si="55">2*H80*I80/(H80+I80)</f>
+        <f t="shared" ref="J80:J87" si="77">2*H80*I80/(H80+I80)</f>
         <v>1</v>
       </c>
       <c r="K80">
-        <f t="shared" ref="K80:K87" si="56">(D80+G80)/SUM(D80:G80)</f>
+        <f t="shared" ref="K80:K87" si="78">(D80+G80)/SUM(D80:G80)</f>
         <v>1</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L87" si="57">G80/(G80+E80)</f>
+        <f t="shared" ref="L80:L87" si="79">G80/(G80+E80)</f>
         <v>1</v>
       </c>
       <c r="M80">
-        <f t="shared" ref="M80:M87" si="58">((D80*G80)-(E80*F80))/SQRT((D80+E80)*(D80+F80)*(G80+E80)*(G80+F80))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M80:M87" si="80">((D80*G80)-(E80*F80))/SQRT((D80+E80)*(D80+F80)*(G80+E80)*(G80+F80))</f>
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ref="N80:N87" si="81">IF(H80&gt;=I80,SQRT((E80+G80)*(D80+E80))/SQRT((F80+G80)*(D80+F80)),SQRT((F80+G80)*(D80+F80))/SQRT((E80+G80)*(D80+E80)))</f>
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80:O87" si="82">M80/N80</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C81">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>5</v>
       </c>
       <c r="D81">
@@ -5006,28 +5038,36 @@
         <v>1</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="K81">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="L81">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="M81">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>0.84515425472851657</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <f t="shared" si="81"/>
+        <v>0.84515425472851657</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C82">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D82">
@@ -5047,12 +5087,12 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C83">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="D83">
@@ -5077,28 +5117,36 @@
         <v>1</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="K83">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="L83">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="M83">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C84">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="D84">
@@ -5123,28 +5171,36 @@
         <v>1</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="K84">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="L84">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="M84">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C85">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>6</v>
       </c>
       <c r="D85">
@@ -5169,28 +5225,36 @@
         <v>0.5</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>0.6</v>
       </c>
       <c r="K85">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="L85">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="M85">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>0.38575837490522974</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <f t="shared" si="81"/>
+        <v>0.72008229982309557</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="82"/>
+        <v>0.5357142857142857</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C86">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="D86">
@@ -5215,28 +5279,36 @@
         <v>1</v>
       </c>
       <c r="J86" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="K86">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1</v>
       </c>
       <c r="L86">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>1</v>
       </c>
       <c r="M86">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" si="54"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="D87" s="5">
@@ -5261,23 +5333,31 @@
         <v>1</v>
       </c>
       <c r="J87" s="10">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>0.8</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="79"/>
         <v>0.8</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="58"/>
+        <f t="shared" si="80"/>
         <v>0.73029674334022143</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="5">
+        <f t="shared" si="81"/>
+        <v>0.73029674334022154</v>
+      </c>
+      <c r="O87" s="5">
+        <f t="shared" si="82"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>18</v>
       </c>
@@ -5297,19 +5377,27 @@
         <v>0.88863636363636356</v>
       </c>
       <c r="K88" s="2">
-        <f t="shared" ref="K88:M88" si="59">SUM(K79:K87)/COUNT(K79:K87)</f>
+        <f t="shared" ref="K88:O88" si="83">SUM(K79:K87)/COUNT(K79:K87)</f>
         <v>0.91540750915750912</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0.93928571428571428</v>
       </c>
       <c r="M88" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="83"/>
         <v>0.83643826453927361</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <f t="shared" si="83"/>
+        <v>0.87822875515400689</v>
+      </c>
+      <c r="O88" s="2">
+        <f t="shared" si="83"/>
+        <v>0.9419642857142857</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>19</v>
       </c>
@@ -5317,28 +5405,36 @@
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="H89" s="11">
-        <f>(($C79*H79)+($C80*H80)+($C81*H81)+($C82*H82)+($C83*H83)+($C84*H84)+($C85*H85)+($C86*H86)+($C87*H87))/SUM($C79:$C87)</f>
+        <f t="shared" ref="H89:O89" si="84">(($C79*H79)+($C80*H80)+($C81*H81)+($C82*H82)+($C83*H83)+($C84*H84)+($C85*H85)+($C86*H86)+($C87*H87))/SUM($C79:$C87)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="I89" s="11">
-        <f>(($C79*I79)+($C80*I80)+($C81*I81)+($C82*I82)+($C83*I83)+($C84*I84)+($C85*I85)+($C86*I86)+($C87*I87))/SUM($C79:$C87)</f>
+        <f t="shared" si="84"/>
         <v>0.81481481481481477</v>
       </c>
       <c r="J89" s="11">
-        <f>(($C79*J79)+($C80*J80)+($C81*J81)+($C82*J82)+($C83*J83)+($C84*J84)+($C85*J85)+($C86*J86)+($C87*J87))/SUM($C79:$C87)</f>
+        <f t="shared" si="84"/>
         <v>0.8350168350168351</v>
       </c>
       <c r="K89" s="11">
-        <f>(($C79*K79)+($C80*K80)+($C81*K81)+($C82*K82)+($C83*K83)+($C84*K84)+($C85*K85)+($C86*K86)+($C87*K87))/SUM($C79:$C87)</f>
+        <f t="shared" si="84"/>
         <v>0.87386379053045715</v>
       </c>
       <c r="L89" s="11">
-        <f>(($C79*L79)+($C80*L80)+($C81*L81)+($C82*L82)+($C83*L83)+($C84*L84)+($C85*L85)+($C86*L86)+($C87*L87))/SUM($C79:$C87)</f>
+        <f t="shared" si="84"/>
         <v>0.92698412698412702</v>
       </c>
       <c r="M89" s="11">
-        <f>(($C79*M79)+($C80*M80)+($C81*M81)+($C82*M82)+($C83*M83)+($C84*M84)+($C85*M85)+($C86*M86)+($C87*M87))/SUM($C79:$C87)</f>
+        <f t="shared" si="84"/>
         <v>0.75491464702947164</v>
+      </c>
+      <c r="N89" s="11">
+        <f t="shared" si="84"/>
+        <v>0.82920885256677512</v>
+      </c>
+      <c r="O89" s="11">
+        <f t="shared" si="84"/>
+        <v>0.89682539682539686</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4906,28 +4906,28 @@
       </c>
       <c r="C79">
         <f>D79+F79</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <v>4</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <f>Info!C2-C79</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H79" s="2">
         <f>D79/(D79+E79)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I79" s="2">
         <f>D79/(D79+F79)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="J79" s="2">
         <f>2*H79*I79/(H79+I79)</f>
@@ -4935,19 +4935,19 @@
       </c>
       <c r="K79">
         <f>(D79+G79)/SUM(D79:G79)</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L79">
         <f>G79/(G79+E79)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M79">
         <f>((D79*G79)-(E79*F79))/SQRT((D79+E79)*(D79+F79)*(G79+E79)*(G79+F79))</f>
-        <v>0.73029674334022143</v>
+        <v>0.7453559924999299</v>
       </c>
       <c r="N79">
         <f>IF(H79&gt;=I79,SQRT((E79+G79)*(D79+E79))/SQRT((F79+G79)*(D79+F79)),SQRT((F79+G79)*(D79+F79))/SQRT((E79+G79)*(D79+E79)))</f>
-        <v>0.73029674334022154</v>
+        <v>0.74535599249993001</v>
       </c>
       <c r="O79">
         <f>M79/N79</f>
@@ -5014,28 +5014,28 @@
       </c>
       <c r="C81">
         <f t="shared" si="76"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>5</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <f>Info!C4-C81</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H81" s="2">
         <f>D81/(D81+E81)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="I81" s="2">
         <f>D81/(D81+F81)</f>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J81" s="2">
         <f t="shared" si="77"/>
@@ -5043,19 +5043,19 @@
       </c>
       <c r="K81">
         <f t="shared" si="78"/>
-        <v>0.91666666666666663</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="L81">
         <f t="shared" si="79"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="M81">
         <f t="shared" si="80"/>
-        <v>0.84515425472851657</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="N81">
         <f t="shared" si="81"/>
-        <v>0.84515425472851657</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="O81">
         <f t="shared" si="82"/>
@@ -5086,6 +5086,14 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
+      <c r="K82">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
@@ -5201,28 +5209,28 @@
       </c>
       <c r="C85">
         <f t="shared" si="76"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <f>Info!C8-C85</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H85" s="2">
         <f>D85/(D85+E85)</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="I85" s="2">
         <f>D85/(D85+F85)</f>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="J85" s="2">
         <f t="shared" si="77"/>
@@ -5230,23 +5238,23 @@
       </c>
       <c r="K85">
         <f t="shared" si="78"/>
-        <v>0.69230769230769229</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="L85">
         <f t="shared" si="79"/>
-        <v>0.8571428571428571</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="M85">
         <f t="shared" si="80"/>
-        <v>0.38575837490522974</v>
+        <v>0.43082021842766455</v>
       </c>
       <c r="N85">
         <f t="shared" si="81"/>
-        <v>0.72008229982309557</v>
+        <v>0.7385489458759964</v>
       </c>
       <c r="O85">
         <f t="shared" si="82"/>
-        <v>0.5357142857142857</v>
+        <v>0.58333333333333326</v>
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.25">
@@ -5309,28 +5317,28 @@
       </c>
       <c r="C87" s="8">
         <f t="shared" si="76"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" s="5">
         <v>2</v>
       </c>
       <c r="E87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="5">
         <f>Info!C10-C87</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H87" s="10">
         <f>D87/(D87+E87)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I87" s="10">
         <f>D87/(D87+F87)</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J87" s="10">
         <f t="shared" si="77"/>
@@ -5338,23 +5346,23 @@
       </c>
       <c r="K87" s="5">
         <f t="shared" si="78"/>
-        <v>0.8571428571428571</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L87" s="5">
         <f t="shared" si="79"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M87" s="5">
         <f t="shared" si="80"/>
-        <v>0.73029674334022143</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="N87" s="5">
         <f t="shared" si="81"/>
-        <v>0.73029674334022154</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="O87" s="5">
         <f t="shared" si="82"/>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.25">
@@ -5366,11 +5374,11 @@
       <c r="F88" s="2"/>
       <c r="H88" s="2">
         <f>SUM(H79:H87)/COUNT(H79:H87)</f>
-        <v>0.90625000000000011</v>
+        <v>0.89583333333333326</v>
       </c>
       <c r="I88" s="2">
         <f>SUM(I79:I87)/COUNT(I79:I87)</f>
-        <v>0.89583333333333326</v>
+        <v>0.90625000000000011</v>
       </c>
       <c r="J88" s="2">
         <f>SUM(J79:J87)/COUNT(J79:J87)</f>
@@ -5378,23 +5386,23 @@
       </c>
       <c r="K88" s="2">
         <f t="shared" ref="K88:O88" si="83">SUM(K79:K87)/COUNT(K79:K87)</f>
-        <v>0.91540750915750912</v>
+        <v>0.92786195286195294</v>
       </c>
       <c r="L88" s="2">
         <f t="shared" si="83"/>
-        <v>0.93928571428571428</v>
+        <v>0.95117845117845135</v>
       </c>
       <c r="M88" s="2">
         <f t="shared" si="83"/>
-        <v>0.83643826453927361</v>
+        <v>0.83957704068093442</v>
       </c>
       <c r="N88" s="2">
         <f t="shared" si="83"/>
-        <v>0.87822875515400689</v>
+        <v>0.87804313161197589</v>
       </c>
       <c r="O88" s="2">
         <f t="shared" si="83"/>
-        <v>0.9419642857142857</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.25">
@@ -5406,35 +5414,35 @@
       <c r="F89" s="11"/>
       <c r="H89" s="11">
         <f t="shared" ref="H89:O89" si="84">(($C79*H79)+($C80*H80)+($C81*H81)+($C82*H82)+($C83*H83)+($C84*H84)+($C85*H85)+($C86*H86)+($C87*H87))/SUM($C79:$C87)</f>
-        <v>0.88888888888888884</v>
+        <v>0.86666666666666659</v>
       </c>
       <c r="I89" s="11">
         <f t="shared" si="84"/>
-        <v>0.81481481481481477</v>
+        <v>0.88</v>
       </c>
       <c r="J89" s="11">
         <f t="shared" si="84"/>
-        <v>0.8350168350168351</v>
+        <v>0.85818181818181816</v>
       </c>
       <c r="K89" s="11">
         <f t="shared" si="84"/>
-        <v>0.87386379053045715</v>
+        <v>0.89551515151515149</v>
       </c>
       <c r="L89" s="11">
         <f t="shared" si="84"/>
-        <v>0.92698412698412702</v>
+        <v>0.9296969696969698</v>
       </c>
       <c r="M89" s="11">
         <f t="shared" si="84"/>
-        <v>0.75491464702947164</v>
+        <v>0.79304100749080075</v>
       </c>
       <c r="N89" s="11">
         <f t="shared" si="84"/>
-        <v>0.82920885256677512</v>
+        <v>0.84227760388253403</v>
       </c>
       <c r="O89" s="11">
         <f t="shared" si="84"/>
-        <v>0.89682539682539686</v>
+        <v>0.93333333333333324</v>
       </c>
     </row>
   </sheetData>

--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A2:AA138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,31 +912,31 @@
         <v>6</v>
       </c>
       <c r="U7" s="1">
-        <f>C15-L15</f>
+        <f t="shared" ref="U7:AA7" si="7">C15-L15</f>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="V7" s="1">
-        <f>D15-M15</f>
+        <f t="shared" si="7"/>
         <v>0.47000000000000003</v>
       </c>
       <c r="W7" s="1">
-        <f>E15-N15</f>
+        <f t="shared" si="7"/>
         <v>0.36</v>
       </c>
       <c r="X7" s="1">
-        <f>F15-O15</f>
+        <f t="shared" si="7"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="Y7" s="1">
-        <f>G15-P15</f>
+        <f t="shared" si="7"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z7" s="1">
-        <f>H15-Q15</f>
+        <f t="shared" si="7"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="AA7" s="1">
-        <f>I15-R15</f>
+        <f t="shared" si="7"/>
         <v>8.9999999999999969E-2</v>
       </c>
     </row>
@@ -993,31 +993,31 @@
         <v>2</v>
       </c>
       <c r="U8" s="1">
-        <f>C7-L7</f>
+        <f t="shared" ref="U8:AA8" si="8">C7-L7</f>
         <v>-0.19999999999999996</v>
       </c>
       <c r="V8" s="1">
-        <f>D7-M7</f>
+        <f t="shared" si="8"/>
         <v>0.45</v>
       </c>
       <c r="W8" s="1">
-        <f>E7-N7</f>
+        <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
       <c r="X8" s="1">
-        <f>F7-O7</f>
+        <f t="shared" si="8"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="Y8" s="1">
-        <f>G7-P7</f>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z8" s="1">
-        <f>H7-Q7</f>
+        <f t="shared" si="8"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="AA8" s="1">
-        <f>I7-R7</f>
+        <f t="shared" si="8"/>
         <v>0.19000000000000006</v>
       </c>
     </row>
@@ -1074,31 +1074,31 @@
         <v>3</v>
       </c>
       <c r="U9" s="1">
-        <f>C16-L16</f>
+        <f t="shared" ref="U9:AA9" si="9">C16-L16</f>
         <v>-0.28000000000000003</v>
       </c>
       <c r="V9" s="1">
-        <f>D16-M16</f>
+        <f t="shared" si="9"/>
         <v>0.25999999999999995</v>
       </c>
       <c r="W9" s="1">
-        <f>E16-N16</f>
+        <f t="shared" si="9"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="X9" s="1">
-        <f>F16-O16</f>
+        <f t="shared" si="9"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Y9" s="1">
-        <f>G16-P16</f>
+        <f t="shared" si="9"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z9" s="1">
-        <f>H16-Q16</f>
+        <f t="shared" si="9"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="AA9" s="1">
-        <f>I16-R16</f>
+        <f t="shared" si="9"/>
         <v>-6.9999999999999951E-2</v>
       </c>
     </row>
@@ -1107,27 +1107,27 @@
         <v>18</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" ref="C10:H10" si="7">SUM(C5:C9)/COUNT(C5:C9)</f>
+        <f t="shared" ref="C10:H10" si="10">SUM(C5:C9)/COUNT(C5:C9)</f>
         <v>0.86799999999999999</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.81799999999999995</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.82200000000000006</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.97999999999999987</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.98799999999999988</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.82</v>
       </c>
       <c r="I10" s="2">
@@ -1142,58 +1142,58 @@
         <v>0.77799999999999991</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10:R10" si="8">SUM(M5:M9)/COUNT(M5:M9)</f>
+        <f t="shared" ref="M10:R10" si="11">SUM(M5:M9)/COUNT(M5:M9)</f>
         <v>0.35199999999999998</v>
       </c>
       <c r="N10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.48199999999999993</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.88800000000000012</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.98000000000000009</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.47199999999999998</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.73799999999999988</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U10" s="1">
-        <f>C8-L8</f>
+        <f t="shared" ref="U10:AA10" si="12">C8-L8</f>
         <v>0.5</v>
       </c>
       <c r="V10" s="1">
-        <f>D8-M8</f>
+        <f t="shared" si="12"/>
         <v>0.67999999999999994</v>
       </c>
       <c r="W10" s="1">
-        <f>E8-N8</f>
+        <f t="shared" si="12"/>
         <v>0.64</v>
       </c>
       <c r="X10" s="1">
-        <f>F8-O8</f>
+        <f t="shared" si="12"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="Y10" s="1">
-        <f>G8-P8</f>
+        <f t="shared" si="12"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z10" s="1">
-        <f>H8-Q8</f>
+        <f t="shared" si="12"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="AA10" s="1">
-        <f>I8-R8</f>
+        <f t="shared" si="12"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1264,31 +1264,31 @@
         <v>5</v>
       </c>
       <c r="U11" s="1">
-        <f>C17-L17</f>
+        <f t="shared" ref="U11:AA11" si="13">C17-L17</f>
         <v>-0.18999999999999995</v>
       </c>
       <c r="V11" s="1">
-        <f>D17-M17</f>
+        <f t="shared" si="13"/>
         <v>0.36</v>
       </c>
       <c r="W11" s="1">
-        <f>E17-N17</f>
+        <f t="shared" si="13"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="X11" s="1">
-        <f>F17-O17</f>
+        <f t="shared" si="13"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="Y11" s="1">
-        <f>G17-P17</f>
+        <f t="shared" si="13"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Z11" s="1">
-        <f>H17-Q17</f>
+        <f t="shared" si="13"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="AA11" s="1">
-        <f>I17-R17</f>
+        <f t="shared" si="13"/>
         <v>-0.19999999999999996</v>
       </c>
     </row>
@@ -1297,31 +1297,31 @@
         <v>7</v>
       </c>
       <c r="U12" s="1">
-        <f>C9-L9</f>
+        <f t="shared" ref="U12:AA12" si="14">C9-L9</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="V12" s="1">
-        <f>D9-M9</f>
+        <f t="shared" si="14"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="W12" s="1">
-        <f>E9-N9</f>
+        <f t="shared" si="14"/>
         <v>0.38</v>
       </c>
       <c r="X12" s="1">
-        <f>F9-O9</f>
+        <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
       <c r="Y12" s="1">
-        <f>G9-P9</f>
+        <f t="shared" si="14"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Z12" s="1">
-        <f>H9-Q9</f>
+        <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
       <c r="AA12" s="1">
-        <f>I9-R9</f>
+        <f t="shared" si="14"/>
         <v>0.18000000000000005</v>
       </c>
     </row>
@@ -1336,31 +1336,31 @@
         <v>8</v>
       </c>
       <c r="U13" s="5">
-        <f>C18-L18</f>
+        <f t="shared" ref="U13:AA13" si="15">C18-L18</f>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="V13" s="5">
-        <f>D18-M18</f>
+        <f t="shared" si="15"/>
         <v>0.53</v>
       </c>
       <c r="W13" s="5">
-        <f>E18-N18</f>
+        <f t="shared" si="15"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="X13" s="5">
-        <f>F18-O18</f>
+        <f t="shared" si="15"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="Y13" s="5">
-        <f>G18-P18</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <f>H18-Q18</f>
+        <f t="shared" si="15"/>
         <v>0.37</v>
       </c>
       <c r="AA13" s="5">
-        <f>I18-R18</f>
+        <f t="shared" si="15"/>
         <v>0.27</v>
       </c>
     </row>
@@ -1417,31 +1417,31 @@
         <v>44</v>
       </c>
       <c r="U14" s="1">
-        <f>C10-L10</f>
+        <f t="shared" ref="U14:AA15" si="16">C10-L10</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="V14" s="1">
-        <f>D10-M10</f>
+        <f t="shared" si="16"/>
         <v>0.46599999999999997</v>
       </c>
       <c r="W14" s="1">
-        <f>E10-N10</f>
+        <f t="shared" si="16"/>
         <v>0.34000000000000014</v>
       </c>
       <c r="X14" s="1">
-        <f>F10-O10</f>
+        <f t="shared" si="16"/>
         <v>9.1999999999999749E-2</v>
       </c>
       <c r="Y14" s="1">
-        <f>G10-P10</f>
+        <f t="shared" si="16"/>
         <v>7.9999999999997851E-3</v>
       </c>
       <c r="Z14" s="1">
-        <f>H10-Q10</f>
+        <f t="shared" si="16"/>
         <v>0.34799999999999998</v>
       </c>
       <c r="AA14" s="1">
-        <f>I10-R10</f>
+        <f t="shared" si="16"/>
         <v>0.21400000000000008</v>
       </c>
     </row>
@@ -1498,31 +1498,31 @@
         <v>47</v>
       </c>
       <c r="U15" s="1">
-        <f>C11-L11</f>
+        <f t="shared" si="16"/>
         <v>0.11238636363636356</v>
       </c>
       <c r="V15" s="1">
-        <f>D11-M11</f>
+        <f t="shared" si="16"/>
         <v>0.4859090909090909</v>
       </c>
       <c r="W15" s="1">
-        <f>E11-N11</f>
+        <f t="shared" si="16"/>
         <v>0.35045454545454535</v>
       </c>
       <c r="X15" s="1">
-        <f>F11-O11</f>
+        <f t="shared" si="16"/>
         <v>9.1647727272727186E-2</v>
       </c>
       <c r="Y15" s="1">
-        <f>G11-P11</f>
+        <f t="shared" si="16"/>
         <v>1.2102272727272712E-2</v>
       </c>
       <c r="Z15" s="1">
-        <f>H11-Q11</f>
+        <f t="shared" si="16"/>
         <v>0.36568181818181816</v>
       </c>
       <c r="AA15" s="1">
-        <f>I11-R11</f>
+        <f t="shared" si="16"/>
         <v>0.25931818181818189</v>
       </c>
     </row>
@@ -1681,27 +1681,27 @@
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" ref="C19" si="9">SUM(C14:C18)/COUNT(C14:C18)</f>
+        <f t="shared" ref="C19" si="17">SUM(C14:C18)/COUNT(C14:C18)</f>
         <v>0.78749999999999998</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" ref="D19" si="10">SUM(D14:D18)/COUNT(D14:D18)</f>
+        <f t="shared" ref="D19" si="18">SUM(D14:D18)/COUNT(D14:D18)</f>
         <v>0.8125</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ref="E19" si="11">SUM(E14:E18)/COUNT(E14:E18)</f>
+        <f t="shared" ref="E19" si="19">SUM(E14:E18)/COUNT(E14:E18)</f>
         <v>0.79249999999999987</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19" si="12">SUM(F14:F18)/COUNT(F14:F18)</f>
+        <f t="shared" ref="F19" si="20">SUM(F14:F18)/COUNT(F14:F18)</f>
         <v>0.98</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" ref="G19" si="13">SUM(G14:G18)/COUNT(G14:G18)</f>
+        <f t="shared" ref="G19" si="21">SUM(G14:G18)/COUNT(G14:G18)</f>
         <v>0.98249999999999993</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" ref="H19" si="14">SUM(H14:H18)/COUNT(H14:H18)</f>
+        <f t="shared" ref="H19" si="22">SUM(H14:H18)/COUNT(H14:H18)</f>
         <v>0.78500000000000003</v>
       </c>
       <c r="I19" s="2">
@@ -1716,27 +1716,27 @@
         <v>0.88250000000000006</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" ref="M19:R19" si="15">SUM(M15:M18)/COUNT(M15:M18)</f>
+        <f t="shared" ref="M19:R19" si="23">SUM(M15:M18)/COUNT(M15:M18)</f>
         <v>0.40750000000000003</v>
       </c>
       <c r="N19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.54499999999999993</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.88250000000000006</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.98</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.54</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.84750000000000003</v>
       </c>
     </row>
@@ -1813,27 +1813,27 @@
         <v>0.8322222222222222</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:I22" si="16">(SUM(D5:D9)+SUM(D15:D18))/(COUNT(D5:D9)+COUNT(D15:D18))</f>
+        <f t="shared" ref="D22:I22" si="24">(SUM(D5:D9)+SUM(D15:D18))/(COUNT(D5:D9)+COUNT(D15:D18))</f>
         <v>0.81555555555555559</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.80888888888888877</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.98</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.98555555555555552</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.80444444444444452</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.91555555555555557</v>
       </c>
       <c r="K22" s="7" t="s">
@@ -1844,27 +1844,27 @@
         <v>0.82444444444444442</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" ref="M22:R22" si="17">(SUM(M5:M9)+SUM(M15:M18))/(COUNT(M5:M9)+COUNT(M15:M18))</f>
+        <f t="shared" ref="M22:R22" si="25">(SUM(M5:M9)+SUM(M15:M18))/(COUNT(M5:M9)+COUNT(M15:M18))</f>
         <v>0.37666666666666665</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.51</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.88555555555555565</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.98</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.50222222222222213</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.78666666666666663</v>
       </c>
     </row>
@@ -2019,31 +2019,31 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <f>C5-L28</f>
+        <f t="shared" ref="U28:AA29" si="26">C5-L28</f>
         <v>0.5</v>
       </c>
       <c r="V28" s="1">
-        <f>D5-M28</f>
+        <f t="shared" si="26"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="W28" s="1">
-        <f>E5-N28</f>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="X28" s="1">
-        <f>F5-O28</f>
+        <f t="shared" si="26"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="Y28" s="1">
-        <f>G5-P28</f>
+        <f t="shared" si="26"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Z28" s="1">
-        <f>H5-Q28</f>
+        <f t="shared" si="26"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="AA28" s="1">
-        <f>I5-R28</f>
+        <f t="shared" si="26"/>
         <v>0.48</v>
       </c>
     </row>
@@ -2076,31 +2076,31 @@
         <v>1</v>
       </c>
       <c r="U29" s="1">
-        <f>C6-L29</f>
+        <f t="shared" si="26"/>
         <v>0.26</v>
       </c>
       <c r="V29" s="1">
-        <f>D6-M29</f>
+        <f t="shared" si="26"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="W29" s="1">
-        <f>E6-N29</f>
+        <f t="shared" si="26"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="X29" s="1">
-        <f>F6-O29</f>
+        <f t="shared" si="26"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y29" s="1">
-        <f>G6-P29</f>
+        <f t="shared" si="26"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z29" s="1">
-        <f>H6-Q29</f>
+        <f t="shared" si="26"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="AA29" s="1">
-        <f>I6-R29</f>
+        <f t="shared" si="26"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -2133,31 +2133,31 @@
         <v>6</v>
       </c>
       <c r="U30" s="1">
-        <f>C15-L38</f>
+        <f t="shared" ref="U30:AA30" si="27">C15-L38</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="V30" s="1">
-        <f>D15-M38</f>
+        <f t="shared" si="27"/>
         <v>0.26</v>
       </c>
       <c r="W30" s="1">
-        <f>E15-N38</f>
+        <f t="shared" si="27"/>
         <v>0.24</v>
       </c>
       <c r="X30" s="1">
-        <f>F15-O38</f>
+        <f t="shared" si="27"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Y30" s="1">
-        <f>G15-P38</f>
+        <f t="shared" si="27"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z30" s="1">
-        <f>H15-Q38</f>
+        <f t="shared" si="27"/>
         <v>0.25</v>
       </c>
       <c r="AA30" s="1">
-        <f>I15-R38</f>
+        <f t="shared" si="27"/>
         <v>0.20999999999999996</v>
       </c>
     </row>
@@ -2190,31 +2190,31 @@
         <v>2</v>
       </c>
       <c r="U31" s="1">
-        <f>C7-L30</f>
+        <f t="shared" ref="U31:AA31" si="28">C7-L30</f>
         <v>0.26000000000000006</v>
       </c>
       <c r="V31" s="1">
-        <f>D7-M30</f>
+        <f t="shared" si="28"/>
         <v>-5.9999999999999942E-2</v>
       </c>
       <c r="W31" s="1">
-        <f>E7-N30</f>
+        <f t="shared" si="28"/>
         <v>0.22999999999999993</v>
       </c>
       <c r="X31" s="1">
-        <f>F7-O30</f>
+        <f t="shared" si="28"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="Y31" s="1">
-        <f>G7-P30</f>
+        <f t="shared" si="28"/>
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="Z31" s="1">
-        <f>H7-Q30</f>
+        <f t="shared" si="28"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="AA31" s="1">
-        <f>I7-R30</f>
+        <f t="shared" si="28"/>
         <v>-6.9999999999999951E-2</v>
       </c>
     </row>
@@ -2247,31 +2247,31 @@
         <v>3</v>
       </c>
       <c r="U32" s="1">
-        <f>C16-L39</f>
+        <f t="shared" ref="U32:AA32" si="29">C16-L39</f>
         <v>0.11000000000000004</v>
       </c>
       <c r="V32" s="1">
-        <f>D16-M39</f>
+        <f t="shared" si="29"/>
         <v>-8.0000000000000071E-2</v>
       </c>
       <c r="W32" s="1">
-        <f>E16-N39</f>
+        <f t="shared" si="29"/>
         <v>5.9999999999999942E-2</v>
       </c>
       <c r="X32" s="1">
-        <f>F16-O39</f>
+        <f t="shared" si="29"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Y32" s="1">
-        <f>G16-P39</f>
+        <f t="shared" si="29"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Z32" s="1">
-        <f>H16-Q39</f>
+        <f t="shared" si="29"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="AA32" s="1">
-        <f>I16-R39</f>
+        <f t="shared" si="29"/>
         <v>-8.9999999999999969E-2</v>
       </c>
     </row>
@@ -2284,58 +2284,58 @@
         <v>0.48200000000000004</v>
       </c>
       <c r="M33" s="2">
-        <f t="shared" ref="M33:R33" si="18">SUM(M28:M32)/COUNT(M28:M32)</f>
+        <f t="shared" ref="M33:R33" si="30">SUM(M28:M32)/COUNT(M28:M32)</f>
         <v>0.64800000000000002</v>
       </c>
       <c r="N33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.52600000000000002</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.93399999999999994</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.95</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.51200000000000001</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.65400000000000003</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U33" s="1">
-        <f>C8-L31</f>
+        <f t="shared" ref="U33:AA33" si="31">C8-L31</f>
         <v>0.76</v>
       </c>
       <c r="V33" s="1">
-        <f>D8-M31</f>
+        <f t="shared" si="31"/>
         <v>0.73</v>
       </c>
       <c r="W33" s="1">
-        <f>E8-N31</f>
+        <f t="shared" si="31"/>
         <v>0.74</v>
       </c>
       <c r="X33" s="1">
-        <f>F8-O31</f>
+        <f t="shared" si="31"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="Y33" s="1">
-        <f>G8-P31</f>
+        <f t="shared" si="31"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Z33" s="1">
-        <f>H8-Q31</f>
+        <f t="shared" si="31"/>
         <v>0.78</v>
       </c>
       <c r="AA33" s="1">
-        <f>I8-R31</f>
+        <f t="shared" si="31"/>
         <v>0.8</v>
       </c>
     </row>
@@ -2375,31 +2375,31 @@
         <v>5</v>
       </c>
       <c r="U34" s="1">
-        <f>C17-L40</f>
+        <f t="shared" ref="U34:AA34" si="32">C17-L40</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="V34" s="1">
-        <f>D17-M40</f>
+        <f t="shared" si="32"/>
         <v>0.12</v>
       </c>
       <c r="W34" s="1">
-        <f>E17-N40</f>
+        <f t="shared" si="32"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="X34" s="1">
-        <f>F17-O40</f>
+        <f t="shared" si="32"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Y34" s="1">
-        <f>G17-P40</f>
+        <f t="shared" si="32"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="Z34" s="1">
-        <f>H17-Q40</f>
+        <f t="shared" si="32"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AA34" s="1">
-        <f>I17-R40</f>
+        <f t="shared" si="32"/>
         <v>0.29000000000000004</v>
       </c>
     </row>
@@ -2408,31 +2408,31 @@
         <v>7</v>
       </c>
       <c r="U35" s="1">
-        <f>C9-L32</f>
+        <f t="shared" ref="U35:AA35" si="33">C9-L32</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="V35" s="1">
-        <f>D9-M32</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <f>E9-N32</f>
+        <f t="shared" si="33"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="X35" s="1">
-        <f>F9-O32</f>
+        <f t="shared" si="33"/>
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="Y35" s="1">
-        <f>G9-P32</f>
+        <f t="shared" si="33"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="Z35" s="1">
-        <f>H9-Q32</f>
+        <f t="shared" si="33"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="AA35" s="1">
-        <f>I9-R32</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2444,31 +2444,31 @@
         <v>8</v>
       </c>
       <c r="U36" s="9">
-        <f>C18-L41</f>
+        <f t="shared" ref="U36:AA36" si="34">C18-L41</f>
         <v>0.21999999999999997</v>
       </c>
       <c r="V36" s="5">
-        <f>D18-M41</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W36" s="5">
-        <f>E18-N41</f>
+        <f t="shared" si="34"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="X36" s="5">
-        <f>F18-O41</f>
+        <f t="shared" si="34"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="Y36" s="5">
-        <f>G18-P41</f>
+        <f t="shared" si="34"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="Z36" s="5">
-        <f>H18-Q41</f>
+        <f t="shared" si="34"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="AA36" s="5">
-        <f>I18-R41</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2501,31 +2501,31 @@
         <v>44</v>
       </c>
       <c r="U37" s="1">
-        <f>C10-L33</f>
+        <f t="shared" ref="U37:AA38" si="35">C10-L33</f>
         <v>0.38599999999999995</v>
       </c>
       <c r="V37" s="1">
-        <f>D10-M33</f>
+        <f t="shared" si="35"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="W37" s="1">
-        <f>E10-N33</f>
+        <f t="shared" si="35"/>
         <v>0.29600000000000004</v>
       </c>
       <c r="X37" s="1">
-        <f>F10-O33</f>
+        <f t="shared" si="35"/>
         <v>4.599999999999993E-2</v>
       </c>
       <c r="Y37" s="1">
-        <f>G10-P33</f>
+        <f t="shared" si="35"/>
         <v>3.7999999999999923E-2</v>
       </c>
       <c r="Z37" s="1">
-        <f>H10-Q33</f>
+        <f t="shared" si="35"/>
         <v>0.30799999999999994</v>
       </c>
       <c r="AA37" s="1">
-        <f>I10-R33</f>
+        <f t="shared" si="35"/>
         <v>0.29799999999999993</v>
       </c>
     </row>
@@ -2558,31 +2558,31 @@
         <v>47</v>
       </c>
       <c r="U38" s="1">
-        <f>C11-L34</f>
+        <f t="shared" si="35"/>
         <v>0.43602272727272717</v>
       </c>
       <c r="V38" s="1">
-        <f>D11-M34</f>
+        <f t="shared" si="35"/>
         <v>0.22704545454545444</v>
       </c>
       <c r="W38" s="1">
-        <f>E11-N34</f>
+        <f t="shared" si="35"/>
         <v>0.36045454545454536</v>
       </c>
       <c r="X38" s="1">
-        <f>F11-O34</f>
+        <f t="shared" si="35"/>
         <v>4.9772727272727302E-2</v>
       </c>
       <c r="Y38" s="1">
-        <f>G11-P34</f>
+        <f t="shared" si="35"/>
         <v>3.670454545454549E-2</v>
       </c>
       <c r="Z38" s="1">
-        <f>H11-Q34</f>
+        <f t="shared" si="35"/>
         <v>0.36812500000000004</v>
       </c>
       <c r="AA38" s="1">
-        <f>I11-R34</f>
+        <f t="shared" si="35"/>
         <v>0.33852272727272736</v>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" ref="M42" si="19">SUM(M38:M41)/COUNT(M38:M41)</f>
+        <f t="shared" ref="M42" si="36">SUM(M38:M41)/COUNT(M38:M41)</f>
         <v>0.73750000000000004</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" ref="N42" si="20">SUM(N38:N41)/COUNT(N38:N41)</f>
+        <f t="shared" ref="N42" si="37">SUM(N38:N41)/COUNT(N38:N41)</f>
         <v>0.63250000000000006</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" ref="O42" si="21">SUM(O38:O41)/COUNT(O38:O41)</f>
+        <f t="shared" ref="O42" si="38">SUM(O38:O41)/COUNT(O38:O41)</f>
         <v>0.9474999999999999</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" ref="P42" si="22">SUM(P38:P41)/COUNT(P38:P41)</f>
+        <f t="shared" ref="P42" si="39">SUM(P38:P41)/COUNT(P38:P41)</f>
         <v>0.9524999999999999</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" ref="Q42" si="23">SUM(Q38:Q41)/COUNT(Q38:Q41)</f>
+        <f t="shared" ref="Q42" si="40">SUM(Q38:Q41)/COUNT(Q38:Q41)</f>
         <v>0.62250000000000005</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" ref="R42" si="24">SUM(R38:R41)/COUNT(R38:R41)</f>
+        <f t="shared" ref="R42" si="41">SUM(R38:R41)/COUNT(R38:R41)</f>
         <v>0.76750000000000007</v>
       </c>
       <c r="T42" s="10"/>
@@ -2747,27 +2747,27 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" ref="M45:R45" si="25">(SUM(M28:M32)+SUM(M38:M41))/(COUNT(M28:M32)+COUNT(M38:M41))</f>
+        <f t="shared" ref="M45:R45" si="42">(SUM(M28:M32)+SUM(M38:M41))/(COUNT(M28:M32)+COUNT(M38:M41))</f>
         <v>0.68777777777777782</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0.57333333333333336</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0.94</v>
       </c>
       <c r="P45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0.95111111111111102</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0.56111111111111123</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0.70444444444444443</v>
       </c>
       <c r="T45" s="10"/>
@@ -2973,31 +2973,31 @@
         <v>0</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" ref="U52:U62" si="26">C52-L52</f>
+        <f t="shared" ref="U52:U53" si="43">C52-L52</f>
         <v>0.06</v>
       </c>
       <c r="V52" s="1">
-        <f t="shared" ref="V52:V62" si="27">D52-M52</f>
+        <f t="shared" ref="V52:V53" si="44">D52-M52</f>
         <v>-0.14000000000000001</v>
       </c>
       <c r="W52" s="1">
-        <f t="shared" ref="W52:W62" si="28">E52-N52</f>
+        <f t="shared" ref="W52:W53" si="45">E52-N52</f>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" ref="X52:X62" si="29">F52-O52</f>
+        <f t="shared" ref="X52:X53" si="46">F52-O52</f>
         <v>0.20999999999999996</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" ref="Y52:Y62" si="30">G52-P52</f>
+        <f t="shared" ref="Y52:Y53" si="47">G52-P52</f>
         <v>0.23999999999999994</v>
       </c>
       <c r="Z52" s="1">
-        <f t="shared" ref="Z52:Z62" si="31">H52-Q52</f>
+        <f t="shared" ref="Z52:Z53" si="48">H52-Q52</f>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="AA52" s="1">
-        <f t="shared" ref="AA52:AA62" si="32">I52-R52</f>
+        <f t="shared" ref="AA52:AA53" si="49">I52-R52</f>
         <v>-0.15999999999999992</v>
       </c>
     </row>
@@ -3054,31 +3054,31 @@
         <v>1</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="43"/>
         <v>0.84</v>
       </c>
       <c r="V53" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="45"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="X53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>0.59</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="47"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="48"/>
         <v>0.78</v>
       </c>
       <c r="AA53" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="49"/>
         <v>0.79999999999999993</v>
       </c>
     </row>
@@ -3135,31 +3135,31 @@
         <v>6</v>
       </c>
       <c r="U54" s="1">
-        <f>C62-L62</f>
+        <f t="shared" ref="U54:AA54" si="50">C62-L62</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V54" s="1">
-        <f>D62-M62</f>
+        <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
       <c r="W54" s="1">
-        <f>E62-N62</f>
+        <f t="shared" si="50"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="X54" s="1">
-        <f>F62-O62</f>
+        <f t="shared" si="50"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Y54" s="1">
-        <f>G62-P62</f>
+        <f t="shared" si="50"/>
         <v>-8.0000000000000016E-2</v>
       </c>
       <c r="Z54" s="1">
-        <f>H62-Q62</f>
+        <f t="shared" si="50"/>
         <v>0.2</v>
       </c>
       <c r="AA54" s="1">
-        <f>I62-R62</f>
+        <f t="shared" si="50"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -3216,31 +3216,31 @@
         <v>2</v>
       </c>
       <c r="U55" s="1">
-        <f>C54-L54</f>
+        <f t="shared" ref="U55:AA55" si="51">C54-L54</f>
         <v>0.15</v>
       </c>
       <c r="V55" s="1">
-        <f>D54-M54</f>
+        <f t="shared" si="51"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="W55" s="1">
-        <f>E54-N54</f>
+        <f t="shared" si="51"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="X55" s="1">
-        <f>F54-O54</f>
+        <f t="shared" si="51"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Y55" s="1">
-        <f>G54-P54</f>
+        <f t="shared" si="51"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="Z55" s="1">
-        <f>H54-Q54</f>
+        <f t="shared" si="51"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="AA55" s="1">
-        <f>I54-R54</f>
+        <f t="shared" si="51"/>
         <v>1.05</v>
       </c>
     </row>
@@ -3297,31 +3297,31 @@
         <v>3</v>
       </c>
       <c r="U56" s="1">
-        <f>C63-L63</f>
+        <f t="shared" ref="U56:AA56" si="52">C63-L63</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="V56" s="1">
-        <f>D63-M63</f>
+        <f t="shared" si="52"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="W56" s="1">
-        <f>E63-N63</f>
+        <f t="shared" si="52"/>
         <v>0.19</v>
       </c>
       <c r="X56" s="1">
-        <f>F63-O63</f>
+        <f t="shared" si="52"/>
         <v>0.61</v>
       </c>
       <c r="Y56" s="1">
-        <f>G63-P63</f>
+        <f t="shared" si="52"/>
         <v>0.64</v>
       </c>
       <c r="Z56" s="1">
-        <f>H63-Q63</f>
+        <f t="shared" si="52"/>
         <v>0.3</v>
       </c>
       <c r="AA56" s="1">
-        <f>I63-R63</f>
+        <f t="shared" si="52"/>
         <v>0.94</v>
       </c>
     </row>
@@ -3334,27 +3334,27 @@
         <v>0.64799999999999991</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" ref="D57:I57" si="33">SUM(D52:D56)/COUNT(D52:D56)</f>
+        <f t="shared" ref="D57:I57" si="53">SUM(D52:D56)/COUNT(D52:D56)</f>
         <v>0.63</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0.45400000000000001</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0.86399999999999988</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0.90600000000000003</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0.49800000000000005</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>0.79799999999999993</v>
       </c>
       <c r="K57" s="8" t="s">
@@ -3365,58 +3365,58 @@
         <v>0.10400000000000001</v>
       </c>
       <c r="M57" s="2">
-        <f t="shared" ref="M57" si="34">SUM(M52:M56)/COUNT(M52:M56)</f>
+        <f t="shared" ref="M57" si="54">SUM(M52:M56)/COUNT(M52:M56)</f>
         <v>0.61</v>
       </c>
       <c r="N57" s="2">
-        <f t="shared" ref="N57" si="35">SUM(N52:N56)/COUNT(N52:N56)</f>
+        <f t="shared" ref="N57" si="55">SUM(N52:N56)/COUNT(N52:N56)</f>
         <v>0.158</v>
       </c>
       <c r="O57" s="2">
-        <f t="shared" ref="O57" si="36">SUM(O52:O56)/COUNT(O52:O56)</f>
+        <f t="shared" ref="O57" si="56">SUM(O52:O56)/COUNT(O52:O56)</f>
         <v>0.45999999999999996</v>
       </c>
       <c r="P57" s="2">
-        <f t="shared" ref="P57" si="37">SUM(P52:P56)/COUNT(P52:P56)</f>
+        <f t="shared" ref="P57" si="57">SUM(P52:P56)/COUNT(P52:P56)</f>
         <v>0.43200000000000005</v>
       </c>
       <c r="Q57" s="2">
-        <f t="shared" ref="Q57" si="38">SUM(Q52:Q56)/COUNT(Q52:Q56)</f>
+        <f t="shared" ref="Q57" si="58">SUM(Q52:Q56)/COUNT(Q52:Q56)</f>
         <v>1.7999999999999995E-2</v>
       </c>
       <c r="R57" s="2">
-        <f t="shared" ref="R57" si="39">SUM(R52:R56)/COUNT(R52:R56)</f>
+        <f t="shared" ref="R57" si="59">SUM(R52:R56)/COUNT(R52:R56)</f>
         <v>0.14799999999999996</v>
       </c>
       <c r="T57" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U57" s="1">
-        <f>C55-L55</f>
+        <f t="shared" ref="U57:AA57" si="60">C55-L55</f>
         <v>0.81</v>
       </c>
       <c r="V57" s="1">
-        <f>D55-M55</f>
+        <f t="shared" si="60"/>
         <v>-0.19</v>
       </c>
       <c r="W57" s="1">
-        <f>E55-N55</f>
+        <f t="shared" si="60"/>
         <v>0.28999999999999998</v>
       </c>
       <c r="X57" s="1">
-        <f>F55-O55</f>
+        <f t="shared" si="60"/>
         <v>0.30999999999999994</v>
       </c>
       <c r="Y57" s="1">
-        <f>G55-P55</f>
+        <f t="shared" si="60"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="Z57" s="1">
-        <f>H55-Q55</f>
+        <f t="shared" si="60"/>
         <v>0.49000000000000005</v>
       </c>
       <c r="AA57" s="1">
-        <f>I55-R55</f>
+        <f t="shared" si="60"/>
         <v>0.42000000000000004</v>
       </c>
     </row>
@@ -3487,31 +3487,31 @@
         <v>5</v>
       </c>
       <c r="U58" s="1">
-        <f>C64-L64</f>
+        <f t="shared" ref="U58:AA58" si="61">C64-L64</f>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="V58" s="1">
-        <f>D64-M64</f>
+        <f t="shared" si="61"/>
         <v>-0.79</v>
       </c>
       <c r="W58" s="1">
-        <f>E64-N64</f>
+        <f t="shared" si="61"/>
         <v>-9.0000000000000011E-2</v>
       </c>
       <c r="X58" s="1">
-        <f>F64-O64</f>
+        <f t="shared" si="61"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="Y58" s="1">
-        <f>G64-P64</f>
+        <f t="shared" si="61"/>
         <v>0.54</v>
       </c>
       <c r="Z58" s="1">
-        <f>H64-Q64</f>
+        <f t="shared" si="61"/>
         <v>-0.11</v>
       </c>
       <c r="AA58" s="1">
-        <f>I64-R64</f>
+        <f t="shared" si="61"/>
         <v>-0.87</v>
       </c>
     </row>
@@ -3520,31 +3520,31 @@
         <v>7</v>
       </c>
       <c r="U59" s="1">
-        <f>C56-L56</f>
+        <f t="shared" ref="U59:AA59" si="62">C56-L56</f>
         <v>0.86</v>
       </c>
       <c r="V59" s="1">
-        <f>D56-M56</f>
+        <f t="shared" si="62"/>
         <v>0.27</v>
       </c>
       <c r="W59" s="1">
-        <f>E56-N56</f>
+        <f t="shared" si="62"/>
         <v>0.3</v>
       </c>
       <c r="X59" s="1">
-        <f>F56-O56</f>
+        <f t="shared" si="62"/>
         <v>0.36</v>
       </c>
       <c r="Y59" s="1">
-        <f>G56-P56</f>
+        <f t="shared" si="62"/>
         <v>0.35</v>
       </c>
       <c r="Z59" s="1">
-        <f>H56-Q56</f>
+        <f t="shared" si="62"/>
         <v>0.75</v>
       </c>
       <c r="AA59" s="1">
-        <f>I56-R56</f>
+        <f t="shared" si="62"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
@@ -3575,31 +3575,31 @@
         <v>8</v>
       </c>
       <c r="U60" s="5">
-        <f>C65-L65</f>
+        <f t="shared" ref="U60:AA60" si="63">C65-L65</f>
         <v>0.15</v>
       </c>
       <c r="V60" s="5">
-        <f>D65-M65</f>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W60" s="5">
-        <f>E65-N65</f>
+        <f t="shared" si="63"/>
         <v>0.06</v>
       </c>
       <c r="X60" s="5">
-        <f>F65-O65</f>
+        <f t="shared" si="63"/>
         <v>0.35</v>
       </c>
       <c r="Y60" s="5">
-        <f>G65-P65</f>
+        <f t="shared" si="63"/>
         <v>0.53</v>
       </c>
       <c r="Z60" s="5">
-        <f>H65-Q65</f>
+        <f t="shared" si="63"/>
         <v>0.25</v>
       </c>
       <c r="AA60" s="5">
-        <f>I65-R65</f>
+        <f t="shared" si="63"/>
         <v>0.73</v>
       </c>
     </row>
@@ -3656,31 +3656,31 @@
         <v>44</v>
       </c>
       <c r="U61" s="1">
-        <f>C57-L57</f>
+        <f t="shared" ref="U61:AA62" si="64">C57-L57</f>
         <v>0.54399999999999993</v>
       </c>
       <c r="V61" s="1">
-        <f>D57-M57</f>
+        <f t="shared" si="64"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="W61" s="1">
-        <f>E57-N57</f>
+        <f t="shared" si="64"/>
         <v>0.29600000000000004</v>
       </c>
       <c r="X61" s="1">
-        <f>F57-O57</f>
+        <f t="shared" si="64"/>
         <v>0.40399999999999991</v>
       </c>
       <c r="Y61" s="1">
-        <f>G57-P57</f>
+        <f t="shared" si="64"/>
         <v>0.47399999999999998</v>
       </c>
       <c r="Z61" s="1">
-        <f>H57-Q57</f>
+        <f t="shared" si="64"/>
         <v>0.48000000000000004</v>
       </c>
       <c r="AA61" s="1">
-        <f>I57-R57</f>
+        <f t="shared" si="64"/>
         <v>0.64999999999999991</v>
       </c>
     </row>
@@ -3737,31 +3737,31 @@
         <v>47</v>
       </c>
       <c r="U62" s="1">
-        <f>C58-L58</f>
+        <f t="shared" si="64"/>
         <v>0.50863636363636355</v>
       </c>
       <c r="V62" s="1">
-        <f>D58-M58</f>
+        <f t="shared" si="64"/>
         <v>-6.1363636363637175E-3</v>
       </c>
       <c r="W62" s="1">
-        <f>E58-N58</f>
+        <f t="shared" si="64"/>
         <v>0.28255681818181821</v>
       </c>
       <c r="X62" s="1">
-        <f>F58-O58</f>
+        <f t="shared" si="64"/>
         <v>0.40977272727272729</v>
       </c>
       <c r="Y62" s="1">
-        <f>G58-P58</f>
+        <f t="shared" si="64"/>
         <v>0.49971590909090891</v>
       </c>
       <c r="Z62" s="1">
-        <f>H58-Q58</f>
+        <f t="shared" si="64"/>
         <v>0.44312500000000005</v>
       </c>
       <c r="AA62" s="1">
-        <f>I58-R58</f>
+        <f t="shared" si="64"/>
         <v>0.63534090909090923</v>
       </c>
     </row>
@@ -3924,27 +3924,27 @@
         <v>0.16</v>
       </c>
       <c r="D66" s="2">
-        <f t="shared" ref="D66:I66" si="40">SUM(D62:D65)/COUNT(D62:D65)</f>
+        <f t="shared" ref="D66:I66" si="65">SUM(D62:D65)/COUNT(D62:D65)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>0.2</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>0.65499999999999992</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>0.7024999999999999</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>8.500000000000002E-2</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="65"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="K66" s="8" t="s">
@@ -3955,27 +3955,27 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="M66" s="2">
-        <f t="shared" ref="M66" si="41">SUM(M62:M65)/COUNT(M62:M65)</f>
+        <f t="shared" ref="M66" si="66">SUM(M62:M65)/COUNT(M62:M65)</f>
         <v>0.55249999999999988</v>
       </c>
       <c r="N66" s="2">
-        <f t="shared" ref="N66" si="42">SUM(N62:N65)/COUNT(N62:N65)</f>
+        <f t="shared" ref="N66" si="67">SUM(N62:N65)/COUNT(N62:N65)</f>
         <v>0.13</v>
       </c>
       <c r="O66" s="2">
-        <f t="shared" ref="O66" si="43">SUM(O62:O65)/COUNT(O62:O65)</f>
+        <f t="shared" ref="O66" si="68">SUM(O62:O65)/COUNT(O62:O65)</f>
         <v>0.31</v>
       </c>
       <c r="P66" s="2">
-        <f t="shared" ref="P66" si="44">SUM(P62:P65)/COUNT(P62:P65)</f>
+        <f t="shared" ref="P66" si="69">SUM(P62:P65)/COUNT(P62:P65)</f>
         <v>0.29499999999999998</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" ref="Q66" si="45">SUM(Q62:Q65)/COUNT(Q62:Q65)</f>
+        <f t="shared" ref="Q66" si="70">SUM(Q62:Q65)/COUNT(Q62:Q65)</f>
         <v>-7.5000000000000011E-2</v>
       </c>
       <c r="R66" s="2">
-        <f t="shared" ref="R66" si="46">SUM(R62:R65)/COUNT(R62:R65)</f>
+        <f t="shared" ref="R66" si="71">SUM(R62:R65)/COUNT(R62:R65)</f>
         <v>-0.12999999999999998</v>
       </c>
     </row>
@@ -4052,27 +4052,27 @@
         <v>0.43111111111111111</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" ref="D69:I69" si="47">(SUM(D52:D56)+SUM(D62:D65))/(COUNT(D52:D56)+COUNT(D62:D65))</f>
+        <f t="shared" ref="D69:I69" si="72">(SUM(D52:D56)+SUM(D62:D65))/(COUNT(D52:D56)+COUNT(D62:D65))</f>
         <v>0.56111111111111112</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="72"/>
         <v>0.34111111111111114</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="72"/>
         <v>0.77111111111111108</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="72"/>
         <v>0.81555555555555559</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="72"/>
         <v>0.31444444444444447</v>
       </c>
       <c r="I69" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="72"/>
         <v>0.60333333333333328</v>
       </c>
       <c r="K69" s="7" t="s">
@@ -4083,27 +4083,27 @@
         <v>9.1111111111111115E-2</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" ref="M69:R69" si="48">(SUM(M52:M56)+SUM(M62:M65))/(COUNT(M52:M56)+COUNT(M62:M65))</f>
+        <f t="shared" ref="M69:R69" si="73">(SUM(M52:M56)+SUM(M62:M65))/(COUNT(M52:M56)+COUNT(M62:M65))</f>
         <v>0.58444444444444443</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>0.14555555555555555</v>
       </c>
       <c r="O69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>0.39333333333333331</v>
       </c>
       <c r="P69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>0.37111111111111111</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>-2.3333333333333341E-2</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="73"/>
         <v>2.4444444444444442E-2</v>
       </c>
     </row>
@@ -4288,62 +4288,62 @@
         <v>0</v>
       </c>
       <c r="L74" s="1">
-        <f>C52-C74</f>
+        <f t="shared" ref="L74:R75" si="74">C52-C74</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="M74" s="1">
-        <f>D52-D74</f>
+        <f t="shared" si="74"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="N74" s="1">
-        <f>E52-E74</f>
+        <f t="shared" si="74"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O74" s="1">
-        <f>F52-F74</f>
+        <f t="shared" si="74"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="P74" s="1">
-        <f>G52-G74</f>
+        <f t="shared" si="74"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="Q74" s="1">
-        <f>H52-H74</f>
+        <f t="shared" si="74"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="R74" s="1">
-        <f>I52-I74</f>
+        <f t="shared" si="74"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T74" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U74" s="1">
-        <f>C97-L$52</f>
+        <f t="shared" ref="U74:AA74" si="75">C97-L$52</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V74" s="1">
-        <f>D97-M$52</f>
+        <f t="shared" si="75"/>
         <v>-7.0000000000000062E-2</v>
       </c>
       <c r="W74" s="1">
-        <f>E97-N$52</f>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="X74" s="1">
-        <f>F97-O$52</f>
+        <f t="shared" si="75"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Y74" s="1">
-        <f>G97-P$52</f>
+        <f t="shared" si="75"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="Z74" s="1">
-        <f>H97-Q$52</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="AA74" s="1">
-        <f>I97-R$52</f>
+        <f t="shared" si="75"/>
         <v>-0.12</v>
       </c>
     </row>
@@ -4376,62 +4376,62 @@
         <v>1</v>
       </c>
       <c r="L75" s="1">
-        <f>C53-C75</f>
+        <f t="shared" si="74"/>
         <v>0.64999999999999991</v>
       </c>
       <c r="M75" s="1">
-        <f>D53-D75</f>
+        <f t="shared" si="74"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="N75" s="1">
-        <f>E53-E75</f>
+        <f t="shared" si="74"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="O75" s="1">
-        <f>F53-F75</f>
+        <f t="shared" si="74"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="P75" s="1">
-        <f>G53-G75</f>
+        <f t="shared" si="74"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="Q75" s="1">
-        <f>H53-H75</f>
+        <f t="shared" si="74"/>
         <v>0.5</v>
       </c>
       <c r="R75" s="1">
-        <f>I53-I75</f>
+        <f t="shared" si="74"/>
         <v>0.27999999999999992</v>
       </c>
       <c r="T75" s="7" t="s">
         <v>1</v>
       </c>
       <c r="U75" s="1">
-        <f>C98-L$53</f>
+        <f t="shared" ref="U75:AA75" si="76">C98-L$53</f>
         <v>0.11000000000000001</v>
       </c>
       <c r="V75" s="1">
-        <f>D98-M$53</f>
+        <f t="shared" si="76"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="W75" s="1">
-        <f>E98-N$53</f>
+        <f t="shared" si="76"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="X75" s="1">
-        <f>F98-O$53</f>
+        <f t="shared" si="76"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="Y75" s="1">
-        <f>G98-P$53</f>
+        <f t="shared" si="76"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="Z75" s="1">
-        <f>H98-Q$53</f>
+        <f t="shared" si="76"/>
         <v>0.17</v>
       </c>
       <c r="AA75" s="1">
-        <f>I98-R$53</f>
+        <f t="shared" si="76"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -4464,62 +4464,62 @@
         <v>6</v>
       </c>
       <c r="L76" s="1">
-        <f>C62-C84</f>
+        <f t="shared" ref="L76:R76" si="77">C62-C84</f>
         <v>0</v>
       </c>
       <c r="M76" s="1">
-        <f>D62-D84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f>E62-E84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O76" s="1">
-        <f>F62-F84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="P76" s="1">
-        <f>G62-G84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <f>H62-H84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="R76" s="1">
-        <f>I62-I84</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="T76" s="7" t="s">
         <v>6</v>
       </c>
       <c r="U76" s="1">
-        <f>C84-L$62</f>
+        <f t="shared" ref="U76:AA76" si="78">C84-L$62</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V76" s="1">
-        <f>D84-M$62</f>
+        <f t="shared" si="78"/>
         <v>0.5</v>
       </c>
       <c r="W76" s="1">
-        <f>E84-N$62</f>
+        <f t="shared" si="78"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="X76" s="1">
-        <f>F84-O$62</f>
+        <f t="shared" si="78"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Y76" s="1">
-        <f>G84-P$62</f>
+        <f t="shared" si="78"/>
         <v>-8.0000000000000016E-2</v>
       </c>
       <c r="Z76" s="1">
-        <f>H84-Q$62</f>
+        <f t="shared" si="78"/>
         <v>0.2</v>
       </c>
       <c r="AA76" s="1">
-        <f>I84-R$62</f>
+        <f t="shared" si="78"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -4552,62 +4552,62 @@
         <v>2</v>
       </c>
       <c r="L77" s="1">
-        <f>C54-C76</f>
+        <f t="shared" ref="L77:R77" si="79">C54-C76</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="M77" s="1">
-        <f>D54-D76</f>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f>E54-E76</f>
+        <f t="shared" si="79"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="O77" s="1">
-        <f>F54-F76</f>
+        <f t="shared" si="79"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="P77" s="1">
-        <f>G54-G76</f>
+        <f t="shared" si="79"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="Q77" s="1">
-        <f>H54-H76</f>
+        <f t="shared" si="79"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="R77" s="1">
-        <f>I54-I76</f>
+        <f t="shared" si="79"/>
         <v>3.9999999999999925E-2</v>
       </c>
       <c r="T77" s="7" t="s">
         <v>2</v>
       </c>
       <c r="U77" s="1">
-        <f>C76-L$54</f>
+        <f t="shared" ref="U77:AA77" si="80">C76-L$54</f>
         <v>0.08</v>
       </c>
       <c r="V77" s="1">
-        <f>D76-M$54</f>
+        <f t="shared" si="80"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="W77" s="1">
-        <f>E76-N$54</f>
+        <f t="shared" si="80"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="X77" s="1">
-        <f>F76-O$54</f>
+        <f t="shared" si="80"/>
         <v>0.44</v>
       </c>
       <c r="Y77" s="1">
-        <f>G76-P$54</f>
+        <f t="shared" si="80"/>
         <v>0.45</v>
       </c>
       <c r="Z77" s="1">
-        <f>H76-Q$54</f>
+        <f t="shared" si="80"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="AA77" s="1">
-        <f>I76-R$54</f>
+        <f t="shared" si="80"/>
         <v>1.01</v>
       </c>
     </row>
@@ -4640,62 +4640,62 @@
         <v>3</v>
       </c>
       <c r="L78" s="1">
-        <f>C63-C85</f>
+        <f t="shared" ref="L78:R78" si="81">C63-C85</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="M78" s="1">
-        <f>D63-D85</f>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N78" s="1">
-        <f>E63-E85</f>
+        <f t="shared" si="81"/>
         <v>0.03</v>
       </c>
       <c r="O78" s="1">
-        <f>F63-F85</f>
+        <f t="shared" si="81"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P78" s="1">
-        <f>G63-G85</f>
+        <f t="shared" si="81"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Q78" s="1">
-        <f>H63-H85</f>
+        <f t="shared" si="81"/>
         <v>0.03</v>
       </c>
       <c r="R78" s="1">
-        <f>I63-I85</f>
+        <f t="shared" si="81"/>
         <v>9.9999999999998979E-3</v>
       </c>
       <c r="T78" s="7" t="s">
         <v>3</v>
       </c>
       <c r="U78" s="1">
-        <f>C85-L$63</f>
+        <f t="shared" ref="U78:AA78" si="82">C85-L$63</f>
         <v>0.12</v>
       </c>
       <c r="V78" s="1">
-        <f>D85-M$63</f>
+        <f t="shared" si="82"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="W78" s="1">
-        <f>E85-N$63</f>
+        <f t="shared" si="82"/>
         <v>0.16</v>
       </c>
       <c r="X78" s="1">
-        <f>F85-O$63</f>
+        <f t="shared" si="82"/>
         <v>0.59</v>
       </c>
       <c r="Y78" s="1">
-        <f>G85-P$63</f>
+        <f t="shared" si="82"/>
         <v>0.61</v>
       </c>
       <c r="Z78" s="1">
-        <f>H85-Q$63</f>
+        <f t="shared" si="82"/>
         <v>0.27</v>
       </c>
       <c r="AA78" s="1">
-        <f>I85-R$63</f>
+        <f t="shared" si="82"/>
         <v>0.93</v>
       </c>
     </row>
@@ -4708,89 +4708,89 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="D79" s="2">
-        <f t="shared" ref="D79" si="49">SUM(D74:D78)/COUNT(D74:D78)</f>
+        <f t="shared" ref="D79" si="83">SUM(D74:D78)/COUNT(D74:D78)</f>
         <v>0.67200000000000004</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" ref="E79" si="50">SUM(E74:E78)/COUNT(E74:E78)</f>
+        <f t="shared" ref="E79" si="84">SUM(E74:E78)/COUNT(E74:E78)</f>
         <v>0.33399999999999996</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" ref="F79" si="51">SUM(F74:F78)/COUNT(F74:F78)</f>
+        <f t="shared" ref="F79" si="85">SUM(F74:F78)/COUNT(F74:F78)</f>
         <v>0.76200000000000001</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" ref="G79" si="52">SUM(G74:G78)/COUNT(G74:G78)</f>
+        <f t="shared" ref="G79" si="86">SUM(G74:G78)/COUNT(G74:G78)</f>
         <v>0.79</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" ref="H79" si="53">SUM(H74:H78)/COUNT(H74:H78)</f>
+        <f t="shared" ref="H79" si="87">SUM(H74:H78)/COUNT(H74:H78)</f>
         <v>0.31399999999999995</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" ref="I79" si="54">SUM(I74:I78)/COUNT(I74:I78)</f>
+        <f t="shared" ref="I79" si="88">SUM(I74:I78)/COUNT(I74:I78)</f>
         <v>0.70799999999999996</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L79" s="1">
-        <f>C55-C77</f>
+        <f t="shared" ref="L79:R79" si="89">C55-C77</f>
         <v>0.63</v>
       </c>
       <c r="M79" s="1">
-        <f>D55-D77</f>
+        <f t="shared" si="89"/>
         <v>-0.10000000000000003</v>
       </c>
       <c r="N79" s="1">
-        <f>E55-E77</f>
+        <f t="shared" si="89"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="O79" s="1">
-        <f>F55-F77</f>
+        <f t="shared" si="89"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="P79" s="1">
-        <f>G55-G77</f>
+        <f t="shared" si="89"/>
         <v>0.12</v>
       </c>
       <c r="Q79" s="1">
-        <f>H55-H77</f>
+        <f t="shared" si="89"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="R79" s="1">
-        <f>I55-I77</f>
+        <f t="shared" si="89"/>
         <v>0.17000000000000004</v>
       </c>
       <c r="T79" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U79" s="1">
-        <f>C77-L$55</f>
+        <f t="shared" ref="U79:AA79" si="90">C77-L$55</f>
         <v>0.18</v>
       </c>
       <c r="V79" s="1">
-        <f>D77-M$55</f>
+        <f t="shared" si="90"/>
         <v>-8.9999999999999969E-2</v>
       </c>
       <c r="W79" s="1">
-        <f>E77-N$55</f>
+        <f t="shared" si="90"/>
         <v>0.2</v>
       </c>
       <c r="X79" s="1">
-        <f>F77-O$55</f>
+        <f t="shared" si="90"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="Y79" s="1">
-        <f>G77-P$55</f>
+        <f t="shared" si="90"/>
         <v>0.43</v>
       </c>
       <c r="Z79" s="1">
-        <f>H77-Q$55</f>
+        <f t="shared" si="90"/>
         <v>0.21000000000000002</v>
       </c>
       <c r="AA79" s="1">
-        <f>I77-R$55</f>
+        <f t="shared" si="90"/>
         <v>0.24999999999999997</v>
       </c>
     </row>
@@ -4830,62 +4830,62 @@
         <v>5</v>
       </c>
       <c r="L80" s="1">
-        <f>C64-C86</f>
+        <f t="shared" ref="L80:R80" si="91">C64-C86</f>
         <v>0</v>
       </c>
       <c r="M80" s="1">
-        <f>D64-D86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f>E64-E86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="O80" s="1">
-        <f>F64-F86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="P80" s="1">
-        <f>G64-G86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <f>H64-H86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f>I64-I86</f>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T80" s="7" t="s">
         <v>5</v>
       </c>
       <c r="U80" s="1">
-        <f>C86-L$64</f>
+        <f t="shared" ref="U80:AA80" si="92">C86-L$64</f>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="V80" s="1">
-        <f>D86-M$64</f>
+        <f t="shared" si="92"/>
         <v>-0.79</v>
       </c>
       <c r="W80" s="1">
-        <f>E86-N$64</f>
+        <f t="shared" si="92"/>
         <v>-9.0000000000000011E-2</v>
       </c>
       <c r="X80" s="1">
-        <f>F86-O$64</f>
+        <f t="shared" si="92"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="Y80" s="1">
-        <f>G86-P$64</f>
+        <f t="shared" si="92"/>
         <v>0.54</v>
       </c>
       <c r="Z80" s="1">
-        <f>H86-Q$64</f>
+        <f t="shared" si="92"/>
         <v>-0.11</v>
       </c>
       <c r="AA80" s="1">
-        <f>I86-R$64</f>
+        <f t="shared" si="92"/>
         <v>-0.87</v>
       </c>
     </row>
@@ -4894,62 +4894,62 @@
         <v>7</v>
       </c>
       <c r="L81" s="1">
-        <f>C56-C78</f>
+        <f t="shared" ref="L81:R81" si="93">C56-C78</f>
         <v>0</v>
       </c>
       <c r="M81" s="1">
-        <f>D56-D78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f>E56-E78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O81" s="1">
-        <f>F56-F78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="P81" s="1">
-        <f>G56-G78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <f>H56-H78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <f>I56-I78</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="T81" s="7" t="s">
         <v>7</v>
       </c>
       <c r="U81" s="1">
-        <f>C78-L$56</f>
+        <f t="shared" ref="U81:AA81" si="94">C78-L$56</f>
         <v>0.86</v>
       </c>
       <c r="V81" s="1">
-        <f>D78-M$56</f>
+        <f t="shared" si="94"/>
         <v>0.27</v>
       </c>
       <c r="W81" s="1">
-        <f>E78-N$56</f>
+        <f t="shared" si="94"/>
         <v>0.3</v>
       </c>
       <c r="X81" s="1">
-        <f>F78-O$56</f>
+        <f t="shared" si="94"/>
         <v>0.36</v>
       </c>
       <c r="Y81" s="1">
-        <f>G78-P$56</f>
+        <f t="shared" si="94"/>
         <v>0.35</v>
       </c>
       <c r="Z81" s="1">
-        <f>H78-Q$56</f>
+        <f t="shared" si="94"/>
         <v>0.75</v>
       </c>
       <c r="AA81" s="1">
-        <f>I78-R$56</f>
+        <f t="shared" si="94"/>
         <v>1.1400000000000001</v>
       </c>
     </row>
@@ -4964,62 +4964,62 @@
         <v>8</v>
       </c>
       <c r="L82" s="9">
-        <f>C65-C87</f>
+        <f t="shared" ref="L82:R82" si="95">C65-C87</f>
         <v>0</v>
       </c>
       <c r="M82" s="5">
-        <f>D65-D87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="N82" s="5">
-        <f>E65-E87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="O82" s="5">
-        <f>F65-F87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="P82" s="5">
-        <f>G65-G87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="Q82" s="5">
-        <f>H65-H87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="R82" s="5">
-        <f>I65-I87</f>
+        <f t="shared" si="95"/>
         <v>0</v>
       </c>
       <c r="T82" s="4" t="s">
         <v>8</v>
       </c>
       <c r="U82" s="9">
-        <f>C87-L$65</f>
+        <f t="shared" ref="U82:AA82" si="96">C87-L$65</f>
         <v>0.15</v>
       </c>
       <c r="V82" s="5">
-        <f>D87-M$65</f>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W82" s="5">
-        <f>E87-N$65</f>
+        <f t="shared" si="96"/>
         <v>0.06</v>
       </c>
       <c r="X82" s="5">
-        <f>F87-O$65</f>
+        <f t="shared" si="96"/>
         <v>0.35</v>
       </c>
       <c r="Y82" s="5">
-        <f>G87-P$65</f>
+        <f t="shared" si="96"/>
         <v>0.53</v>
       </c>
       <c r="Z82" s="5">
-        <f>H87-Q$65</f>
+        <f t="shared" si="96"/>
         <v>0.25</v>
       </c>
       <c r="AA82" s="5">
-        <f>I87-R$65</f>
+        <f t="shared" si="96"/>
         <v>0.73</v>
       </c>
     </row>
@@ -5052,62 +5052,62 @@
         <v>44</v>
       </c>
       <c r="L83" s="1">
-        <f>C57-C79</f>
+        <f t="shared" ref="L83:R84" si="97">C57-C79</f>
         <v>0.27999999999999992</v>
       </c>
       <c r="M83" s="1">
-        <f>D57-D79</f>
+        <f t="shared" si="97"/>
         <v>-4.2000000000000037E-2</v>
       </c>
       <c r="N83" s="1">
-        <f>E57-E79</f>
+        <f t="shared" si="97"/>
         <v>0.12000000000000005</v>
       </c>
       <c r="O83" s="1">
-        <f>F57-F79</f>
+        <f t="shared" si="97"/>
         <v>0.10199999999999987</v>
       </c>
       <c r="P83" s="1">
-        <f>G57-G79</f>
+        <f t="shared" si="97"/>
         <v>0.11599999999999999</v>
       </c>
       <c r="Q83" s="1">
-        <f>H57-H79</f>
+        <f t="shared" si="97"/>
         <v>0.18400000000000011</v>
       </c>
       <c r="R83" s="1">
-        <f>I57-I79</f>
+        <f t="shared" si="97"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="T83" s="7" t="s">
         <v>44</v>
       </c>
       <c r="U83" s="1">
-        <f>C79-L$57</f>
+        <f t="shared" ref="U83:AA83" si="98">C79-L$57</f>
         <v>0.26400000000000001</v>
       </c>
       <c r="V83" s="1">
-        <f>D79-M$57</f>
+        <f t="shared" si="98"/>
         <v>6.2000000000000055E-2</v>
       </c>
       <c r="W83" s="1">
-        <f>E79-N$57</f>
+        <f t="shared" si="98"/>
         <v>0.17599999999999996</v>
       </c>
       <c r="X83" s="1">
-        <f>F79-O$57</f>
+        <f t="shared" si="98"/>
         <v>0.30200000000000005</v>
       </c>
       <c r="Y83" s="1">
-        <f>G79-P$57</f>
+        <f t="shared" si="98"/>
         <v>0.35799999999999998</v>
       </c>
       <c r="Z83" s="1">
-        <f>H79-Q$57</f>
+        <f t="shared" si="98"/>
         <v>0.29599999999999993</v>
       </c>
       <c r="AA83" s="1">
-        <f>I79-R$57</f>
+        <f t="shared" si="98"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -5140,62 +5140,62 @@
         <v>47</v>
       </c>
       <c r="L84" s="1">
-        <f>C58-C80</f>
+        <f t="shared" si="97"/>
         <v>0.31397727272727266</v>
       </c>
       <c r="M84" s="1">
-        <f>D58-D80</f>
+        <f t="shared" si="97"/>
         <v>-4.7215909090909114E-2</v>
       </c>
       <c r="N84" s="1">
-        <f>E58-E80</f>
+        <f t="shared" si="97"/>
         <v>0.11607954545454546</v>
       </c>
       <c r="O84" s="1">
-        <f>F58-F80</f>
+        <f t="shared" si="97"/>
         <v>0.10840909090909079</v>
       </c>
       <c r="P84" s="1">
-        <f>G58-G80</f>
+        <f t="shared" si="97"/>
         <v>0.12221590909090885</v>
       </c>
       <c r="Q84" s="1">
-        <f>H58-H80</f>
+        <f t="shared" si="97"/>
         <v>0.19323863636363642</v>
       </c>
       <c r="R84" s="1">
-        <f>I58-I80</f>
+        <f t="shared" si="97"/>
         <v>9.7954545454545516E-2</v>
       </c>
       <c r="T84" s="7" t="s">
         <v>47</v>
       </c>
       <c r="U84" s="1">
-        <f>C80-L$58</f>
+        <f t="shared" ref="U84:AA84" si="99">C80-L$58</f>
         <v>0.19465909090909089</v>
       </c>
       <c r="V84" s="1">
-        <f>D80-M$58</f>
+        <f t="shared" si="99"/>
         <v>4.1079545454545396E-2</v>
       </c>
       <c r="W84" s="1">
-        <f>E80-N$58</f>
+        <f t="shared" si="99"/>
         <v>0.16647727272727275</v>
       </c>
       <c r="X84" s="1">
-        <f>F80-O$58</f>
+        <f t="shared" si="99"/>
         <v>0.3013636363636365</v>
       </c>
       <c r="Y84" s="1">
-        <f>G80-P$58</f>
+        <f t="shared" si="99"/>
         <v>0.37750000000000006</v>
       </c>
       <c r="Z84" s="1">
-        <f>H80-Q$58</f>
+        <f t="shared" si="99"/>
         <v>0.24988636363636363</v>
       </c>
       <c r="AA84" s="1">
-        <f>I80-R$58</f>
+        <f t="shared" si="99"/>
         <v>0.53738636363636361</v>
       </c>
     </row>
@@ -5286,27 +5286,27 @@
         <v>0.155</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" ref="D88" si="55">SUM(D84:D87)/COUNT(D84:D87)</f>
+        <f t="shared" ref="D88" si="100">SUM(D84:D87)/COUNT(D84:D87)</f>
         <v>0.47499999999999998</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" ref="E88" si="56">SUM(E84:E87)/COUNT(E84:E87)</f>
+        <f t="shared" ref="E88" si="101">SUM(E84:E87)/COUNT(E84:E87)</f>
         <v>0.1925</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" ref="F88" si="57">SUM(F84:F87)/COUNT(F84:F87)</f>
+        <f t="shared" ref="F88" si="102">SUM(F84:F87)/COUNT(F84:F87)</f>
         <v>0.65</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" ref="G88" si="58">SUM(G84:G87)/COUNT(G84:G87)</f>
+        <f t="shared" ref="G88" si="103">SUM(G84:G87)/COUNT(G84:G87)</f>
         <v>0.69500000000000006</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" ref="H88" si="59">SUM(H84:H87)/COUNT(H84:H87)</f>
+        <f t="shared" ref="H88" si="104">SUM(H84:H87)/COUNT(H84:H87)</f>
         <v>7.7500000000000013E-2</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" ref="I88" si="60">SUM(I84:I87)/COUNT(I84:I87)</f>
+        <f t="shared" ref="I88" si="105">SUM(I84:I87)/COUNT(I84:I87)</f>
         <v>0.35749999999999998</v>
       </c>
     </row>
@@ -5352,27 +5352,27 @@
         <v>0.27333333333333332</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:I91" si="61">(SUM(D74:D78)+SUM(D84:D87))/(COUNT(D74:D78)+COUNT(D84:D87))</f>
+        <f t="shared" ref="D91:I91" si="106">(SUM(D74:D78)+SUM(D84:D87))/(COUNT(D74:D78)+COUNT(D84:D87))</f>
         <v>0.58444444444444443</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="106"/>
         <v>0.27111111111111108</v>
       </c>
       <c r="F91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="106"/>
         <v>0.7122222222222222</v>
       </c>
       <c r="G91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="106"/>
         <v>0.74777777777777787</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="106"/>
         <v>0.20888888888888887</v>
       </c>
       <c r="I91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="106"/>
         <v>0.55222222222222217</v>
       </c>
     </row>
@@ -5532,62 +5532,62 @@
         <v>0</v>
       </c>
       <c r="L97" s="1">
-        <f>C52-C97</f>
+        <f t="shared" ref="L97:R98" si="107">C52-C97</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="M97" s="1">
-        <f>D52-D97</f>
+        <f t="shared" si="107"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="N97" s="1">
-        <f>E52-E97</f>
+        <f t="shared" si="107"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O97" s="1">
-        <f>F52-F97</f>
+        <f t="shared" si="107"/>
         <v>0.1399999999999999</v>
       </c>
       <c r="P97" s="1">
-        <f>G52-G97</f>
+        <f t="shared" si="107"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="Q97" s="1">
-        <f>H52-H97</f>
+        <f t="shared" si="107"/>
         <v>5.0000000000000017E-2</v>
       </c>
       <c r="R97" s="1">
-        <f>I52-I97</f>
+        <f t="shared" si="107"/>
         <v>-3.9999999999999925E-2</v>
       </c>
       <c r="T97" s="7" t="s">
         <v>0</v>
       </c>
       <c r="U97" s="1">
-        <f>C97-L$52</f>
+        <f t="shared" ref="U97:AA97" si="108">C97-L$52</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V97" s="1">
-        <f>D97-M$52</f>
+        <f t="shared" si="108"/>
         <v>-7.0000000000000062E-2</v>
       </c>
       <c r="W97" s="1">
-        <f>E97-N$52</f>
+        <f t="shared" si="108"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="X97" s="1">
-        <f>F97-O$52</f>
+        <f t="shared" si="108"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Y97" s="1">
-        <f>G97-P$52</f>
+        <f t="shared" si="108"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="Z97" s="1">
-        <f>H97-Q$52</f>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="AA97" s="1">
-        <f>I97-R$52</f>
+        <f t="shared" si="108"/>
         <v>-0.12</v>
       </c>
     </row>
@@ -5620,62 +5620,62 @@
         <v>1</v>
       </c>
       <c r="L98" s="1">
-        <f>C53-C98</f>
+        <f t="shared" si="107"/>
         <v>0.73</v>
       </c>
       <c r="M98" s="1">
-        <f>D53-D98</f>
+        <f t="shared" si="107"/>
         <v>-4.0000000000000036E-2</v>
       </c>
       <c r="N98" s="1">
-        <f>E53-E98</f>
+        <f t="shared" si="107"/>
         <v>0.45</v>
       </c>
       <c r="O98" s="1">
-        <f>F53-F98</f>
+        <f t="shared" si="107"/>
         <v>0.27999999999999992</v>
       </c>
       <c r="P98" s="1">
-        <f>G53-G98</f>
+        <f t="shared" si="107"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="Q98" s="1">
-        <f>H53-H98</f>
+        <f t="shared" si="107"/>
         <v>0.6100000000000001</v>
       </c>
       <c r="R98" s="1">
-        <f>I53-I98</f>
+        <f t="shared" si="107"/>
         <v>0.35</v>
       </c>
       <c r="T98" s="7" t="s">
         <v>1</v>
       </c>
       <c r="U98" s="1">
-        <f>C98-L$53</f>
+        <f t="shared" ref="U98:AA98" si="109">C98-L$53</f>
         <v>0.11000000000000001</v>
       </c>
       <c r="V98" s="1">
-        <f>D98-M$53</f>
+        <f t="shared" si="109"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="W98" s="1">
-        <f>E98-N$53</f>
+        <f t="shared" si="109"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="X98" s="1">
-        <f>F98-O$53</f>
+        <f t="shared" si="109"/>
         <v>0.31000000000000005</v>
       </c>
       <c r="Y98" s="1">
-        <f>G98-P$53</f>
+        <f t="shared" si="109"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="Z98" s="1">
-        <f>H98-Q$53</f>
+        <f t="shared" si="109"/>
         <v>0.17</v>
       </c>
       <c r="AA98" s="1">
-        <f>I98-R$53</f>
+        <f t="shared" si="109"/>
         <v>0.44999999999999996</v>
       </c>
     </row>
@@ -5708,62 +5708,62 @@
         <v>6</v>
       </c>
       <c r="L99" s="1">
-        <f>C62-C107</f>
+        <f t="shared" ref="L99:R99" si="110">C62-C107</f>
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <f>D62-D107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="N99" s="1">
-        <f>E62-E107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="O99" s="1">
-        <f>F62-F107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="P99" s="1">
-        <f>G62-G107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="Q99" s="1">
-        <f>H62-H107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="R99" s="1">
-        <f>I62-I107</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>6</v>
       </c>
       <c r="U99" s="1">
-        <f>C107-L$62</f>
+        <f t="shared" ref="U99:AA99" si="111">C107-L$62</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="V99" s="1">
-        <f>D107-M$62</f>
+        <f t="shared" si="111"/>
         <v>0.5</v>
       </c>
       <c r="W99" s="1">
-        <f>E107-N$62</f>
+        <f t="shared" si="111"/>
         <v>0.12000000000000002</v>
       </c>
       <c r="X99" s="1">
-        <f>F107-O$62</f>
+        <f t="shared" si="111"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Y99" s="1">
-        <f>G107-P$62</f>
+        <f t="shared" si="111"/>
         <v>-8.0000000000000016E-2</v>
       </c>
       <c r="Z99" s="1">
-        <f>H107-Q$62</f>
+        <f t="shared" si="111"/>
         <v>0.2</v>
       </c>
       <c r="AA99" s="1">
-        <f>I107-R$62</f>
+        <f t="shared" si="111"/>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -5796,62 +5796,62 @@
         <v>2</v>
       </c>
       <c r="L100" s="1">
-        <f>C54-C99</f>
+        <f t="shared" ref="L100:R100" si="112">C54-C99</f>
         <v>6.9999999999999993E-2</v>
       </c>
       <c r="M100" s="1">
-        <f>D54-D99</f>
+        <f t="shared" si="112"/>
         <v>-7.999999999999996E-2</v>
       </c>
       <c r="N100" s="1">
-        <f>E54-E99</f>
+        <f t="shared" si="112"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="O100" s="1">
-        <f>F54-F99</f>
+        <f t="shared" si="112"/>
         <v>0.13</v>
       </c>
       <c r="P100" s="1">
-        <f>G54-G99</f>
+        <f t="shared" si="112"/>
         <v>0.13</v>
       </c>
       <c r="Q100" s="1">
-        <f>H54-H99</f>
+        <f t="shared" si="112"/>
         <v>6.9999999999999979E-2</v>
       </c>
       <c r="R100" s="1">
-        <f>I54-I99</f>
+        <f t="shared" si="112"/>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>2</v>
       </c>
       <c r="U100" s="1">
-        <f>C99-L$54</f>
+        <f t="shared" ref="U100:AA100" si="113">C99-L$54</f>
         <v>0.08</v>
       </c>
       <c r="V100" s="1">
-        <f>D99-M$54</f>
+        <f t="shared" si="113"/>
         <v>0.24</v>
       </c>
       <c r="W100" s="1">
-        <f>E99-N$54</f>
+        <f t="shared" si="113"/>
         <v>0.13</v>
       </c>
       <c r="X100" s="1">
-        <f>F99-O$54</f>
+        <f t="shared" si="113"/>
         <v>0.42</v>
       </c>
       <c r="Y100" s="1">
-        <f>G99-P$54</f>
+        <f t="shared" si="113"/>
         <v>0.43</v>
       </c>
       <c r="Z100" s="1">
-        <f>H99-Q$54</f>
+        <f t="shared" si="113"/>
         <v>0.26</v>
       </c>
       <c r="AA100" s="1">
-        <f>I99-R$54</f>
+        <f t="shared" si="113"/>
         <v>1.1100000000000001</v>
       </c>
     </row>
@@ -5884,62 +5884,62 @@
         <v>3</v>
       </c>
       <c r="L101" s="1">
-        <f>C63-C108</f>
+        <f t="shared" ref="L101:R101" si="114">C63-C108</f>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="M101" s="1">
-        <f>D63-D108</f>
+        <f t="shared" si="114"/>
         <v>-0.10999999999999999</v>
       </c>
       <c r="N101" s="1">
-        <f>E63-E108</f>
+        <f t="shared" si="114"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="O101" s="1">
-        <f>F63-F108</f>
+        <f t="shared" si="114"/>
         <v>6.9999999999999951E-2</v>
       </c>
       <c r="P101" s="1">
-        <f>G63-G108</f>
+        <f t="shared" si="114"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="Q101" s="1">
-        <f>H63-H108</f>
+        <f t="shared" si="114"/>
         <v>0.03</v>
       </c>
       <c r="R101" s="1">
-        <f>I63-I108</f>
+        <f t="shared" si="114"/>
         <v>-0.10000000000000009</v>
       </c>
       <c r="T101" s="7" t="s">
         <v>3</v>
       </c>
       <c r="U101" s="1">
-        <f>C108-L$63</f>
+        <f t="shared" ref="U101:AA101" si="115">C108-L$63</f>
         <v>0.1</v>
       </c>
       <c r="V101" s="1">
-        <f>D108-M$63</f>
+        <f t="shared" si="115"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="W101" s="1">
-        <f>E108-N$63</f>
+        <f t="shared" si="115"/>
         <v>0.15</v>
       </c>
       <c r="X101" s="1">
-        <f>F108-O$63</f>
+        <f t="shared" si="115"/>
         <v>0.54</v>
       </c>
       <c r="Y101" s="1">
-        <f>G108-P$63</f>
+        <f t="shared" si="115"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="Z101" s="1">
-        <f>H108-Q$63</f>
+        <f t="shared" si="115"/>
         <v>0.27</v>
       </c>
       <c r="AA101" s="1">
-        <f>I108-R$63</f>
+        <f t="shared" si="115"/>
         <v>1.04</v>
       </c>
     </row>
@@ -5948,93 +5948,93 @@
         <v>18</v>
       </c>
       <c r="C102" s="2">
-        <f ca="1">SUM(C97:C110)/COUNT(C97:C110)</f>
-        <v>0.19166666666666668</v>
+        <f>SUM(C97:C101)/COUNT(C97:C101)</f>
+        <v>0.20800000000000002</v>
       </c>
       <c r="D102" s="2">
-        <f ca="1">SUM(D97:D110)/COUNT(D97:D110)</f>
-        <v>0.59166666666666667</v>
+        <f t="shared" ref="D102:I102" si="116">SUM(D97:D101)/COUNT(D97:D101)</f>
+        <v>0.68799999999999994</v>
       </c>
       <c r="E102" s="2">
-        <f ca="1">SUM(E97:E110)/COUNT(E97:E110)</f>
-        <v>0.26166666666666666</v>
+        <f t="shared" si="116"/>
+        <v>0.29199999999999998</v>
       </c>
       <c r="F102" s="2">
-        <f ca="1">SUM(F97:F110)/COUNT(F97:F110)</f>
-        <v>0.64166666666666672</v>
+        <f t="shared" si="116"/>
+        <v>0.69600000000000006</v>
       </c>
       <c r="G102" s="2">
-        <f ca="1">SUM(G97:G110)/COUNT(G97:G110)</f>
-        <v>0.67166666666666675</v>
+        <f t="shared" si="116"/>
+        <v>0.71000000000000008</v>
       </c>
       <c r="H102" s="2">
-        <f ca="1">SUM(H97:H110)/COUNT(H97:H110)</f>
-        <v>0.13500000000000001</v>
+        <f t="shared" si="116"/>
+        <v>0.21200000000000002</v>
       </c>
       <c r="I102" s="2">
-        <f ca="1">SUM(I97:I110)/COUNT(I97:I110)</f>
-        <v>0.38666666666666666</v>
+        <f t="shared" si="116"/>
+        <v>0.55999999999999994</v>
       </c>
       <c r="K102" s="7" t="s">
         <v>4</v>
       </c>
       <c r="L102" s="1">
-        <f>C55-C100</f>
+        <f t="shared" ref="L102:R102" si="117">C55-C100</f>
         <v>0.69</v>
       </c>
       <c r="M102" s="1">
-        <f>D55-D100</f>
+        <f t="shared" si="117"/>
         <v>-0.10000000000000003</v>
       </c>
       <c r="N102" s="1">
-        <f>E55-E100</f>
+        <f t="shared" si="117"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="O102" s="1">
-        <f>F55-F100</f>
+        <f t="shared" si="117"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="P102" s="1">
-        <f>G55-G100</f>
+        <f t="shared" si="117"/>
         <v>0.17999999999999994</v>
       </c>
       <c r="Q102" s="1">
-        <f>H55-H100</f>
+        <f t="shared" si="117"/>
         <v>0.34</v>
       </c>
       <c r="R102" s="1">
-        <f>I55-I100</f>
+        <f t="shared" si="117"/>
         <v>0.21000000000000002</v>
       </c>
       <c r="T102" s="7" t="s">
         <v>4</v>
       </c>
       <c r="U102" s="1">
-        <f>C100-L$55</f>
+        <f t="shared" ref="U102:AA102" si="118">C100-L$55</f>
         <v>0.12000000000000001</v>
       </c>
       <c r="V102" s="1">
-        <f>D100-M$55</f>
+        <f t="shared" si="118"/>
         <v>-8.9999999999999969E-2</v>
       </c>
       <c r="W102" s="1">
-        <f>E100-N$55</f>
+        <f t="shared" si="118"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="X102" s="1">
-        <f>F100-O$55</f>
+        <f t="shared" si="118"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="Y102" s="1">
-        <f>G100-P$55</f>
+        <f t="shared" si="118"/>
         <v>0.37000000000000005</v>
       </c>
       <c r="Z102" s="1">
-        <f>H100-Q$55</f>
+        <f t="shared" si="118"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AA102" s="1">
-        <f>I100-R$55</f>
+        <f t="shared" si="118"/>
         <v>0.21</v>
       </c>
     </row>
@@ -6043,93 +6043,93 @@
         <v>19</v>
       </c>
       <c r="C103" s="1">
-        <f>(Info!$B$2*Results!C97+Info!$B$3*Results!C98+Info!$B$4*Results!C107+Info!$B$5*Results!C99+Info!$B$6*Results!C108+Info!$B$7*Results!C100+Info!$B$8*Results!C109+Info!$B$9*Results!C101+Info!$B$10*Results!C110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.16153846153846155</v>
+        <f>(Info!$B$2*Results!C97+Info!$B$3*Results!C98+Info!$B$5*Results!C99+Info!$B$7*Results!C100+Info!$B$9*Results!C101)/Info!$B$13</f>
+        <v>0.22060402684563757</v>
       </c>
       <c r="D103" s="1">
-        <f>(Info!$B$2*Results!D97+Info!$B$3*Results!D98+Info!$B$4*Results!D107+Info!$B$5*Results!D99+Info!$B$6*Results!D108+Info!$B$7*Results!D100+Info!$B$8*Results!D109+Info!$B$9*Results!D101+Info!$B$10*Results!D110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.68895384615384614</v>
+        <f>(Info!$B$2*Results!D97+Info!$B$3*Results!D98+Info!$B$5*Results!D99+Info!$B$7*Results!D100+Info!$B$9*Results!D101)/Info!$B$13</f>
+        <v>0.83194630872483222</v>
       </c>
       <c r="E103" s="1">
-        <f>(Info!$B$2*Results!E97+Info!$B$3*Results!E98+Info!$B$4*Results!E107+Info!$B$5*Results!E99+Info!$B$6*Results!E108+Info!$B$7*Results!E100+Info!$B$8*Results!E109+Info!$B$9*Results!E101+Info!$B$10*Results!E110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.24550769230769229</v>
+        <f>(Info!$B$2*Results!E97+Info!$B$3*Results!E98+Info!$B$5*Results!E99+Info!$B$7*Results!E100+Info!$B$9*Results!E101)/Info!$B$13</f>
+        <v>0.32308724832214764</v>
       </c>
       <c r="F103" s="1">
-        <f>(Info!$B$2*Results!F97+Info!$B$3*Results!F98+Info!$B$4*Results!F107+Info!$B$5*Results!F99+Info!$B$6*Results!F108+Info!$B$7*Results!F100+Info!$B$8*Results!F109+Info!$B$9*Results!F101+Info!$B$10*Results!F110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.66206153846153848</v>
+        <f>(Info!$B$2*Results!F97+Info!$B$3*Results!F98+Info!$B$5*Results!F99+Info!$B$7*Results!F100+Info!$B$9*Results!F101)/Info!$B$13</f>
+        <v>0.84000000000000008</v>
       </c>
       <c r="G103" s="1">
-        <f>(Info!$B$2*Results!G97+Info!$B$3*Results!G98+Info!$B$4*Results!G107+Info!$B$5*Results!G99+Info!$B$6*Results!G108+Info!$B$7*Results!G100+Info!$B$8*Results!G109+Info!$B$9*Results!G101+Info!$B$10*Results!G110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.65867692307692316</v>
+        <f>(Info!$B$2*Results!G97+Info!$B$3*Results!G98+Info!$B$5*Results!G99+Info!$B$7*Results!G100+Info!$B$9*Results!G101)/Info!$B$13</f>
+        <v>0.84852348993288595</v>
       </c>
       <c r="H103" s="1">
-        <f>(Info!$B$2*Results!H97+Info!$B$3*Results!H98+Info!$B$4*Results!H107+Info!$B$5*Results!H99+Info!$B$6*Results!H108+Info!$B$7*Results!H100+Info!$B$8*Results!H109+Info!$B$9*Results!H101+Info!$B$10*Results!H110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.16833846153846155</v>
+        <f>(Info!$B$2*Results!H97+Info!$B$3*Results!H98+Info!$B$5*Results!H99+Info!$B$7*Results!H100+Info!$B$9*Results!H101)/Info!$B$13</f>
+        <v>0.24630872483221478</v>
       </c>
       <c r="I103" s="1">
-        <f>(Info!$B$2*Results!I97+Info!$B$3*Results!I98+Info!$B$4*Results!I107+Info!$B$5*Results!I99+Info!$B$6*Results!I108+Info!$B$7*Results!I100+Info!$B$8*Results!I109+Info!$B$9*Results!I101+Info!$B$10*Results!I110)/SUM(Info!$B$2:$B$10)</f>
-        <v>0.57716923076923077</v>
+        <f>(Info!$B$2*Results!I97+Info!$B$3*Results!I98+Info!$B$5*Results!I99+Info!$B$7*Results!I100+Info!$B$9*Results!I101)/Info!$B$13</f>
+        <v>0.69342281879194623</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L103" s="1">
-        <f>C64-C109</f>
+        <f t="shared" ref="L103:R103" si="119">C64-C109</f>
         <v>0</v>
       </c>
       <c r="M103" s="1">
-        <f>D64-D109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="N103" s="1">
-        <f>E64-E109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="O103" s="1">
-        <f>F64-F109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="P103" s="1">
-        <f>G64-G109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <f>H64-H109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="R103" s="1">
-        <f>I64-I109</f>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="T103" s="7" t="s">
         <v>5</v>
       </c>
       <c r="U103" s="1">
-        <f>C109-L$64</f>
+        <f t="shared" ref="U103:AA103" si="120">C109-L$64</f>
         <v>-2.0000000000000004E-2</v>
       </c>
       <c r="V103" s="1">
-        <f>D109-M$64</f>
+        <f t="shared" si="120"/>
         <v>-0.79</v>
       </c>
       <c r="W103" s="1">
-        <f>E109-N$64</f>
+        <f t="shared" si="120"/>
         <v>-9.0000000000000011E-2</v>
       </c>
       <c r="X103" s="1">
-        <f>F109-O$64</f>
+        <f t="shared" si="120"/>
         <v>0.43000000000000005</v>
       </c>
       <c r="Y103" s="1">
-        <f>G109-P$64</f>
+        <f t="shared" si="120"/>
         <v>0.54</v>
       </c>
       <c r="Z103" s="1">
-        <f>H109-Q$64</f>
+        <f t="shared" si="120"/>
         <v>-0.11</v>
       </c>
       <c r="AA103" s="1">
-        <f>I109-R$64</f>
+        <f t="shared" si="120"/>
         <v>-0.87</v>
       </c>
     </row>
@@ -6138,62 +6138,62 @@
         <v>7</v>
       </c>
       <c r="L104" s="1">
-        <f>C56-C101</f>
+        <f t="shared" ref="L104:R104" si="121">C56-C101</f>
         <v>0.65999999999999992</v>
       </c>
       <c r="M104" s="1">
-        <f>D56-D101</f>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N104" s="1">
-        <f>E56-E101</f>
+        <f t="shared" si="121"/>
         <v>0.06</v>
       </c>
       <c r="O104" s="1">
-        <f>F56-F101</f>
+        <f t="shared" si="121"/>
         <v>0.13</v>
       </c>
       <c r="P104" s="1">
-        <f>G56-G101</f>
+        <f t="shared" si="121"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="Q104" s="1">
-        <f>H56-H101</f>
+        <f t="shared" si="121"/>
         <v>0.36</v>
       </c>
       <c r="R104" s="1">
-        <f>I56-I101</f>
+        <f t="shared" si="121"/>
         <v>0.73</v>
       </c>
       <c r="T104" s="7" t="s">
         <v>7</v>
       </c>
       <c r="U104" s="1">
-        <f>C101-L$56</f>
+        <f t="shared" ref="U104:AA104" si="122">C101-L$56</f>
         <v>0.2</v>
       </c>
       <c r="V104" s="1">
-        <f>D101-M$56</f>
+        <f t="shared" si="122"/>
         <v>0.27</v>
       </c>
       <c r="W104" s="1">
-        <f>E101-N$56</f>
+        <f t="shared" si="122"/>
         <v>0.24</v>
       </c>
       <c r="X104" s="1">
-        <f>F101-O$56</f>
+        <f t="shared" si="122"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="Y104" s="1">
-        <f>G101-P$56</f>
+        <f t="shared" si="122"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="Z104" s="1">
-        <f>H101-Q$56</f>
+        <f t="shared" si="122"/>
         <v>0.39</v>
       </c>
       <c r="AA104" s="1">
-        <f>I101-R$56</f>
+        <f t="shared" si="122"/>
         <v>0.41000000000000003</v>
       </c>
     </row>
@@ -6213,62 +6213,62 @@
         <v>8</v>
       </c>
       <c r="L105" s="9">
-        <f>C65-C110</f>
+        <f t="shared" ref="L105:R105" si="123">C65-C110</f>
         <v>0.11</v>
       </c>
       <c r="M105" s="5">
-        <f>D65-D110</f>
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
       <c r="N105" s="5">
-        <f>E65-E110</f>
+        <f t="shared" si="123"/>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="O105" s="5">
-        <f>F65-F110</f>
+        <f t="shared" si="123"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="P105" s="5">
-        <f>G65-G110</f>
+        <f t="shared" si="123"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="Q105" s="5">
-        <f>H65-H110</f>
+        <f t="shared" si="123"/>
         <v>0.16</v>
       </c>
       <c r="R105" s="5">
-        <f>I65-I110</f>
+        <f t="shared" si="123"/>
         <v>0.37</v>
       </c>
       <c r="T105" s="4" t="s">
         <v>8</v>
       </c>
       <c r="U105" s="9">
-        <f>C110-L$65</f>
+        <f t="shared" ref="U105:AA105" si="124">C110-L$65</f>
         <v>3.9999999999999994E-2</v>
       </c>
       <c r="V105" s="5">
-        <f>D110-M$65</f>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="W105" s="5">
-        <f>E110-N$65</f>
+        <f t="shared" si="124"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="X105" s="5">
-        <f>F110-O$65</f>
+        <f t="shared" si="124"/>
         <v>0.15</v>
       </c>
       <c r="Y105" s="5">
-        <f>G110-P$65</f>
+        <f t="shared" si="124"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="Z105" s="5">
-        <f>H110-Q$65</f>
+        <f t="shared" si="124"/>
         <v>9.0000000000000024E-2</v>
       </c>
       <c r="AA105" s="5">
-        <f>I110-R$65</f>
+        <f t="shared" si="124"/>
         <v>0.36</v>
       </c>
     </row>
@@ -6301,63 +6301,63 @@
         <v>44</v>
       </c>
       <c r="L106" s="1">
-        <f ca="1">C57-C102</f>
-        <v>0.45633333333333326</v>
+        <f t="shared" ref="L106:R107" si="125">C57-C102</f>
+        <v>0.43999999999999989</v>
       </c>
       <c r="M106" s="1">
-        <f ca="1">D57-D102</f>
-        <v>3.833333333333333E-2</v>
+        <f t="shared" si="125"/>
+        <v>-5.799999999999994E-2</v>
       </c>
       <c r="N106" s="1">
-        <f ca="1">E57-E102</f>
-        <v>0.19233333333333336</v>
+        <f t="shared" si="125"/>
+        <v>0.16200000000000003</v>
       </c>
       <c r="O106" s="1">
-        <f ca="1">F57-F102</f>
-        <v>0.22233333333333316</v>
+        <f t="shared" si="125"/>
+        <v>0.16799999999999982</v>
       </c>
       <c r="P106" s="1">
-        <f ca="1">G57-G102</f>
-        <v>0.23433333333333328</v>
+        <f t="shared" si="125"/>
+        <v>0.19599999999999995</v>
       </c>
       <c r="Q106" s="1">
-        <f ca="1">H57-H102</f>
-        <v>0.36300000000000004</v>
+        <f t="shared" si="125"/>
+        <v>0.28600000000000003</v>
       </c>
       <c r="R106" s="1">
-        <f ca="1">I57-I102</f>
-        <v>0.41133333333333327</v>
+        <f t="shared" si="125"/>
+        <v>0.23799999999999999</v>
       </c>
       <c r="T106" s="7" t="s">
         <v>44</v>
       </c>
       <c r="U106" s="1">
-        <f ca="1">C102-L$57</f>
-        <v>8.7666666666666671E-2</v>
+        <f t="shared" ref="U106:AA106" si="126">C102-L$57</f>
+        <v>0.10400000000000001</v>
       </c>
       <c r="V106" s="1">
-        <f ca="1">D102-M$57</f>
-        <v>-1.8333333333333313E-2</v>
+        <f t="shared" si="126"/>
+        <v>7.7999999999999958E-2</v>
       </c>
       <c r="W106" s="1">
-        <f ca="1">E102-N$57</f>
-        <v>0.10366666666666666</v>
+        <f t="shared" si="126"/>
+        <v>0.13399999999999998</v>
       </c>
       <c r="X106" s="1">
-        <f ca="1">F102-O$57</f>
-        <v>0.18166666666666675</v>
+        <f t="shared" si="126"/>
+        <v>0.2360000000000001</v>
       </c>
       <c r="Y106" s="1">
-        <f ca="1">G102-P$57</f>
-        <v>0.23966666666666669</v>
+        <f t="shared" si="126"/>
+        <v>0.27800000000000002</v>
       </c>
       <c r="Z106" s="1">
-        <f ca="1">H102-Q$57</f>
-        <v>0.11700000000000002</v>
+        <f t="shared" si="126"/>
+        <v>0.19400000000000003</v>
       </c>
       <c r="AA106" s="1">
-        <f ca="1">I102-R$57</f>
-        <v>0.23866666666666669</v>
+        <f t="shared" si="126"/>
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.25">
@@ -6389,63 +6389,63 @@
         <v>47</v>
       </c>
       <c r="L107" s="1">
-        <f>C58-C103</f>
-        <v>0.43670017482517476</v>
+        <f t="shared" si="125"/>
+        <v>0.37763460951799871</v>
       </c>
       <c r="M107" s="1">
-        <f>D58-D103</f>
-        <v>-5.4578846153846117E-2</v>
+        <f t="shared" si="125"/>
+        <v>-0.1975713087248322</v>
       </c>
       <c r="N107" s="1">
-        <f>E58-E103</f>
-        <v>0.18165139860139864</v>
+        <f t="shared" si="125"/>
+        <v>0.1040718425869433</v>
       </c>
       <c r="O107" s="1">
-        <f>F58-F103</f>
-        <v>0.21259755244755241</v>
+        <f t="shared" si="125"/>
+        <v>3.4659090909090806E-2</v>
       </c>
       <c r="P107" s="1">
-        <f>G58-G103</f>
-        <v>0.24467534965034943</v>
+        <f t="shared" si="125"/>
+        <v>5.4828782794386632E-2</v>
       </c>
       <c r="Q107" s="1">
-        <f>H58-H103</f>
-        <v>0.29916153846153848</v>
+        <f t="shared" si="125"/>
+        <v>0.22119127516778525</v>
       </c>
       <c r="R107" s="1">
-        <f>I58-I103</f>
-        <v>0.1766375874125875</v>
+        <f t="shared" si="125"/>
+        <v>6.0383999389872045E-2</v>
       </c>
       <c r="T107" s="7" t="s">
         <v>47</v>
       </c>
       <c r="U107" s="1">
-        <f>C103-L$58</f>
-        <v>7.1936188811188823E-2</v>
+        <f t="shared" ref="U107:AA107" si="127">C103-L$58</f>
+        <v>0.13100175411836484</v>
       </c>
       <c r="V107" s="1">
-        <f>D103-M$58</f>
-        <v>4.8442482517482399E-2</v>
+        <f t="shared" si="127"/>
+        <v>0.19143494508846848</v>
       </c>
       <c r="W107" s="1">
-        <f>E103-N$58</f>
-        <v>0.10090541958041957</v>
+        <f t="shared" si="127"/>
+        <v>0.17848497559487492</v>
       </c>
       <c r="X107" s="1">
-        <f>F103-O$58</f>
-        <v>0.19717517482517488</v>
+        <f t="shared" si="127"/>
+        <v>0.37511363636363648</v>
       </c>
       <c r="Y107" s="1">
-        <f>G103-P$58</f>
-        <v>0.25504055944055948</v>
+        <f t="shared" si="127"/>
+        <v>0.44488712629652227</v>
       </c>
       <c r="Z107" s="1">
-        <f>H103-Q$58</f>
-        <v>0.14396346153846157</v>
+        <f t="shared" si="127"/>
+        <v>0.2219337248322148</v>
       </c>
       <c r="AA107" s="1">
-        <f>I103-R$58</f>
-        <v>0.45870332167832167</v>
+        <f t="shared" si="127"/>
+        <v>0.57495690970103719</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
@@ -6535,27 +6535,27 @@
         <v>0.1225</v>
       </c>
       <c r="D111" s="2">
-        <f t="shared" ref="D111" si="62">SUM(D107:D110)/COUNT(D107:D110)</f>
+        <f t="shared" ref="D111" si="128">SUM(D107:D110)/COUNT(D107:D110)</f>
         <v>0.50249999999999995</v>
       </c>
       <c r="E111" s="2">
-        <f t="shared" ref="E111" si="63">SUM(E107:E110)/COUNT(E107:E110)</f>
+        <f t="shared" ref="E111" si="129">SUM(E107:E110)/COUNT(E107:E110)</f>
         <v>0.18</v>
       </c>
       <c r="F111" s="2">
-        <f t="shared" ref="F111" si="64">SUM(F107:F110)/COUNT(F107:F110)</f>
+        <f t="shared" ref="F111" si="130">SUM(F107:F110)/COUNT(F107:F110)</f>
         <v>0.58750000000000002</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" ref="G111" si="65">SUM(G107:G110)/COUNT(G107:G110)</f>
+        <f t="shared" ref="G111" si="131">SUM(G107:G110)/COUNT(G107:G110)</f>
         <v>0.60750000000000004</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" ref="H111" si="66">SUM(H107:H110)/COUNT(H107:H110)</f>
+        <f t="shared" ref="H111" si="132">SUM(H107:H110)/COUNT(H107:H110)</f>
         <v>3.7500000000000006E-2</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" ref="I111" si="67">SUM(I107:I110)/COUNT(I107:I110)</f>
+        <f t="shared" ref="I111" si="133">SUM(I107:I110)/COUNT(I107:I110)</f>
         <v>0.29249999999999998</v>
       </c>
     </row>
@@ -6601,27 +6601,27 @@
         <v>0.17</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" ref="D114:I114" si="68">(SUM(D97:D101)+SUM(D107:D110))/(COUNT(D97:D101)+COUNT(D107:D110))</f>
+        <f t="shared" ref="D114:I114" si="134">(SUM(D97:D101)+SUM(D107:D110))/(COUNT(D97:D101)+COUNT(D107:D110))</f>
         <v>0.60555555555555551</v>
       </c>
       <c r="E114" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="134"/>
         <v>0.2422222222222222</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="134"/>
         <v>0.64777777777777779</v>
       </c>
       <c r="G114" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="134"/>
         <v>0.6644444444444445</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="134"/>
         <v>0.13444444444444445</v>
       </c>
       <c r="I114" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="134"/>
         <v>0.44111111111111106</v>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
         <v>1</v>
       </c>
       <c r="C121" s="1">
-        <f t="shared" ref="C121:C124" si="69">D121+F121</f>
+        <f t="shared" ref="C121:C124" si="135">D121+F121</f>
         <v>5</v>
       </c>
       <c r="D121" s="1">
@@ -6798,27 +6798,27 @@
         <v>1</v>
       </c>
       <c r="J121" s="1">
-        <f t="shared" ref="J121:J124" si="70">2*H121*I121/(H121+I121)</f>
+        <f t="shared" ref="J121:J124" si="136">2*H121*I121/(H121+I121)</f>
         <v>1</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" ref="K121:K124" si="71">(D121+G121)/SUM(D121:G121)</f>
+        <f t="shared" ref="K121:K124" si="137">(D121+G121)/SUM(D121:G121)</f>
         <v>1</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" ref="L121:L124" si="72">G121/(G121+E121)</f>
+        <f t="shared" ref="L121:L124" si="138">G121/(G121+E121)</f>
         <v>1</v>
       </c>
       <c r="M121" s="1">
-        <f t="shared" ref="M121:M124" si="73">((D121*G121)-(E121*F121))/SQRT((D121+E121)*(D121+F121)*(G121+E121)*(G121+F121))</f>
+        <f t="shared" ref="M121:M124" si="139">((D121*G121)-(E121*F121))/SQRT((D121+E121)*(D121+F121)*(G121+E121)*(G121+F121))</f>
         <v>1</v>
       </c>
       <c r="N121" s="1">
-        <f t="shared" ref="N121:N124" si="74">IF(H121&gt;=I121,SQRT((E121+G121)*(D121+E121))/SQRT((F121+G121)*(D121+F121)),SQRT((F121+G121)*(D121+F121))/SQRT((E121+G121)*(D121+E121)))</f>
+        <f t="shared" ref="N121:N124" si="140">IF(H121&gt;=I121,SQRT((E121+G121)*(D121+E121))/SQRT((F121+G121)*(D121+F121)),SQRT((F121+G121)*(D121+F121))/SQRT((E121+G121)*(D121+E121)))</f>
         <v>1</v>
       </c>
       <c r="O121" s="1">
-        <f t="shared" ref="O121:O124" si="75">M121/N121</f>
+        <f t="shared" ref="O121:O124" si="141">M121/N121</f>
         <v>1</v>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
         <v>2</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="135"/>
         <v>0</v>
       </c>
       <c r="D122" s="1">
@@ -6844,11 +6844,11 @@
         <v>8</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="138"/>
         <v>1</v>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="D123" s="1">
@@ -6882,27 +6882,27 @@
         <v>1</v>
       </c>
       <c r="J123" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="138"/>
         <v>1</v>
       </c>
       <c r="M123" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="N123" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="140"/>
         <v>1</v>
       </c>
       <c r="O123" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="1">
-        <f t="shared" si="69"/>
+        <f t="shared" si="135"/>
         <v>1</v>
       </c>
       <c r="D124" s="1">
@@ -6936,27 +6936,27 @@
         <v>1</v>
       </c>
       <c r="J124" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="136"/>
         <v>1</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="137"/>
         <v>1</v>
       </c>
       <c r="L124" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="138"/>
         <v>1</v>
       </c>
       <c r="M124" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="139"/>
         <v>1</v>
       </c>
       <c r="N124" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="140"/>
         <v>1</v>
       </c>
       <c r="O124" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
     </row>
@@ -6974,31 +6974,31 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" ref="I125:O125" si="76">SUM(I120:I124)/COUNT(I120:I124)</f>
+        <f t="shared" ref="I125:O125" si="142">SUM(I120:I124)/COUNT(I120:I124)</f>
         <v>1</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>0.95</v>
       </c>
       <c r="K125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>0.96666666666666679</v>
       </c>
       <c r="M125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>0.93633899812498245</v>
       </c>
       <c r="N125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>0.93633899812498256</v>
       </c>
       <c r="O125" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="142"/>
         <v>1</v>
       </c>
     </row>
@@ -7012,35 +7012,35 @@
       <c r="F126" s="6"/>
       <c r="G126" s="10"/>
       <c r="H126" s="6">
-        <f>(($C120*H120)+($C121*H121)+($C122*H122)+($C123*H123)+($C124*H124))/SUM($C120:$C124)</f>
+        <f t="shared" ref="H126:O126" si="143">(($C120*H120)+($C121*H121)+($C122*H122)+($C123*H123)+($C124*H124))/SUM($C120:$C124)</f>
         <v>0.87878787878787878</v>
       </c>
       <c r="I126" s="6">
-        <f>(($C120*I120)+($C121*I121)+($C122*I122)+($C123*I123)+($C124*I124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>1</v>
       </c>
       <c r="J126" s="6">
-        <f>(($C120*J120)+($C121*J121)+($C122*J122)+($C123*J123)+($C124*J124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>0.92727272727272725</v>
       </c>
       <c r="K126" s="6">
-        <f>(($C120*K120)+($C121*K121)+($C122*K122)+($C123*K123)+($C124*K124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>0.95454545454545459</v>
       </c>
       <c r="L126" s="6">
-        <f>(($C120*L120)+($C121*L121)+($C122*L122)+($C123*L123)+($C124*L124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="M126" s="6">
-        <f>(($C120*M120)+($C121*M121)+($C122*M122)+($C123*M123)+($C124*M124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>0.90740217909088361</v>
       </c>
       <c r="N126" s="6">
-        <f>(($C120*N120)+($C121*N121)+($C122*N122)+($C123*N123)+($C124*N124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>0.90740217909088372</v>
       </c>
       <c r="O126" s="6">
-        <f>(($C120*O120)+($C121*O121)+($C122*O122)+($C123*O123)+($C124*O124))/SUM($C120:$C124)</f>
+        <f t="shared" si="143"/>
         <v>1</v>
       </c>
     </row>
@@ -7325,31 +7325,31 @@
         <v>0.875</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" ref="I134:O134" si="77">SUM(I130:I133)/COUNT(I130:I133)</f>
+        <f t="shared" ref="I134:O134" si="144">SUM(I130:I133)/COUNT(I130:I133)</f>
         <v>0.8125</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.82727272727272738</v>
       </c>
       <c r="K134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.86893939393939401</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.93181818181818188</v>
       </c>
       <c r="M134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.74281508323688639</v>
       </c>
       <c r="N134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.81974726509896934</v>
       </c>
       <c r="O134" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="144"/>
         <v>0.89583333333333326</v>
       </c>
     </row>
@@ -7367,31 +7367,31 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I135" s="6">
-        <f>(+($C130*I130)+($C131*I131)+($C132*I132)+($C133*I133))/SUM($C130:$C133)</f>
+        <f t="shared" ref="I135:O135" si="145">(+($C130*I130)+($C131*I131)+($C132*I132)+($C133*I133))/SUM($C130:$C133)</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="J135" s="6">
-        <f>(+($C130*J130)+($C131*J131)+($C132*J132)+($C133*J133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.80389610389610389</v>
       </c>
       <c r="K135" s="6">
-        <f>(+($C130*K130)+($C131*K131)+($C132*K132)+($C133*K133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.84913419913419907</v>
       </c>
       <c r="L135" s="6">
-        <f>(+($C130*L130)+($C131*L131)+($C132*L132)+($C133*L133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.92207792207792216</v>
       </c>
       <c r="M135" s="6">
-        <f>(+($C130*M130)+($C131*M131)+($C132*M132)+($C133*M133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.70318580123359298</v>
       </c>
       <c r="N135" s="6">
-        <f>(+($C130*N130)+($C131*N131)+($C132*N132)+($C133*N133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.79110829479025913</v>
       </c>
       <c r="O135" s="6">
-        <f>(+($C130*O130)+($C131*O131)+($C132*O132)+($C133*O133))/SUM($C130:$C133)</f>
+        <f t="shared" si="145"/>
         <v>0.88095238095238082</v>
       </c>
     </row>
@@ -7414,31 +7414,31 @@
         <v>0.89583333333333326</v>
       </c>
       <c r="I137" s="10">
-        <f t="shared" ref="I137:O137" si="78">(SUM(I120:I124)+SUM(I130:I133))/(COUNT(I120:I124)+COUNT(I130:I133))</f>
+        <f t="shared" ref="I137:O137" si="146">(SUM(I120:I124)+SUM(I130:I133))/(COUNT(I120:I124)+COUNT(I130:I133))</f>
         <v>0.90625</v>
       </c>
       <c r="J137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.88863636363636367</v>
       </c>
       <c r="K137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.92786195286195294</v>
       </c>
       <c r="L137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.95117845117845135</v>
       </c>
       <c r="M137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.83957704068093442</v>
       </c>
       <c r="N137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.87804313161197589</v>
       </c>
       <c r="O137" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="146"/>
         <v>0.94791666666666663</v>
       </c>
     </row>
@@ -7451,31 +7451,31 @@
         <v>0.86666666666666659</v>
       </c>
       <c r="I138" s="1">
-        <f t="shared" ref="I138:O138" si="79">(($C120*I120)+($C121*I121)+($C122*I122)+($C123*I123)+($C124*I124)+($C130*I130)+($C131*I131)+($C132*I132)+($C133*I133))/(SUM($C120:$C124)+SUM($C130:$C133))</f>
+        <f t="shared" ref="I138:O138" si="147">(($C120*I120)+($C121*I121)+($C122*I122)+($C123*I123)+($C124*I124)+($C130*I130)+($C131*I131)+($C132*I132)+($C133*I133))/(SUM($C120:$C124)+SUM($C130:$C133))</f>
         <v>0.88</v>
       </c>
       <c r="J138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.85818181818181816</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.89551515151515149</v>
       </c>
       <c r="L138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.9296969696969698</v>
       </c>
       <c r="M138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.79304100749080075</v>
       </c>
       <c r="N138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.84227760388253403</v>
       </c>
       <c r="O138" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="147"/>
         <v>0.93333333333333324</v>
       </c>
     </row>
